--- a/DbFolder/ParkingDB.xlsx
+++ b/DbFolder/ParkingDB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UniversityFiles\Курсовая работа ЯП\ParkingWork\DbFolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepositories\parkingWPF_project\DbFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0BC62E-6BAF-4D37-B576-E15DC0CC1D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A74084-C807-448E-9CE4-A60521DD523A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1356,7 +1356,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1374,6 +1374,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1414,12 +1421,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3057,7 +3065,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C2" sqref="C2:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3095,10 +3103,10 @@
         <v>58</v>
       </c>
       <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
       </c>
       <c r="D2" t="s">
         <v>89</v>
@@ -3115,10 +3123,10 @@
         <v>59</v>
       </c>
       <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="C3" t="s">
-        <v>91</v>
       </c>
       <c r="D3" t="s">
         <v>92</v>
@@ -3135,10 +3143,10 @@
         <v>60</v>
       </c>
       <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="C4" t="s">
-        <v>50</v>
       </c>
       <c r="D4" t="s">
         <v>94</v>
@@ -3155,10 +3163,10 @@
         <v>61</v>
       </c>
       <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="C5" t="s">
-        <v>96</v>
       </c>
       <c r="D5" t="s">
         <v>97</v>
@@ -3175,10 +3183,10 @@
         <v>62</v>
       </c>
       <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="C6" t="s">
-        <v>99</v>
       </c>
       <c r="D6" t="s">
         <v>55</v>
@@ -3195,10 +3203,10 @@
         <v>63</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>101</v>
@@ -3215,10 +3223,10 @@
         <v>64</v>
       </c>
       <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="C8" t="s">
-        <v>103</v>
       </c>
       <c r="D8" t="s">
         <v>104</v>
@@ -3235,10 +3243,10 @@
         <v>65</v>
       </c>
       <c r="B9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="C9" t="s">
-        <v>106</v>
       </c>
       <c r="D9" t="s">
         <v>107</v>
@@ -3255,10 +3263,10 @@
         <v>66</v>
       </c>
       <c r="B10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="C10" t="s">
-        <v>109</v>
       </c>
       <c r="D10" t="s">
         <v>110</v>
@@ -3275,10 +3283,10 @@
         <v>67</v>
       </c>
       <c r="B11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="C11" t="s">
-        <v>112</v>
       </c>
       <c r="D11" t="s">
         <v>97</v>
@@ -3295,10 +3303,10 @@
         <v>68</v>
       </c>
       <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="C12" t="s">
-        <v>53</v>
       </c>
       <c r="D12" t="s">
         <v>114</v>
@@ -3315,10 +3323,10 @@
         <v>69</v>
       </c>
       <c r="B13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="C13" t="s">
-        <v>116</v>
       </c>
       <c r="D13" t="s">
         <v>117</v>
@@ -3335,10 +3343,10 @@
         <v>70</v>
       </c>
       <c r="B14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C14" t="s">
-        <v>119</v>
       </c>
       <c r="D14" t="s">
         <v>120</v>
@@ -3355,10 +3363,10 @@
         <v>71</v>
       </c>
       <c r="B15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="C15" t="s">
-        <v>122</v>
       </c>
       <c r="D15" t="s">
         <v>123</v>
@@ -3375,10 +3383,10 @@
         <v>72</v>
       </c>
       <c r="B16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="C16" t="s">
-        <v>125</v>
       </c>
       <c r="D16" t="s">
         <v>126</v>
@@ -3395,10 +3403,10 @@
         <v>73</v>
       </c>
       <c r="B17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="C17" t="s">
-        <v>128</v>
       </c>
       <c r="D17" t="s">
         <v>129</v>
@@ -3415,10 +3423,10 @@
         <v>74</v>
       </c>
       <c r="B18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="C18" t="s">
-        <v>131</v>
       </c>
       <c r="D18" t="s">
         <v>46</v>
@@ -3435,10 +3443,10 @@
         <v>75</v>
       </c>
       <c r="B19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="C19" t="s">
-        <v>133</v>
       </c>
       <c r="D19" t="s">
         <v>134</v>
@@ -3455,10 +3463,10 @@
         <v>76</v>
       </c>
       <c r="B20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="C20" t="s">
-        <v>136</v>
       </c>
       <c r="D20" t="s">
         <v>137</v>
@@ -3475,10 +3483,10 @@
         <v>77</v>
       </c>
       <c r="B21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="C21" t="s">
-        <v>139</v>
       </c>
       <c r="D21" t="s">
         <v>31</v>
@@ -3495,10 +3503,10 @@
         <v>78</v>
       </c>
       <c r="B22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="C22" t="s">
-        <v>140</v>
       </c>
       <c r="D22" t="s">
         <v>141</v>
@@ -3515,10 +3523,10 @@
         <v>79</v>
       </c>
       <c r="B23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="C23" t="s">
-        <v>143</v>
       </c>
       <c r="D23" t="s">
         <v>144</v>
@@ -3535,10 +3543,10 @@
         <v>80</v>
       </c>
       <c r="B24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="C24" t="s">
-        <v>146</v>
       </c>
       <c r="D24" t="s">
         <v>147</v>
@@ -3555,10 +3563,10 @@
         <v>81</v>
       </c>
       <c r="B25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="C25" t="s">
-        <v>149</v>
       </c>
       <c r="D25" t="s">
         <v>104</v>
@@ -3575,10 +3583,10 @@
         <v>82</v>
       </c>
       <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="C26" t="s">
-        <v>29</v>
       </c>
       <c r="D26" t="s">
         <v>151</v>
@@ -3595,10 +3603,10 @@
         <v>83</v>
       </c>
       <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="C27" t="s">
-        <v>38</v>
       </c>
       <c r="D27" t="s">
         <v>153</v>
@@ -3615,10 +3623,10 @@
         <v>84</v>
       </c>
       <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="C28" t="s">
-        <v>38</v>
       </c>
       <c r="D28" t="s">
         <v>155</v>
@@ -3635,10 +3643,10 @@
         <v>85</v>
       </c>
       <c r="B29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="C29" t="s">
-        <v>156</v>
       </c>
       <c r="D29" t="s">
         <v>46</v>
@@ -3655,10 +3663,10 @@
         <v>86</v>
       </c>
       <c r="B30" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="C30" t="s">
-        <v>157</v>
       </c>
       <c r="D30" t="s">
         <v>117</v>
@@ -3675,10 +3683,10 @@
         <v>87</v>
       </c>
       <c r="B31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="C31" t="s">
-        <v>159</v>
       </c>
       <c r="D31" t="s">
         <v>160</v>

--- a/DbFolder/ParkingDB.xlsx
+++ b/DbFolder/ParkingDB.xlsx
@@ -19,12 +19,12 @@
     <sheet name="Attendants" sheetId="4" r:id="rId4"/>
     <sheet name="Vehicles" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="1" fullPrecision="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="486">
   <si>
     <t>Id</t>
   </si>
@@ -617,16 +617,16 @@
     <t>Место PREMIUM LUXE №1</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>02ab48e8-11ba-448a-a400-d68f17fe75cf</t>
+  </si>
+  <si>
+    <t>Место №2</t>
+  </si>
+  <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>02ab48e8-11ba-448a-a400-d68f17fe75cf</t>
-  </si>
-  <si>
-    <t>Место №2</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>cdfea5ed-dec1-495f-80d1-cc95a402140a</t>
@@ -1488,7 +1488,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1836,648 +1837,649 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="0" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="0" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    <row r="5">
+      <c r="A5" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+    <row r="6">
+      <c r="A6" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+    <row r="7">
+      <c r="A7" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="0" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+    <row r="8">
+      <c r="A8" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="0" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+    <row r="9">
+      <c r="A9" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="0" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+    <row r="10">
+      <c r="A10" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="0" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+    <row r="11">
+      <c r="A11" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="0" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+    <row r="12">
+      <c r="A12" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="0" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+    <row r="13">
+      <c r="A13" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="0" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+    <row r="14">
+      <c r="A14" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="0" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+    <row r="15">
+      <c r="A15" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="0" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+    <row r="16">
+      <c r="A16" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="0" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+    <row r="17">
+      <c r="A17" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="0" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+    <row r="18">
+      <c r="A18" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="0" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+    <row r="19">
+      <c r="A19" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="0" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+    <row r="20">
+      <c r="A20" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="0" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+    <row r="21">
+      <c r="A21" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="0" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
+    <row r="22">
+      <c r="A22" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="0" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
+    <row r="23">
+      <c r="A23" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="0" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
+    <row r="24">
+      <c r="A24" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="0" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
+    <row r="25">
+      <c r="A25" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="0" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
+    <row r="26">
+      <c r="A26" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="0" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
+    <row r="27">
+      <c r="A27" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="0" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
+    <row r="28">
+      <c r="A28" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="0" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
+    <row r="29">
+      <c r="A29" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="0" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
+    <row r="30">
+      <c r="A30" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="0" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+    <row r="31">
+      <c r="A31" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="0" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
+    <row r="32">
+      <c r="A32" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="0" t="s">
         <v>183</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -2491,55 +2493,56 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="19.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="19.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>192</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -2553,1285 +2556,1286 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="22.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="22.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="D2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="D2" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="D4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="D4" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="D5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+      <c r="D5" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="D6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="D6" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="D7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="D7" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="D8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+      <c r="D8" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="D9" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+      <c r="D9" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="D10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+      <c r="D10" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="D11" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+      <c r="D11" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="D12" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+      <c r="D12" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="D13" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+      <c r="D13" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="D14" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+      <c r="D14" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="D15" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+      <c r="D15" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="D16" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+      <c r="D16" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="D17" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+      <c r="D17" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="D18" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+      <c r="D18" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="D19" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+      <c r="D19" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="D20" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+      <c r="D20" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="D21" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
+      <c r="D21" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="D22" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
+      <c r="D22" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="D23" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
+      <c r="D23" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="D24" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
+      <c r="D24" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="D25" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
+      <c r="D25" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="D26" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
+      <c r="D26" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="D27" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
+      <c r="D27" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="D28" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
+      <c r="D28" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="D29" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
+      <c r="D29" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="D30" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+      <c r="D30" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="D31" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
+      <c r="D31" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="D32" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
+      <c r="D32" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="D33" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
+      <c r="D33" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="D34" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
+      <c r="D34" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="D35" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
+      <c r="D35" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="D36" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
+      <c r="D36" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="D37" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
+      <c r="D37" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="D38" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
+      <c r="D38" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="D39" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
+      <c r="D39" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="D40" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
+      <c r="D40" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="D41" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
+      <c r="D41" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="D42" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
+      <c r="D42" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="D43" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
+      <c r="D43" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="D44" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
+      <c r="D44" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="D45" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
+      <c r="D45" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="D46" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
+      <c r="D46" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="D47" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
+      <c r="D47" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="D48" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
+      <c r="D48" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="D49" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
+      <c r="D49" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="D50" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
+      <c r="D50" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="D51" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
+      <c r="D51" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="D52" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
+      <c r="D52" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="D53" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
+      <c r="D53" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="D54" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
+      <c r="D54" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="D55" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
+      <c r="D55" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="D56" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
+      <c r="D56" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="D57" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
+      <c r="D57" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="D58" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
+      <c r="D58" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="D59" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
+      <c r="D59" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="D60" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
+      <c r="D60" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="D61" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
+      <c r="D61" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="D62" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
+      <c r="D62" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="D63" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A64" t="s">
+      <c r="D63" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="D64" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
+      <c r="D64" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="D65" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A66" t="s">
+      <c r="D65" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="D66" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A67" t="s">
+      <c r="D66" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="D67" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A68" t="s">
+      <c r="D67" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="D68" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
+      <c r="D68" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="D69" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A70" t="s">
+      <c r="D69" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="D70" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A71" t="s">
+      <c r="D70" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="D71" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A72" t="s">
+      <c r="D71" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="D72" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A73" t="s">
+      <c r="D72" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="D73" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A74" t="s">
+      <c r="D73" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="D74" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A75" t="s">
+      <c r="D74" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="D75" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A76" t="s">
+      <c r="D75" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="D76" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A77" t="s">
+      <c r="D76" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="D77" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A78" t="s">
+      <c r="D77" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="D78" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A79" t="s">
+      <c r="D78" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="D79" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A80" t="s">
+      <c r="D79" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="D80" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A81" t="s">
+      <c r="D80" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="D81" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A82" t="s">
+      <c r="D81" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="D82" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A83" t="s">
+      <c r="D82" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="D83" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A84" t="s">
+      <c r="D83" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="D84" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A85" t="s">
+      <c r="D84" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="D85" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A86" t="s">
+      <c r="D85" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="s">
         <v>312</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="D86" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A87" t="s">
+      <c r="D86" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="D87" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A88" t="s">
+      <c r="D87" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="D88" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A89" t="s">
+      <c r="D88" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="D89" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A90" t="s">
+      <c r="D89" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="D90" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A91" t="s">
+      <c r="D90" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="D91" t="s">
-        <v>200</v>
+      <c r="D91" s="0" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -3845,223 +3849,224 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="9.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="9.53125" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="11.53125" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="13.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="0" t="s">
         <v>321</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>323</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    <row r="5">
+      <c r="A5" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+    <row r="6">
+      <c r="A6" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>332</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="0" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+    <row r="7">
+      <c r="A7" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>334</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="0" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+    <row r="8">
+      <c r="A8" s="0" t="s">
         <v>337</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="0" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+    <row r="9">
+      <c r="A9" s="0" t="s">
         <v>340</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>341</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="0" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+    <row r="10">
+      <c r="A10" s="0" t="s">
         <v>343</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="0" t="s">
         <v>344</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="0" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+    <row r="11">
+      <c r="A11" s="0" t="s">
         <v>346</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+    <row r="12">
+      <c r="A12" s="0" t="s">
         <v>348</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="0" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+    <row r="13">
+      <c r="A13" s="0" t="s">
         <v>351</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="0" t="s">
         <v>352</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="0" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+    <row r="14">
+      <c r="A14" s="0" t="s">
         <v>353</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="0" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+    <row r="15">
+      <c r="A15" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="0" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -4075,670 +4080,671 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="11.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>360</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>361</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>363</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>366</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>368</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="0" t="s">
         <v>372</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>373</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>374</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>375</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="0" t="s">
         <v>376</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="0">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    <row r="5">
+      <c r="A5" s="0" t="s">
         <v>377</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>378</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>379</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="0" t="s">
         <v>380</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+    <row r="6">
+      <c r="A6" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>382</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="0" t="s">
         <v>383</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="0" t="s">
         <v>384</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="0">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+    <row r="7">
+      <c r="A7" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="0" t="s">
         <v>386</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="0" t="s">
         <v>379</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="0" t="s">
         <v>387</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="0">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+    <row r="8">
+      <c r="A8" s="0" t="s">
         <v>388</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>389</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="0" t="s">
         <v>390</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="0" t="s">
         <v>391</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="0">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+    <row r="9">
+      <c r="A9" s="0" t="s">
         <v>392</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="0" t="s">
         <v>394</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="0" t="s">
         <v>395</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+    <row r="10">
+      <c r="A10" s="0" t="s">
         <v>396</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="0" t="s">
         <v>397</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="0" t="s">
         <v>398</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="0" t="s">
         <v>399</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+    <row r="11">
+      <c r="A11" s="0" t="s">
         <v>400</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="0" t="s">
         <v>401</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="0" t="s">
         <v>402</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="0" t="s">
         <v>403</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="0">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+    <row r="12">
+      <c r="A12" s="0" t="s">
         <v>404</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="0" t="s">
         <v>405</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="0" t="s">
         <v>406</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="0" t="s">
         <v>407</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="0">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+    <row r="13">
+      <c r="A13" s="0" t="s">
         <v>408</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="0" t="s">
         <v>409</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="0" t="s">
         <v>410</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="0" t="s">
         <v>411</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+    <row r="14">
+      <c r="A14" s="0" t="s">
         <v>412</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="0" t="s">
         <v>413</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="0" t="s">
         <v>406</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="0" t="s">
         <v>414</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="0">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+    <row r="15">
+      <c r="A15" s="0" t="s">
         <v>415</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="0" t="s">
         <v>416</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="0" t="s">
         <v>418</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+    <row r="16">
+      <c r="A16" s="0" t="s">
         <v>419</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="0" t="s">
         <v>420</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="0" t="s">
         <v>421</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="0" t="s">
         <v>422</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+    <row r="17">
+      <c r="A17" s="0" t="s">
         <v>423</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="0" t="s">
         <v>424</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="0" t="s">
         <v>425</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="0" t="s">
         <v>426</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+    <row r="18">
+      <c r="A18" s="0" t="s">
         <v>427</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="0" t="s">
         <v>428</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="0" t="s">
         <v>429</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="0" t="s">
         <v>430</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="0">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+    <row r="19">
+      <c r="A19" s="0" t="s">
         <v>431</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="0" t="s">
         <v>432</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="0" t="s">
         <v>390</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="0" t="s">
         <v>433</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+    <row r="20">
+      <c r="A20" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="0" t="s">
         <v>436</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="0" t="s">
         <v>437</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+    <row r="21">
+      <c r="A21" s="0" t="s">
         <v>438</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="0" t="s">
         <v>439</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="0" t="s">
         <v>440</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="0" t="s">
         <v>441</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="0">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
+    <row r="22">
+      <c r="A22" s="0" t="s">
         <v>442</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="0" t="s">
         <v>443</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
+    <row r="23">
+      <c r="A23" s="0" t="s">
         <v>446</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="0" t="s">
         <v>447</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="0" t="s">
         <v>448</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="0" t="s">
         <v>449</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
+    <row r="24">
+      <c r="A24" s="0" t="s">
         <v>450</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="0" t="s">
         <v>451</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="0" t="s">
         <v>398</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="0" t="s">
         <v>452</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
+    <row r="25">
+      <c r="A25" s="0" t="s">
         <v>453</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="0" t="s">
         <v>454</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="0" t="s">
         <v>402</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="0" t="s">
         <v>455</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="0">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
+    <row r="26">
+      <c r="A26" s="0" t="s">
         <v>456</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="0" t="s">
         <v>457</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="0" t="s">
         <v>458</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="0" t="s">
         <v>459</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="0">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
+    <row r="27">
+      <c r="A27" s="0" t="s">
         <v>460</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="0" t="s">
         <v>461</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="0" t="s">
         <v>462</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="0" t="s">
         <v>463</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="0">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
+    <row r="28">
+      <c r="A28" s="0" t="s">
         <v>464</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="0" t="s">
         <v>465</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="0" t="s">
         <v>466</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="0" t="s">
         <v>467</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="0">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
+    <row r="29">
+      <c r="A29" s="0" t="s">
         <v>468</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="0" t="s">
         <v>470</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="0" t="s">
         <v>471</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="0">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
+    <row r="30">
+      <c r="A30" s="0" t="s">
         <v>472</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="0" t="s">
         <v>473</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="0" t="s">
         <v>383</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="0" t="s">
         <v>474</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+    <row r="31">
+      <c r="A31" s="0" t="s">
         <v>475</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="0" t="s">
         <v>476</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="0" t="s">
         <v>477</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="0" t="s">
         <v>478</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
+    <row r="32">
+      <c r="A32" s="0" t="s">
         <v>479</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="0" t="s">
         <v>480</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="0" t="s">
         <v>481</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="0" t="s">
         <v>482</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
+    <row r="33">
+      <c r="A33" s="0" t="s">
         <v>483</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="0" t="s">
         <v>484</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="0" t="s">
         <v>481</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="0" t="s">
         <v>485</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="0">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/DbFolder/ParkingDB.xlsx
+++ b/DbFolder/ParkingDB.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="485">
   <si>
     <t>Id</t>
   </si>
@@ -617,24 +617,24 @@
     <t>Место PREMIUM LUXE №1</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>02ab48e8-11ba-448a-a400-d68f17fe75cf</t>
+  </si>
+  <si>
+    <t>Место №2</t>
+  </si>
+  <si>
+    <t>cdfea5ed-dec1-495f-80d1-cc95a402140a</t>
+  </si>
+  <si>
+    <t>Место №3</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>02ab48e8-11ba-448a-a400-d68f17fe75cf</t>
-  </si>
-  <si>
-    <t>Место №2</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>cdfea5ed-dec1-495f-80d1-cc95a402140a</t>
-  </si>
-  <si>
-    <t>Место №3</t>
-  </si>
-  <si>
     <t>7df1f2e7-5cdb-4d43-9bd1-590382165933</t>
   </si>
   <si>
@@ -1004,7 +1004,7 @@
     <t>Смирнов</t>
   </si>
   <si>
-    <t>Vикторович</t>
+    <t>Викторович</t>
   </si>
   <si>
     <t>e670d325-0cd8-4100-bb20-4e1b72e51403</t>
@@ -1092,9 +1092,6 @@
   </si>
   <si>
     <t>Черкасов</t>
-  </si>
-  <si>
-    <t>Викторович</t>
   </si>
   <si>
     <t>0f906b8c-fc73-40d7-bab0-fc79fdacaec6</t>
@@ -2598,21 +2595,21 @@
         <v>199</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>184</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5">
@@ -2626,7 +2623,7 @@
         <v>204</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6">
@@ -2640,7 +2637,7 @@
         <v>206</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7">
@@ -2654,7 +2651,7 @@
         <v>208</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8">
@@ -2668,7 +2665,7 @@
         <v>210</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9">
@@ -2682,7 +2679,7 @@
         <v>212</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10">
@@ -2696,7 +2693,7 @@
         <v>214</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11">
@@ -2710,7 +2707,7 @@
         <v>216</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12">
@@ -2724,7 +2721,7 @@
         <v>218</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13">
@@ -2738,7 +2735,7 @@
         <v>220</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14">
@@ -2752,7 +2749,7 @@
         <v>222</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15">
@@ -2766,7 +2763,7 @@
         <v>224</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16">
@@ -2780,7 +2777,7 @@
         <v>226</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17">
@@ -2794,7 +2791,7 @@
         <v>228</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18">
@@ -2808,7 +2805,7 @@
         <v>230</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19">
@@ -2822,7 +2819,7 @@
         <v>232</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20">
@@ -2836,7 +2833,7 @@
         <v>234</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21">
@@ -2850,7 +2847,7 @@
         <v>236</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22">
@@ -2864,7 +2861,7 @@
         <v>238</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23">
@@ -2878,7 +2875,7 @@
         <v>240</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24">
@@ -2892,7 +2889,7 @@
         <v>242</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25">
@@ -2906,7 +2903,7 @@
         <v>244</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26">
@@ -2920,7 +2917,7 @@
         <v>246</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27">
@@ -2934,7 +2931,7 @@
         <v>248</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28">
@@ -2948,7 +2945,7 @@
         <v>250</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29">
@@ -2962,7 +2959,7 @@
         <v>252</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30">
@@ -2976,7 +2973,7 @@
         <v>254</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31">
@@ -2990,7 +2987,7 @@
         <v>256</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32">
@@ -3004,7 +3001,7 @@
         <v>258</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33">
@@ -3018,7 +3015,7 @@
         <v>199</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34">
@@ -3029,10 +3026,10 @@
         <v>187</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35">
@@ -3046,7 +3043,7 @@
         <v>204</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36">
@@ -3060,7 +3057,7 @@
         <v>206</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37">
@@ -3074,7 +3071,7 @@
         <v>208</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38">
@@ -3088,7 +3085,7 @@
         <v>210</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39">
@@ -3102,7 +3099,7 @@
         <v>212</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40">
@@ -3116,7 +3113,7 @@
         <v>214</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41">
@@ -3130,7 +3127,7 @@
         <v>216</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42">
@@ -3144,7 +3141,7 @@
         <v>218</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43">
@@ -3158,7 +3155,7 @@
         <v>220</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44">
@@ -3172,7 +3169,7 @@
         <v>222</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45">
@@ -3186,7 +3183,7 @@
         <v>224</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46">
@@ -3200,7 +3197,7 @@
         <v>226</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47">
@@ -3214,7 +3211,7 @@
         <v>228</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48">
@@ -3228,7 +3225,7 @@
         <v>230</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49">
@@ -3242,7 +3239,7 @@
         <v>232</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50">
@@ -3256,7 +3253,7 @@
         <v>234</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51">
@@ -3270,7 +3267,7 @@
         <v>236</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="52">
@@ -3284,7 +3281,7 @@
         <v>238</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53">
@@ -3298,7 +3295,7 @@
         <v>240</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54">
@@ -3312,7 +3309,7 @@
         <v>242</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55">
@@ -3326,7 +3323,7 @@
         <v>244</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="56">
@@ -3340,7 +3337,7 @@
         <v>246</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57">
@@ -3354,7 +3351,7 @@
         <v>248</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="58">
@@ -3368,7 +3365,7 @@
         <v>250</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59">
@@ -3382,7 +3379,7 @@
         <v>252</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="60">
@@ -3396,7 +3393,7 @@
         <v>254</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="61">
@@ -3410,7 +3407,7 @@
         <v>256</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="62">
@@ -3424,7 +3421,7 @@
         <v>258</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63">
@@ -3438,7 +3435,7 @@
         <v>199</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="64">
@@ -3449,10 +3446,10 @@
         <v>190</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="65">
@@ -3466,7 +3463,7 @@
         <v>204</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="66">
@@ -3480,7 +3477,7 @@
         <v>206</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="67">
@@ -3494,7 +3491,7 @@
         <v>208</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="68">
@@ -3508,7 +3505,7 @@
         <v>210</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69">
@@ -3522,7 +3519,7 @@
         <v>212</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70">
@@ -3536,7 +3533,7 @@
         <v>214</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71">
@@ -3550,7 +3547,7 @@
         <v>216</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="72">
@@ -3564,7 +3561,7 @@
         <v>218</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="73">
@@ -3578,7 +3575,7 @@
         <v>220</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="74">
@@ -3592,7 +3589,7 @@
         <v>222</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="75">
@@ -3606,7 +3603,7 @@
         <v>224</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="76">
@@ -3620,7 +3617,7 @@
         <v>226</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77">
@@ -3634,7 +3631,7 @@
         <v>228</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78">
@@ -3648,7 +3645,7 @@
         <v>230</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79">
@@ -3662,7 +3659,7 @@
         <v>232</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="80">
@@ -3676,7 +3673,7 @@
         <v>234</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81">
@@ -3690,7 +3687,7 @@
         <v>236</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="82">
@@ -3704,7 +3701,7 @@
         <v>238</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83">
@@ -3718,7 +3715,7 @@
         <v>240</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="84">
@@ -3732,7 +3729,7 @@
         <v>242</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="85">
@@ -3746,7 +3743,7 @@
         <v>244</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="86">
@@ -3760,7 +3757,7 @@
         <v>246</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="87">
@@ -3774,7 +3771,7 @@
         <v>248</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="88">
@@ -3788,7 +3785,7 @@
         <v>250</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="89">
@@ -3802,7 +3799,7 @@
         <v>252</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="90">
@@ -3816,7 +3813,7 @@
         <v>254</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="91">
@@ -3830,7 +3827,7 @@
         <v>256</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -4047,18 +4044,18 @@
         <v>355</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="C15" s="0" t="s">
         <v>358</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>359</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>27</v>
@@ -4088,36 +4085,36 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>360</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>361</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>363</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>366</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>367</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>368</v>
       </c>
       <c r="F2" s="0">
         <v>0</v>
@@ -4125,19 +4122,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>371</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>372</v>
       </c>
       <c r="F3" s="0">
         <v>1</v>
@@ -4145,19 +4142,19 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>374</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>375</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>376</v>
       </c>
       <c r="F4" s="0">
         <v>2</v>
@@ -4165,19 +4162,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>378</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="E5" s="0" t="s">
         <v>379</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>380</v>
       </c>
       <c r="F5" s="0">
         <v>3</v>
@@ -4185,19 +4182,19 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>382</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="E6" s="0" t="s">
         <v>383</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>384</v>
       </c>
       <c r="F6" s="0">
         <v>4</v>
@@ -4205,19 +4202,19 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>386</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>379</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>387</v>
       </c>
       <c r="F7" s="0">
         <v>5</v>
@@ -4225,19 +4222,19 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>389</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="E8" s="0" t="s">
         <v>390</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>391</v>
       </c>
       <c r="F8" s="0">
         <v>6</v>
@@ -4245,19 +4242,19 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="E9" s="0" t="s">
         <v>394</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>395</v>
       </c>
       <c r="F9" s="0">
         <v>0</v>
@@ -4265,19 +4262,19 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>397</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="E10" s="0" t="s">
         <v>398</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>399</v>
       </c>
       <c r="F10" s="0">
         <v>1</v>
@@ -4285,19 +4282,19 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>60</v>
       </c>
       <c r="C11" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>401</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="E11" s="0" t="s">
         <v>402</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>403</v>
       </c>
       <c r="F11" s="0">
         <v>2</v>
@@ -4305,19 +4302,19 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>65</v>
       </c>
       <c r="C12" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>405</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="E12" s="0" t="s">
         <v>406</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>407</v>
       </c>
       <c r="F12" s="0">
         <v>3</v>
@@ -4325,19 +4322,19 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>71</v>
       </c>
       <c r="C13" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>409</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="E13" s="0" t="s">
         <v>410</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>411</v>
       </c>
       <c r="F13" s="0">
         <v>4</v>
@@ -4345,19 +4342,19 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C14" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="E14" s="0" t="s">
         <v>413</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>406</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>414</v>
       </c>
       <c r="F14" s="0">
         <v>5</v>
@@ -4365,19 +4362,19 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>83</v>
       </c>
       <c r="C15" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>416</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="E15" s="0" t="s">
         <v>417</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>418</v>
       </c>
       <c r="F15" s="0">
         <v>6</v>
@@ -4385,19 +4382,19 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>89</v>
       </c>
       <c r="C16" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>420</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="E16" s="0" t="s">
         <v>421</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>422</v>
       </c>
       <c r="F16" s="0">
         <v>0</v>
@@ -4405,19 +4402,19 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>95</v>
       </c>
       <c r="C17" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="D17" s="0" t="s">
         <v>424</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="E17" s="0" t="s">
         <v>425</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>426</v>
       </c>
       <c r="F17" s="0">
         <v>1</v>
@@ -4425,19 +4422,19 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>101</v>
       </c>
       <c r="C18" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="D18" s="0" t="s">
         <v>428</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="E18" s="0" t="s">
         <v>429</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>430</v>
       </c>
       <c r="F18" s="0">
         <v>2</v>
@@ -4445,19 +4442,19 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>107</v>
       </c>
       <c r="C19" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>432</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>390</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>433</v>
       </c>
       <c r="F19" s="0">
         <v>3</v>
@@ -4465,19 +4462,19 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>113</v>
       </c>
       <c r="C20" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="D20" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="E20" s="0" t="s">
         <v>436</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>437</v>
       </c>
       <c r="F20" s="0">
         <v>4</v>
@@ -4485,19 +4482,19 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>119</v>
       </c>
       <c r="C21" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="D21" s="0" t="s">
         <v>439</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="E21" s="0" t="s">
         <v>440</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>441</v>
       </c>
       <c r="F21" s="0">
         <v>5</v>
@@ -4505,19 +4502,19 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>125</v>
       </c>
       <c r="C22" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="D22" s="0" t="s">
         <v>443</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="E22" s="0" t="s">
         <v>444</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>445</v>
       </c>
       <c r="F22" s="0">
         <v>6</v>
@@ -4525,19 +4522,19 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>131</v>
       </c>
       <c r="C23" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="D23" s="0" t="s">
         <v>447</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="E23" s="0" t="s">
         <v>448</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>449</v>
       </c>
       <c r="F23" s="0">
         <v>0</v>
@@ -4545,19 +4542,19 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>137</v>
       </c>
       <c r="C24" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="E24" s="0" t="s">
         <v>451</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>398</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>452</v>
       </c>
       <c r="F24" s="0">
         <v>1</v>
@@ -4565,19 +4562,19 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>143</v>
       </c>
       <c r="C25" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="E25" s="0" t="s">
         <v>454</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>402</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>455</v>
       </c>
       <c r="F25" s="0">
         <v>2</v>
@@ -4585,19 +4582,19 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>148</v>
       </c>
       <c r="C26" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="D26" s="0" t="s">
         <v>457</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="E26" s="0" t="s">
         <v>458</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>459</v>
       </c>
       <c r="F26" s="0">
         <v>3</v>
@@ -4605,19 +4602,19 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>153</v>
       </c>
       <c r="C27" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="D27" s="0" t="s">
         <v>461</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="E27" s="0" t="s">
         <v>462</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>463</v>
       </c>
       <c r="F27" s="0">
         <v>4</v>
@@ -4625,19 +4622,19 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>159</v>
       </c>
       <c r="C28" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="D28" s="0" t="s">
         <v>465</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="E28" s="0" t="s">
         <v>466</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>467</v>
       </c>
       <c r="F28" s="0">
         <v>5</v>
@@ -4645,19 +4642,19 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>164</v>
       </c>
       <c r="C29" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="D29" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="E29" s="0" t="s">
         <v>470</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>471</v>
       </c>
       <c r="F29" s="0">
         <v>6</v>
@@ -4665,19 +4662,19 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>168</v>
       </c>
       <c r="C30" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="E30" s="0" t="s">
         <v>473</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>383</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>474</v>
       </c>
       <c r="F30" s="0">
         <v>0</v>
@@ -4685,19 +4682,19 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>172</v>
       </c>
       <c r="C31" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="D31" s="0" t="s">
         <v>476</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="E31" s="0" t="s">
         <v>477</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>478</v>
       </c>
       <c r="F31" s="0">
         <v>1</v>
@@ -4705,19 +4702,19 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>178</v>
       </c>
       <c r="C32" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="D32" s="0" t="s">
         <v>480</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="E32" s="0" t="s">
         <v>481</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>482</v>
       </c>
       <c r="F32" s="0">
         <v>1</v>
@@ -4725,19 +4722,19 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>178</v>
       </c>
       <c r="C33" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="E33" s="0" t="s">
         <v>484</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>481</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>485</v>
       </c>
       <c r="F33" s="0">
         <v>3</v>

--- a/DbFolder/ParkingDB.xlsx
+++ b/DbFolder/ParkingDB.xlsx
@@ -617,22 +617,22 @@
     <t>Место PREMIUM LUXE №1</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>02ab48e8-11ba-448a-a400-d68f17fe75cf</t>
+  </si>
+  <si>
+    <t>Место №2</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>02ab48e8-11ba-448a-a400-d68f17fe75cf</t>
-  </si>
-  <si>
-    <t>Место №2</t>
-  </si>
-  <si>
     <t>cdfea5ed-dec1-495f-80d1-cc95a402140a</t>
   </si>
   <si>
     <t>Место №3</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>7df1f2e7-5cdb-4d43-9bd1-590382165933</t>
@@ -2595,21 +2595,21 @@
         <v>199</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>184</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5">
@@ -2623,7 +2623,7 @@
         <v>204</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6">
@@ -2637,7 +2637,7 @@
         <v>206</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7">
@@ -2651,7 +2651,7 @@
         <v>208</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8">
@@ -2665,7 +2665,7 @@
         <v>210</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9">
@@ -2679,7 +2679,7 @@
         <v>212</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10">
@@ -2693,7 +2693,7 @@
         <v>214</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11">
@@ -2707,7 +2707,7 @@
         <v>216</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12">
@@ -2721,7 +2721,7 @@
         <v>218</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13">
@@ -2735,7 +2735,7 @@
         <v>220</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14">
@@ -2749,7 +2749,7 @@
         <v>222</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15">
@@ -2763,7 +2763,7 @@
         <v>224</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16">
@@ -2777,7 +2777,7 @@
         <v>226</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17">
@@ -2791,7 +2791,7 @@
         <v>228</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18">
@@ -2805,7 +2805,7 @@
         <v>230</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19">
@@ -2819,7 +2819,7 @@
         <v>232</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20">
@@ -2833,7 +2833,7 @@
         <v>234</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21">
@@ -2847,7 +2847,7 @@
         <v>236</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22">
@@ -2861,7 +2861,7 @@
         <v>238</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23">
@@ -2875,7 +2875,7 @@
         <v>240</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24">
@@ -2889,7 +2889,7 @@
         <v>242</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25">
@@ -2903,7 +2903,7 @@
         <v>244</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26">
@@ -2917,7 +2917,7 @@
         <v>246</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27">
@@ -2931,7 +2931,7 @@
         <v>248</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28">
@@ -2945,7 +2945,7 @@
         <v>250</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29">
@@ -2959,7 +2959,7 @@
         <v>252</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30">
@@ -2973,7 +2973,7 @@
         <v>254</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31">
@@ -2987,7 +2987,7 @@
         <v>256</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32">
@@ -3001,7 +3001,7 @@
         <v>258</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33">
@@ -3015,7 +3015,7 @@
         <v>199</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34">
@@ -3026,10 +3026,10 @@
         <v>187</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35">
@@ -3043,7 +3043,7 @@
         <v>204</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36">
@@ -3057,7 +3057,7 @@
         <v>206</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37">
@@ -3071,7 +3071,7 @@
         <v>208</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38">
@@ -3085,7 +3085,7 @@
         <v>210</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39">
@@ -3099,7 +3099,7 @@
         <v>212</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40">
@@ -3113,7 +3113,7 @@
         <v>214</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="41">
@@ -3127,7 +3127,7 @@
         <v>216</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42">
@@ -3141,7 +3141,7 @@
         <v>218</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="43">
@@ -3155,7 +3155,7 @@
         <v>220</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="44">
@@ -3169,7 +3169,7 @@
         <v>222</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="45">
@@ -3183,7 +3183,7 @@
         <v>224</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46">
@@ -3197,7 +3197,7 @@
         <v>226</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47">
@@ -3211,7 +3211,7 @@
         <v>228</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48">
@@ -3225,7 +3225,7 @@
         <v>230</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="49">
@@ -3239,7 +3239,7 @@
         <v>232</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="50">
@@ -3253,7 +3253,7 @@
         <v>234</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="51">
@@ -3267,7 +3267,7 @@
         <v>236</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="52">
@@ -3281,7 +3281,7 @@
         <v>238</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="53">
@@ -3295,7 +3295,7 @@
         <v>240</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54">
@@ -3309,7 +3309,7 @@
         <v>242</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="55">
@@ -3323,7 +3323,7 @@
         <v>244</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="56">
@@ -3337,7 +3337,7 @@
         <v>246</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="57">
@@ -3351,7 +3351,7 @@
         <v>248</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58">
@@ -3365,7 +3365,7 @@
         <v>250</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="59">
@@ -3379,7 +3379,7 @@
         <v>252</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="60">
@@ -3393,7 +3393,7 @@
         <v>254</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="61">
@@ -3407,7 +3407,7 @@
         <v>256</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="62">
@@ -3421,7 +3421,7 @@
         <v>258</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="63">
@@ -3435,7 +3435,7 @@
         <v>199</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="64">
@@ -3446,10 +3446,10 @@
         <v>190</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="65">
@@ -3463,7 +3463,7 @@
         <v>204</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="66">
@@ -3477,7 +3477,7 @@
         <v>206</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="67">
@@ -3491,7 +3491,7 @@
         <v>208</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68">
@@ -3505,7 +3505,7 @@
         <v>210</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="69">
@@ -3519,7 +3519,7 @@
         <v>212</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70">
@@ -3533,7 +3533,7 @@
         <v>214</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71">
@@ -3547,7 +3547,7 @@
         <v>216</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="72">
@@ -3561,7 +3561,7 @@
         <v>218</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="73">
@@ -3575,7 +3575,7 @@
         <v>220</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74">
@@ -3589,7 +3589,7 @@
         <v>222</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="75">
@@ -3603,7 +3603,7 @@
         <v>224</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="76">
@@ -3617,7 +3617,7 @@
         <v>226</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="77">
@@ -3631,7 +3631,7 @@
         <v>228</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="78">
@@ -3645,7 +3645,7 @@
         <v>230</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="79">
@@ -3659,7 +3659,7 @@
         <v>232</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="80">
@@ -3673,7 +3673,7 @@
         <v>234</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="81">
@@ -3687,7 +3687,7 @@
         <v>236</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="82">
@@ -3701,7 +3701,7 @@
         <v>238</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="83">
@@ -3715,7 +3715,7 @@
         <v>240</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="84">
@@ -3729,7 +3729,7 @@
         <v>242</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="85">
@@ -3743,7 +3743,7 @@
         <v>244</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="86">
@@ -3757,7 +3757,7 @@
         <v>246</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="87">
@@ -3771,7 +3771,7 @@
         <v>248</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88">
@@ -3785,7 +3785,7 @@
         <v>250</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="89">
@@ -3799,7 +3799,7 @@
         <v>252</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="90">
@@ -3813,7 +3813,7 @@
         <v>254</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="91">
@@ -3827,7 +3827,7 @@
         <v>256</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/DbFolder/ParkingDB.xlsx
+++ b/DbFolder/ParkingDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepositories\parkingWPF_project\DbFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1865922-143F-4631-9B7E-75C111FB973C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEBC312-90E1-43E3-B95F-9AB6E4AAA5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Owners" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="ParkingLots" sheetId="3" r:id="rId3"/>
     <sheet name="Attendants" sheetId="4" r:id="rId4"/>
     <sheet name="Vehicles" sheetId="5" r:id="rId5"/>
+    <sheet name="Receipts" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0" fullCalcOnLoad="1" fullPrecision="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="510">
   <si>
     <t>Id</t>
   </si>
@@ -56,7 +57,7 @@
     <t>Егоровна</t>
   </si>
   <si>
-    <t>344057, г. Ростов-на-Дону, ул. Школьная, 41, оф. 29</t>
+    <t>г. Ростов-на-Дону, ул. Школьная, 41, оф. 28</t>
   </si>
   <si>
     <t>79867703195</t>
@@ -74,7 +75,7 @@
     <t>Львович</t>
   </si>
   <si>
-    <t>445467, г. Тольятти, ул. Победы, 32, оф. 84</t>
+    <t>г. Тольятти, ул. Победы, 32, оф. 84</t>
   </si>
   <si>
     <t>79910188007</t>
@@ -92,7 +93,7 @@
     <t>Иванович</t>
   </si>
   <si>
-    <t>426047, г. Ижевск, ул. Речная, 31, оф. 22</t>
+    <t>г. Ижевск, ул. Речная, 31, оф. 22</t>
   </si>
   <si>
     <t>79580124365</t>
@@ -110,7 +111,7 @@
     <t>Александрович</t>
   </si>
   <si>
-    <t>426427, г. Ижевск, ул. Майская, 41, оф. 82</t>
+    <t>г. Ижевск, ул. Майская, 41, оф. 82</t>
   </si>
   <si>
     <t>79004051651</t>
@@ -128,7 +129,7 @@
     <t>Михайловна</t>
   </si>
   <si>
-    <t>454021, г. Челябинск, ул. Строительная, 7, оф. 21</t>
+    <t>г. Челябинск, ул. Строительная, 7, оф. 21</t>
   </si>
   <si>
     <t>77088368169</t>
@@ -146,7 +147,7 @@
     <t>Ильич</t>
   </si>
   <si>
-    <t>620482, г. Екатеринбург, ул. Шоссейная, 16, оф. 59</t>
+    <t>г. Екатеринбург, ул. Шоссейная, 16, оф. 59</t>
   </si>
   <si>
     <t>79016271761</t>
@@ -164,7 +165,7 @@
     <t>Григорьевич</t>
   </si>
   <si>
-    <t>620727, г. Екатеринбург, ул. Калинина, 10, оф. 74</t>
+    <t>г. Екатеринбург, ул. Калинина, 10, оф. 74</t>
   </si>
   <si>
     <t>79708884951</t>
@@ -182,7 +183,7 @@
     <t>Матвеевич</t>
   </si>
   <si>
-    <t>660297, г. Красноярск, ул. Матросова, 29, оф. 56</t>
+    <t>г. Красноярск, ул. Матросова, 29, оф. 56</t>
   </si>
   <si>
     <t>79341601525</t>
@@ -200,7 +201,7 @@
     <t>Владиславович</t>
   </si>
   <si>
-    <t>344691, г. Ростов-на-Дону, ул. Дачная, 2, оф. 61</t>
+    <t>г. Ростов-на-Дону, ул. Дачная, 2, оф. 61</t>
   </si>
   <si>
     <t>79014791359</t>
@@ -215,7 +216,7 @@
     <t>Никонов</t>
   </si>
   <si>
-    <t>443416, г. Самара, ул. Фрунзе, 9, оф. 21</t>
+    <t>г. Самара, ул. Фрунзе, 9, оф. 21</t>
   </si>
   <si>
     <t>79982924019</t>
@@ -233,7 +234,7 @@
     <t>Арсентьевна</t>
   </si>
   <si>
-    <t>614045, г. Пермь, ул. Луговая, 24, оф. 54</t>
+    <t>г. Пермь, ул. Луговая, 24, оф. 54</t>
   </si>
   <si>
     <t>79837842573</t>
@@ -251,7 +252,7 @@
     <t>Ивановна</t>
   </si>
   <si>
-    <t>344773, г. Ростов-на-Дону, ул. Береговая, 14, оф. 25</t>
+    <t>г. Ростов-на-Дону, ул. Береговая, 14, оф. 25</t>
   </si>
   <si>
     <t>79011374443</t>
@@ -269,7 +270,7 @@
     <t>Алиевна</t>
   </si>
   <si>
-    <t>660320, г. Красноярск, ул. Школьная, 29, оф. 74</t>
+    <t>г. Красноярск, ул. Школьная, 29, оф. 74</t>
   </si>
   <si>
     <t>79024041164</t>
@@ -287,7 +288,7 @@
     <t>Леонидовна</t>
   </si>
   <si>
-    <t>614634, г. Пермь, ул. Парковая, 1, оф. 65</t>
+    <t>г. Пермь, ул. Парковая, 1, оф. 65</t>
   </si>
   <si>
     <t>79913304692</t>
@@ -305,7 +306,7 @@
     <t>Викторовна</t>
   </si>
   <si>
-    <t>410293, г. Саратов, ул. Колхозная, 50, оф. 59</t>
+    <t>г. Саратов, ул. Колхозная, 50, оф. 59</t>
   </si>
   <si>
     <t>79502006544</t>
@@ -323,7 +324,7 @@
     <t>Львовна</t>
   </si>
   <si>
-    <t>125212, г. Москва, ул. Красная, 7, оф. 96</t>
+    <t>г. Москва, ул. Красная, 7, оф. 96</t>
   </si>
   <si>
     <t>79963083415</t>
@@ -341,7 +342,7 @@
     <t>Максимович</t>
   </si>
   <si>
-    <t>400536, г. Волгоград, ул. Заводская, 27, оф. 69</t>
+    <t>г. Волгоград, ул. Заводская, 27, оф. 69</t>
   </si>
   <si>
     <t>79016241895</t>
@@ -359,7 +360,7 @@
     <t>Тимофеевич</t>
   </si>
   <si>
-    <t>445827, г. Тольятти, ул. Заречная, 19, оф. 78</t>
+    <t>г. Тольятти, ул. Заречная, 19, оф. 78</t>
   </si>
   <si>
     <t>79027496365</t>
@@ -377,7 +378,7 @@
     <t>Тимофеевна</t>
   </si>
   <si>
-    <t>454415, г. Челябинск, ул. Садовая, 28, оф. 92</t>
+    <t>г. Челябинск, ул. Садовая, 28, оф. 92</t>
   </si>
   <si>
     <t>79966640060</t>
@@ -395,7 +396,7 @@
     <t>Александровна</t>
   </si>
   <si>
-    <t>190935, г. Санкт-Петербург, ул. Механизаторов, 26, оф. 84</t>
+    <t>г. Санкт-Петербург, ул. Механизаторов, 26, оф. 84</t>
   </si>
   <si>
     <t>79527596674</t>
@@ -413,7 +414,7 @@
     <t>Платоновна</t>
   </si>
   <si>
-    <t>630067, г. Новосибирск, ул. Партизанская, 18, оф. 53</t>
+    <t>г. Новосибирск, ул. Партизанская, 18, оф. 53</t>
   </si>
   <si>
     <t>79952131605</t>
@@ -431,7 +432,7 @@
     <t>Германовна</t>
   </si>
   <si>
-    <t>660782, г. Красноярск, ул. Лермонтова, 48, оф. 14</t>
+    <t>г. Красноярск, ул. Лермонтова, 48, оф. 14</t>
   </si>
   <si>
     <t>79022723213</t>
@@ -449,7 +450,7 @@
     <t>Даниилович</t>
   </si>
   <si>
-    <t>410392, г. Саратов, ул. Больничная, 35, оф. 23</t>
+    <t>г. Саратов, ул. Больничная, 35, оф. 23</t>
   </si>
   <si>
     <t>79809160093</t>
@@ -464,7 +465,7 @@
     <t>Токарев</t>
   </si>
   <si>
-    <t>620504, г. Екатеринбург, ул. Московская, 7, оф. 90</t>
+    <t>г. Екатеринбург, ул. Московская, 7, оф. 90</t>
   </si>
   <si>
     <t>79967176877</t>
@@ -479,7 +480,7 @@
     <t>Никитична</t>
   </si>
   <si>
-    <t>450607, г. Уфа, ул. 1 Мая, 29, оф. 80</t>
+    <t>г. Уфа, ул. 1 Мая, 29, оф. 80</t>
   </si>
   <si>
     <t>79580393556</t>
@@ -497,7 +498,7 @@
     <t>Андреевич</t>
   </si>
   <si>
-    <t>603213, г. Нижний Новгород, ул. Механизаторов, 11, оф. 92</t>
+    <t>г. Нижний Новгород, ул. Механизаторов, 11, оф. 92</t>
   </si>
   <si>
     <t>79941093320</t>
@@ -512,7 +513,7 @@
     <t>Родионович</t>
   </si>
   <si>
-    <t>644112, г. Омск, ул. Заречная, 10, оф. 80</t>
+    <t>г. Омск, ул. Заречная, 10, оф. 80</t>
   </si>
   <si>
     <t>79024071801</t>
@@ -524,7 +525,7 @@
     <t>Кирилл</t>
   </si>
   <si>
-    <t>454667, г. Челябинск, ул. Светлая, 23, оф. 42</t>
+    <t>г. Челябинск, ул. Светлая, 23, оф. 42</t>
   </si>
   <si>
     <t>79940475084</t>
@@ -536,7 +537,7 @@
     <t>Арина</t>
   </si>
   <si>
-    <t>125026, г. Москва, ул. Родниковая, 47, оф. 96</t>
+    <t>г. Москва, ул. Родниковая, 47, оф. 96</t>
   </si>
   <si>
     <t>79395080159</t>
@@ -554,7 +555,7 @@
     <t>Кириллович</t>
   </si>
   <si>
-    <t>644347, г. Омск, ул. Молодежная, 50, оф. 11</t>
+    <t>г. Омск, ул. Молодежная, 50, оф. 11</t>
   </si>
   <si>
     <t>79955370096</t>
@@ -572,19 +573,25 @@
     <t>Вячеславович</t>
   </si>
   <si>
-    <t>Суворова, 126</t>
+    <t>г. Магнитогорск, ул. Суворова, 126</t>
   </si>
   <si>
     <t>79026140587</t>
   </si>
   <si>
+    <t>Inn</t>
+  </si>
+  <si>
     <t>8e7373df-27f9-4cf1-8b15-c4f27bd1837a</t>
   </si>
   <si>
     <t>"НЕ" Место под колеса</t>
   </si>
   <si>
-    <t>276550, Тверская область, город Видное, бульвар Балканская, 55</t>
+    <t>Тверская область, город Видное, бульвар Балканская, 55</t>
+  </si>
+  <si>
+    <t>701454590182</t>
   </si>
   <si>
     <t>50338e7a-1839-4746-b476-dad07a049087</t>
@@ -593,7 +600,10 @@
     <t>Парковка на высоте</t>
   </si>
   <si>
-    <t>212660, Тверская область, город Солнечногорск, наб. Сталина, 42</t>
+    <t>Тверская область, город Солнечногорск, наб. Сталина, 42</t>
+  </si>
+  <si>
+    <t>624436165600</t>
   </si>
   <si>
     <t>5bd43e7a-8141-419d-8e7c-70d705399462</t>
@@ -602,7 +612,22 @@
     <t>Колесный Остров</t>
   </si>
   <si>
-    <t>554022, Читинская область, город Кашира, пер. Ленина, 53</t>
+    <t>Читинская область, город Кашира, пер. Ленина, 53</t>
+  </si>
+  <si>
+    <t>899369207498</t>
+  </si>
+  <si>
+    <t>7a84ea77-dcc9-413d-8c50-0247683a9787</t>
+  </si>
+  <si>
+    <t>Твой Домик</t>
+  </si>
+  <si>
+    <t>Челябинская область, город Магнитогорск, пр. Карла Маркса 172</t>
+  </si>
+  <si>
+    <t>423519337037</t>
   </si>
   <si>
     <t>ParkingId</t>
@@ -626,9 +651,6 @@
     <t>Место №2</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>cdfea5ed-dec1-495f-80d1-cc95a402140a</t>
   </si>
   <si>
@@ -980,6 +1002,9 @@
     <t>5be076b6-e3f9-44e3-8c0f-fb5f4a8a6173</t>
   </si>
   <si>
+    <t>f0ecd233-41ec-4c10-9a1d-39c65372d462</t>
+  </si>
+  <si>
     <t>528a7b0d-42f4-48de-b4e7-991ae9838f8d</t>
   </si>
   <si>
@@ -1479,6 +1504,57 @@
   </si>
   <si>
     <t>2109</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Parking</t>
+  </si>
+  <si>
+    <t>ParkingLot</t>
+  </si>
+  <si>
+    <t>Attendants</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>SelectedCarId</t>
+  </si>
+  <si>
+    <t>ecbdf0da-7043-4104-926d-0bf216800084</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>000001</t>
+  </si>
+  <si>
+    <t>25.01.2025 19:42:37</t>
+  </si>
+  <si>
+    <t>06d76a0f-817d-4247-bd60-bb378ceab6c8</t>
+  </si>
+  <si>
+    <t>000002</t>
+  </si>
+  <si>
+    <t>25.01.2025 19:45:06</t>
   </si>
 </sst>
 </file>
@@ -2482,16 +2558,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" bestFit="1" width="19.73046875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
@@ -2501,40 +2572,63 @@
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>4</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2545,1289 +2639,1298 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="3" max="3" bestFit="1" width="22.53125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="D91" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="B92" s="0" t="s">
         <v>197</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -3840,16 +3943,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B14:D15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" bestFit="1" width="9.53125" customWidth="1"/>
-    <col min="3" max="3" bestFit="1" width="11.53125" customWidth="1"/>
-    <col min="4" max="4" bestFit="1" width="13.53125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
@@ -3867,27 +3963,27 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>37</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>122</v>
@@ -3895,69 +3991,69 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>154</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>104</v>
@@ -3965,41 +4061,41 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>127</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>66</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>33</v>
@@ -4007,13 +4103,13 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>122</v>
@@ -4021,41 +4117,41 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>154</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>27</v>
@@ -4071,13 +4167,689 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="F2" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="F3" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="F4" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="F5" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="F6" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="F7" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="F8" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="F9" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="F10" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="F11" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="F12" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="F13" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="F14" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="F15" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="F16" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="F17" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="F18" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="F19" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="F20" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="F21" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="F22" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="F23" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="F24" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="F25" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="F26" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="F27" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="F28" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="F29" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="F30" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="F31" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="F32" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="F33" s="0">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA517598-8C7D-4584-A300-A6EB0C629AED}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="1" width="11.86328125" customWidth="1"/>
+    <col min="11" max="11" bestFit="1" width="11.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4085,659 +4857,104 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>359</v>
+        <v>493</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>360</v>
+        <v>494</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>361</v>
+        <v>495</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>362</v>
+        <v>496</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>363</v>
+        <v>497</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>364</v>
+        <v>503</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6</v>
+        <v>504</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>365</v>
+        <v>505</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>366</v>
+        <v>12</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="F2" s="0">
-        <v>0</v>
+        <v>185</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="H2" s="0">
+        <v>45</v>
+      </c>
+      <c r="I2" s="0">
+        <v>555</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>368</v>
+        <v>507</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>12</v>
+        <v>504</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>369</v>
+        <v>508</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>370</v>
+        <v>143</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="F3" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>373</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="F4" s="0">
+        <v>185</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="H3" s="0">
         <v>2</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>376</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>377</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>379</v>
-      </c>
-      <c r="F5" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>380</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>382</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>383</v>
-      </c>
-      <c r="F6" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="F7" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>387</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>390</v>
-      </c>
-      <c r="F8" s="0">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>392</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>393</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>394</v>
-      </c>
-      <c r="F9" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>395</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>398</v>
-      </c>
-      <c r="F10" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>399</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>401</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>402</v>
-      </c>
-      <c r="F11" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>404</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>405</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>406</v>
-      </c>
-      <c r="F12" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>407</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>408</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>409</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="F13" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>411</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>412</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>405</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>413</v>
-      </c>
-      <c r="F14" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>414</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>415</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>416</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>417</v>
-      </c>
-      <c r="F15" s="0">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>419</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>420</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>421</v>
-      </c>
-      <c r="F16" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>423</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>425</v>
-      </c>
-      <c r="F17" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>426</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>427</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>428</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>429</v>
-      </c>
-      <c r="F18" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
-        <v>430</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>431</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>432</v>
-      </c>
-      <c r="F19" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
-        <v>433</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>434</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>435</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>436</v>
-      </c>
-      <c r="F20" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="s">
-        <v>437</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>438</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>439</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>440</v>
-      </c>
-      <c r="F21" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="s">
-        <v>441</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>442</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>443</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>444</v>
-      </c>
-      <c r="F22" s="0">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0" t="s">
-        <v>445</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>446</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>447</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>448</v>
-      </c>
-      <c r="F23" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0" t="s">
-        <v>449</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>450</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>451</v>
-      </c>
-      <c r="F24" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>453</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>401</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>454</v>
-      </c>
-      <c r="F25" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0" t="s">
-        <v>455</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>456</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>457</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>458</v>
-      </c>
-      <c r="F26" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="C27" s="0" t="s">
+      <c r="I3" s="0">
+        <v>8888</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="K3" s="0" t="s">
         <v>460</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>461</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>462</v>
-      </c>
-      <c r="F27" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0" t="s">
-        <v>463</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>464</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>465</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>466</v>
-      </c>
-      <c r="F28" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>468</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>469</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="F29" s="0">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0" t="s">
-        <v>471</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>382</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>473</v>
-      </c>
-      <c r="F30" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0" t="s">
-        <v>474</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>475</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>476</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>477</v>
-      </c>
-      <c r="F31" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0" t="s">
-        <v>478</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>479</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>480</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>481</v>
-      </c>
-      <c r="F32" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0" t="s">
-        <v>482</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>483</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>480</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>484</v>
-      </c>
-      <c r="F33" s="0">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/DbFolder/ParkingDB.xlsx
+++ b/DbFolder/ParkingDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepositories\parkingWPF_project\DbFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEBC312-90E1-43E3-B95F-9AB6E4AAA5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA89C70-9249-43EC-809D-240E41E62B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Owners" sheetId="1" r:id="rId1"/>
@@ -603,7 +603,7 @@
     <t>Тверская область, город Солнечногорск, наб. Сталина, 42</t>
   </si>
   <si>
-    <t>624436165600</t>
+    <t>624436165689</t>
   </si>
   <si>
     <t>5bd43e7a-8141-419d-8e7c-70d705399462</t>
@@ -1909,6 +1909,14 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" bestFit="1" width="35.265625" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="9.53125" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="11" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="13.53125" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="43.6640625" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="11.73046875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
@@ -2560,9 +2568,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" bestFit="1" width="35.265625" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="19.73046875" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="55.46484375" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="12.796875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
@@ -2572,6 +2588,9 @@
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3943,9 +3962,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" bestFit="1" width="35.1328125" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="9.53125" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="11.53125" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="13.53125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
@@ -4172,6 +4199,14 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" bestFit="1" width="35.53125" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="35.265625" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="11.86328125" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="9.73046875" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="12.46484375" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="4.86328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
@@ -4843,13 +4878,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA517598-8C7D-4584-A300-A6EB0C629AED}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="11" max="11" bestFit="1" width="11.3984375" customWidth="1"/>
+    <col min="1" max="1" bestFit="1" width="34.53125" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="5.33203125" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="7.1328125" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="34.46484375" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="33.3984375" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="34.19921875" customWidth="1"/>
+    <col min="7" max="7" bestFit="1" width="34.796875" customWidth="1"/>
+    <col min="8" max="8" bestFit="1" width="4.46484375" customWidth="1"/>
+    <col min="9" max="9" bestFit="1" width="4.73046875" customWidth="1"/>
+    <col min="10" max="10" bestFit="1" width="17.33203125" customWidth="1"/>
+    <col min="11" max="11" bestFit="1" width="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/DbFolder/ParkingDB.xlsx
+++ b/DbFolder/ParkingDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepositories\parkingWPF_project\DbFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA89C70-9249-43EC-809D-240E41E62B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F4C508-1633-47F8-9B05-D5F224BEC1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Owners" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <sheet name="Vehicles" sheetId="5" r:id="rId5"/>
     <sheet name="Receipts" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1" fullPrecision="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="507">
   <si>
     <t>Id</t>
   </si>
@@ -639,18 +639,21 @@
     <t>c355ef8e-c332-4c6e-9e69-5149868a07b5</t>
   </si>
   <si>
-    <t>Место PREMIUM LUXE №1</t>
+    <t>Место №1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>02ab48e8-11ba-448a-a400-d68f17fe75cf</t>
+  </si>
+  <si>
+    <t>Место №2</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>02ab48e8-11ba-448a-a400-d68f17fe75cf</t>
-  </si>
-  <si>
-    <t>Место №2</t>
-  </si>
-  <si>
     <t>cdfea5ed-dec1-495f-80d1-cc95a402140a</t>
   </si>
   <si>
@@ -822,9 +825,6 @@
     <t>5ce8cb55-8bc9-498e-80c9-1179059f9fa4</t>
   </si>
   <si>
-    <t>Место №1</t>
-  </si>
-  <si>
     <t>7760c782-f95a-4578-bc41-13d17dea5caf</t>
   </si>
   <si>
@@ -1536,7 +1536,7 @@
     <t>SelectedCarId</t>
   </si>
   <si>
-    <t>ecbdf0da-7043-4104-926d-0bf216800084</t>
+    <t>7ea1e5a6-4d5b-48ac-ae23-f338cb2f1b71</t>
   </si>
   <si>
     <t>A</t>
@@ -1545,24 +1545,14 @@
     <t>000001</t>
   </si>
   <si>
-    <t>25.01.2025 19:42:37</t>
-  </si>
-  <si>
-    <t>06d76a0f-817d-4247-bd60-bb378ceab6c8</t>
-  </si>
-  <si>
-    <t>000002</t>
-  </si>
-  <si>
-    <t>25.01.2025 19:45:06</t>
+    <t>26.01.2025 15:48:01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1909,658 +1899,649 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" bestFit="1" width="35.265625" customWidth="1"/>
-    <col min="2" max="2" bestFit="1" width="9.53125" customWidth="1"/>
-    <col min="3" max="3" bestFit="1" width="11" customWidth="1"/>
-    <col min="4" max="4" bestFit="1" width="13.53125" customWidth="1"/>
-    <col min="5" max="5" bestFit="1" width="43.6640625" customWidth="1"/>
-    <col min="6" max="6" bestFit="1" width="11.73046875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>80</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" t="s">
         <v>93</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>98</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" t="s">
         <v>99</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
         <v>101</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>103</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>104</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" t="s">
         <v>105</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>110</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
         <v>113</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>114</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>115</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>116</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="F20" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>120</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>121</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>122</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" t="s">
         <v>123</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
         <v>125</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>126</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>127</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" t="s">
         <v>128</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" t="s">
         <v>129</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F22" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
         <v>131</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>132</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>133</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" t="s">
         <v>134</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
         <v>137</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>138</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>139</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>140</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" t="s">
         <v>141</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F24" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
         <v>143</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>144</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>145</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" t="s">
         <v>146</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="F25" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
         <v>148</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>149</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>150</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" t="s">
         <v>151</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="F26" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
         <v>153</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>154</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>155</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>156</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" t="s">
         <v>157</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="F27" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
         <v>159</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>154</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>160</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" t="s">
         <v>161</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" t="s">
         <v>162</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="F28" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
         <v>164</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>165</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" t="s">
         <v>104</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" t="s">
         <v>166</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="F29" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
         <v>168</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>169</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E30" t="s">
         <v>170</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="F30" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
         <v>172</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>173</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" t="s">
         <v>174</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" t="s">
         <v>175</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E31" t="s">
         <v>176</v>
       </c>
-      <c r="F31" s="0" t="s">
+      <c r="F31" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
         <v>178</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>179</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" t="s">
         <v>180</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" t="s">
         <v>181</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="E32" t="s">
         <v>182</v>
       </c>
-      <c r="F32" s="0" t="s">
+      <c r="F32" t="s">
         <v>183</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -2568,91 +2549,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" bestFit="1" width="35.265625" customWidth="1"/>
-    <col min="2" max="2" bestFit="1" width="19.73046875" customWidth="1"/>
-    <col min="3" max="3" bestFit="1" width="55.46484375" customWidth="1"/>
-    <col min="4" max="4" bestFit="1" width="12.796875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>186</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>187</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>190</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>191</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>193</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>195</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>197</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>198</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>199</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -2664,1297 +2636,1296 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>201</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>204</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>206</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>185</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>207</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="D3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" t="s">
         <v>185</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+      <c r="C4" t="s">
         <v>210</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="D4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
+      <c r="C5" t="s">
         <v>212</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="D5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
+      <c r="C6" t="s">
         <v>214</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="D6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" t="s">
         <v>185</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
+      <c r="C7" t="s">
         <v>216</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="D7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B8" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
+      <c r="C8" t="s">
         <v>218</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="D8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B9" t="s">
         <v>185</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
+      <c r="C9" t="s">
         <v>220</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="D9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B10" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
+      <c r="C10" t="s">
         <v>222</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="D10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B11" t="s">
         <v>185</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
+      <c r="C11" t="s">
         <v>224</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="D11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B12" t="s">
         <v>185</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
+      <c r="C12" t="s">
         <v>226</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="D12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>227</v>
+      </c>
+      <c r="B13" t="s">
         <v>185</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
+      <c r="C13" t="s">
         <v>228</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="D13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>229</v>
+      </c>
+      <c r="B14" t="s">
         <v>185</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
+      <c r="C14" t="s">
         <v>230</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="D14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B15" t="s">
         <v>185</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
+      <c r="C15" t="s">
         <v>232</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="D15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>233</v>
+      </c>
+      <c r="B16" t="s">
         <v>185</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
+      <c r="C16" t="s">
         <v>234</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="D16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>235</v>
+      </c>
+      <c r="B17" t="s">
         <v>185</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
+      <c r="C17" t="s">
         <v>236</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="D17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>237</v>
+      </c>
+      <c r="B18" t="s">
         <v>185</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
+      <c r="C18" t="s">
         <v>238</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="D18" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>239</v>
+      </c>
+      <c r="B19" t="s">
         <v>185</v>
       </c>
-      <c r="C19" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
+      <c r="C19" t="s">
         <v>240</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="D19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>241</v>
+      </c>
+      <c r="B20" t="s">
         <v>185</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="s">
+      <c r="C20" t="s">
         <v>242</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="D20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>243</v>
+      </c>
+      <c r="B21" t="s">
         <v>185</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="s">
+      <c r="C21" t="s">
         <v>244</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="D21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>245</v>
+      </c>
+      <c r="B22" t="s">
         <v>185</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0" t="s">
+      <c r="C22" t="s">
         <v>246</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="D22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>247</v>
+      </c>
+      <c r="B23" t="s">
         <v>185</v>
       </c>
-      <c r="C23" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0" t="s">
+      <c r="C23" t="s">
         <v>248</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="D23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>249</v>
+      </c>
+      <c r="B24" t="s">
         <v>185</v>
       </c>
-      <c r="C24" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0" t="s">
+      <c r="C24" t="s">
         <v>250</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="D24" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>251</v>
+      </c>
+      <c r="B25" t="s">
         <v>185</v>
       </c>
-      <c r="C25" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0" t="s">
+      <c r="C25" t="s">
         <v>252</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="D25" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>253</v>
+      </c>
+      <c r="B26" t="s">
         <v>185</v>
       </c>
-      <c r="C26" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0" t="s">
+      <c r="C26" t="s">
         <v>254</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="D26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>255</v>
+      </c>
+      <c r="B27" t="s">
         <v>185</v>
       </c>
-      <c r="C27" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0" t="s">
+      <c r="C27" t="s">
         <v>256</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="D27" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>257</v>
+      </c>
+      <c r="B28" t="s">
         <v>185</v>
       </c>
-      <c r="C28" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0" t="s">
+      <c r="C28" t="s">
         <v>258</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="D28" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>259</v>
+      </c>
+      <c r="B29" t="s">
         <v>185</v>
       </c>
-      <c r="C29" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0" t="s">
+      <c r="C29" t="s">
         <v>260</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="D29" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>261</v>
+      </c>
+      <c r="B30" t="s">
         <v>185</v>
       </c>
-      <c r="C30" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0" t="s">
+      <c r="C30" t="s">
         <v>262</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="D30" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B31" t="s">
         <v>185</v>
       </c>
-      <c r="C31" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0" t="s">
+      <c r="C31" t="s">
         <v>264</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="D31" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>265</v>
+      </c>
+      <c r="B32" t="s">
         <v>189</v>
       </c>
-      <c r="C32" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0" t="s">
+      <c r="C32" t="s">
+        <v>204</v>
+      </c>
+      <c r="D32" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
         <v>266</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>189</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" t="s">
         <v>207</v>
       </c>
-      <c r="D33" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0" t="s">
+      <c r="D33" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
         <v>267</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" t="s">
         <v>189</v>
       </c>
-      <c r="C34" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0" t="s">
+      <c r="C34" t="s">
+        <v>210</v>
+      </c>
+      <c r="D34" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
         <v>268</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" t="s">
         <v>189</v>
       </c>
-      <c r="C35" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0" t="s">
+      <c r="C35" t="s">
+        <v>212</v>
+      </c>
+      <c r="D35" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
         <v>269</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" t="s">
         <v>189</v>
       </c>
-      <c r="C36" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0" t="s">
+      <c r="C36" t="s">
+        <v>214</v>
+      </c>
+      <c r="D36" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
         <v>270</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" t="s">
         <v>189</v>
       </c>
-      <c r="C37" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0" t="s">
+      <c r="C37" t="s">
+        <v>216</v>
+      </c>
+      <c r="D37" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
         <v>271</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" t="s">
         <v>189</v>
       </c>
-      <c r="C38" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0" t="s">
+      <c r="C38" t="s">
+        <v>218</v>
+      </c>
+      <c r="D38" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
         <v>272</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" t="s">
         <v>189</v>
       </c>
-      <c r="C39" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0" t="s">
+      <c r="C39" t="s">
+        <v>220</v>
+      </c>
+      <c r="D39" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
         <v>273</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" t="s">
         <v>189</v>
       </c>
-      <c r="C40" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0" t="s">
+      <c r="C40" t="s">
+        <v>222</v>
+      </c>
+      <c r="D40" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
         <v>274</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" t="s">
         <v>189</v>
       </c>
-      <c r="C41" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0" t="s">
+      <c r="C41" t="s">
+        <v>224</v>
+      </c>
+      <c r="D41" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
         <v>275</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>189</v>
       </c>
-      <c r="C42" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0" t="s">
+      <c r="C42" t="s">
+        <v>226</v>
+      </c>
+      <c r="D42" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
         <v>276</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" t="s">
         <v>189</v>
       </c>
-      <c r="C43" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0" t="s">
+      <c r="C43" t="s">
+        <v>228</v>
+      </c>
+      <c r="D43" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
         <v>277</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" t="s">
         <v>189</v>
       </c>
-      <c r="C44" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0" t="s">
+      <c r="C44" t="s">
+        <v>230</v>
+      </c>
+      <c r="D44" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
         <v>278</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" t="s">
         <v>189</v>
       </c>
-      <c r="C45" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0" t="s">
+      <c r="C45" t="s">
+        <v>232</v>
+      </c>
+      <c r="D45" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
         <v>279</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" t="s">
         <v>189</v>
       </c>
-      <c r="C46" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0" t="s">
+      <c r="C46" t="s">
+        <v>234</v>
+      </c>
+      <c r="D46" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
         <v>280</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" t="s">
         <v>189</v>
       </c>
-      <c r="C47" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0" t="s">
+      <c r="C47" t="s">
+        <v>236</v>
+      </c>
+      <c r="D47" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
         <v>281</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" t="s">
         <v>189</v>
       </c>
-      <c r="C48" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0" t="s">
+      <c r="C48" t="s">
+        <v>238</v>
+      </c>
+      <c r="D48" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
         <v>282</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" t="s">
         <v>189</v>
       </c>
-      <c r="C49" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0" t="s">
+      <c r="C49" t="s">
+        <v>240</v>
+      </c>
+      <c r="D49" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
         <v>283</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" t="s">
         <v>189</v>
       </c>
-      <c r="C50" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0" t="s">
+      <c r="C50" t="s">
+        <v>242</v>
+      </c>
+      <c r="D50" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
         <v>284</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" t="s">
         <v>189</v>
       </c>
-      <c r="C51" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0" t="s">
+      <c r="C51" t="s">
+        <v>244</v>
+      </c>
+      <c r="D51" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
         <v>285</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" t="s">
         <v>189</v>
       </c>
-      <c r="C52" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0" t="s">
+      <c r="C52" t="s">
+        <v>246</v>
+      </c>
+      <c r="D52" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
         <v>286</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" t="s">
         <v>189</v>
       </c>
-      <c r="C53" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="D53" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0" t="s">
+      <c r="C53" t="s">
+        <v>248</v>
+      </c>
+      <c r="D53" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
         <v>287</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" t="s">
         <v>189</v>
       </c>
-      <c r="C54" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0" t="s">
+      <c r="C54" t="s">
+        <v>250</v>
+      </c>
+      <c r="D54" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
         <v>288</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" t="s">
         <v>189</v>
       </c>
-      <c r="C55" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0" t="s">
+      <c r="C55" t="s">
+        <v>252</v>
+      </c>
+      <c r="D55" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
         <v>289</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" t="s">
         <v>189</v>
       </c>
-      <c r="C56" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0" t="s">
+      <c r="C56" t="s">
+        <v>254</v>
+      </c>
+      <c r="D56" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
         <v>290</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" t="s">
         <v>189</v>
       </c>
-      <c r="C57" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="0" t="s">
+      <c r="C57" t="s">
+        <v>256</v>
+      </c>
+      <c r="D57" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
         <v>291</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" t="s">
         <v>189</v>
       </c>
-      <c r="C58" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="0" t="s">
+      <c r="C58" t="s">
+        <v>258</v>
+      </c>
+      <c r="D58" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
         <v>292</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" t="s">
         <v>189</v>
       </c>
-      <c r="C59" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="0" t="s">
+      <c r="C59" t="s">
+        <v>260</v>
+      </c>
+      <c r="D59" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
         <v>293</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" t="s">
         <v>189</v>
       </c>
-      <c r="C60" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="0" t="s">
+      <c r="C60" t="s">
+        <v>262</v>
+      </c>
+      <c r="D60" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
         <v>294</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" t="s">
         <v>189</v>
       </c>
-      <c r="C61" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="0" t="s">
+      <c r="C61" t="s">
+        <v>264</v>
+      </c>
+      <c r="D61" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
         <v>295</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" t="s">
         <v>193</v>
       </c>
-      <c r="C62" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="0" t="s">
+      <c r="C62" t="s">
+        <v>204</v>
+      </c>
+      <c r="D62" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
         <v>296</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" t="s">
         <v>193</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" t="s">
         <v>207</v>
       </c>
-      <c r="D63" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="0" t="s">
+      <c r="D63" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
         <v>297</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" t="s">
         <v>193</v>
       </c>
-      <c r="C64" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="D64" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="0" t="s">
+      <c r="C64" t="s">
+        <v>210</v>
+      </c>
+      <c r="D64" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
         <v>298</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" t="s">
         <v>193</v>
       </c>
-      <c r="C65" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="D65" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="0" t="s">
+      <c r="C65" t="s">
+        <v>212</v>
+      </c>
+      <c r="D65" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
         <v>299</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" t="s">
         <v>193</v>
       </c>
-      <c r="C66" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="D66" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="0" t="s">
+      <c r="C66" t="s">
+        <v>214</v>
+      </c>
+      <c r="D66" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
         <v>300</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" t="s">
         <v>193</v>
       </c>
-      <c r="C67" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="D67" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="0" t="s">
+      <c r="C67" t="s">
+        <v>216</v>
+      </c>
+      <c r="D67" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
         <v>301</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" t="s">
         <v>193</v>
       </c>
-      <c r="C68" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="D68" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="0" t="s">
+      <c r="C68" t="s">
+        <v>218</v>
+      </c>
+      <c r="D68" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
         <v>302</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" t="s">
         <v>193</v>
       </c>
-      <c r="C69" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="D69" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="0" t="s">
+      <c r="C69" t="s">
+        <v>220</v>
+      </c>
+      <c r="D69" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
         <v>303</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" t="s">
         <v>193</v>
       </c>
-      <c r="C70" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="D70" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="0" t="s">
+      <c r="C70" t="s">
+        <v>222</v>
+      </c>
+      <c r="D70" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
         <v>304</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" t="s">
         <v>193</v>
       </c>
-      <c r="C71" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="D71" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="0" t="s">
+      <c r="C71" t="s">
+        <v>224</v>
+      </c>
+      <c r="D71" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
         <v>305</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" t="s">
         <v>193</v>
       </c>
-      <c r="C72" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="D72" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="0" t="s">
+      <c r="C72" t="s">
+        <v>226</v>
+      </c>
+      <c r="D72" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
         <v>306</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" t="s">
         <v>193</v>
       </c>
-      <c r="C73" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="D73" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="0" t="s">
+      <c r="C73" t="s">
+        <v>228</v>
+      </c>
+      <c r="D73" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
         <v>307</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" t="s">
         <v>193</v>
       </c>
-      <c r="C74" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="D74" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="0" t="s">
+      <c r="C74" t="s">
+        <v>230</v>
+      </c>
+      <c r="D74" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
         <v>308</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" t="s">
         <v>193</v>
       </c>
-      <c r="C75" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="D75" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="0" t="s">
+      <c r="C75" t="s">
+        <v>232</v>
+      </c>
+      <c r="D75" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
         <v>309</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" t="s">
         <v>193</v>
       </c>
-      <c r="C76" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="D76" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="0" t="s">
+      <c r="C76" t="s">
+        <v>234</v>
+      </c>
+      <c r="D76" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
         <v>310</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" t="s">
         <v>193</v>
       </c>
-      <c r="C77" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="D77" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="0" t="s">
+      <c r="C77" t="s">
+        <v>236</v>
+      </c>
+      <c r="D77" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
         <v>311</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" t="s">
         <v>193</v>
       </c>
-      <c r="C78" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="D78" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="0" t="s">
+      <c r="C78" t="s">
+        <v>238</v>
+      </c>
+      <c r="D78" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
         <v>312</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" t="s">
         <v>193</v>
       </c>
-      <c r="C79" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="D79" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="0" t="s">
+      <c r="C79" t="s">
+        <v>240</v>
+      </c>
+      <c r="D79" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
         <v>313</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" t="s">
         <v>193</v>
       </c>
-      <c r="C80" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="D80" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="0" t="s">
+      <c r="C80" t="s">
+        <v>242</v>
+      </c>
+      <c r="D80" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
         <v>314</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" t="s">
         <v>193</v>
       </c>
-      <c r="C81" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="D81" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="0" t="s">
+      <c r="C81" t="s">
+        <v>244</v>
+      </c>
+      <c r="D81" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
         <v>315</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" t="s">
         <v>193</v>
       </c>
-      <c r="C82" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="D82" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="0" t="s">
+      <c r="C82" t="s">
+        <v>246</v>
+      </c>
+      <c r="D82" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
         <v>316</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" t="s">
         <v>193</v>
       </c>
-      <c r="C83" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="D83" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="0" t="s">
+      <c r="C83" t="s">
+        <v>248</v>
+      </c>
+      <c r="D83" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
         <v>317</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" t="s">
         <v>193</v>
       </c>
-      <c r="C84" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="D84" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="0" t="s">
+      <c r="C84" t="s">
+        <v>250</v>
+      </c>
+      <c r="D84" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
         <v>318</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" t="s">
         <v>193</v>
       </c>
-      <c r="C85" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="D85" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="0" t="s">
+      <c r="C85" t="s">
+        <v>252</v>
+      </c>
+      <c r="D85" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
         <v>319</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" t="s">
         <v>193</v>
       </c>
-      <c r="C86" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="D86" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="0" t="s">
+      <c r="C86" t="s">
+        <v>254</v>
+      </c>
+      <c r="D86" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
         <v>320</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" t="s">
         <v>193</v>
       </c>
-      <c r="C87" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="D87" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="0" t="s">
+      <c r="C87" t="s">
+        <v>256</v>
+      </c>
+      <c r="D87" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
         <v>321</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B88" t="s">
         <v>193</v>
       </c>
-      <c r="C88" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="D88" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="0" t="s">
+      <c r="C88" t="s">
+        <v>258</v>
+      </c>
+      <c r="D88" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
         <v>322</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" t="s">
         <v>193</v>
       </c>
-      <c r="C89" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="D89" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="0" t="s">
+      <c r="C89" t="s">
+        <v>260</v>
+      </c>
+      <c r="D89" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
         <v>323</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" t="s">
         <v>193</v>
       </c>
-      <c r="C90" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="D90" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="0" t="s">
+      <c r="C90" t="s">
+        <v>262</v>
+      </c>
+      <c r="D90" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
         <v>324</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" t="s">
         <v>193</v>
       </c>
-      <c r="C91" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="D91" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="0" t="s">
+      <c r="C91" t="s">
+        <v>264</v>
+      </c>
+      <c r="D91" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
         <v>325</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" t="s">
         <v>197</v>
       </c>
-      <c r="C92" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="D92" s="0" t="s">
-        <v>205</v>
+      <c r="C92" t="s">
+        <v>204</v>
+      </c>
+      <c r="D92" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -3962,231 +3933,222 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" bestFit="1" width="35.1328125" customWidth="1"/>
-    <col min="2" max="2" bestFit="1" width="9.53125" customWidth="1"/>
-    <col min="3" max="3" bestFit="1" width="11.53125" customWidth="1"/>
-    <col min="4" max="4" bestFit="1" width="13.53125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>326</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>327</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>329</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>330</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>331</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>332</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>333</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>335</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>336</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>337</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>339</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>154</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>340</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>341</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>342</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>343</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>345</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>346</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>347</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>348</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>349</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>127</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>351</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>352</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>354</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>355</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>356</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>357</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>358</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>359</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>360</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>361</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>362</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>363</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
         <v>364</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>365</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>366</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -4194,816 +4156,758 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" bestFit="1" width="35.53125" customWidth="1"/>
-    <col min="2" max="2" bestFit="1" width="35.265625" customWidth="1"/>
-    <col min="3" max="3" bestFit="1" width="11.86328125" customWidth="1"/>
-    <col min="4" max="4" bestFit="1" width="9.73046875" customWidth="1"/>
-    <col min="5" max="5" bestFit="1" width="12.46484375" customWidth="1"/>
-    <col min="6" max="6" bestFit="1" width="4.86328125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>367</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>368</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>369</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>370</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>372</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>373</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>374</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>375</v>
       </c>
-      <c r="F2" s="0">
+      <c r="F2">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>376</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>377</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>378</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>379</v>
       </c>
-      <c r="F3" s="0">
+      <c r="F3">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>380</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>381</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>382</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>383</v>
       </c>
-      <c r="F4" s="0">
+      <c r="F4">
         <v>2</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>384</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>385</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>386</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>387</v>
       </c>
-      <c r="F5" s="0">
+      <c r="F5">
         <v>3</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>388</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>389</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>390</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>391</v>
       </c>
-      <c r="F6" s="0">
+      <c r="F6">
         <v>4</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>392</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>393</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>386</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>394</v>
       </c>
-      <c r="F7" s="0">
+      <c r="F7">
         <v>5</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>395</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>396</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>397</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>398</v>
       </c>
-      <c r="F8" s="0">
+      <c r="F8">
         <v>6</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>399</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>400</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>401</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s">
         <v>402</v>
       </c>
-      <c r="F9" s="0">
+      <c r="F9">
         <v>0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>403</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>404</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>405</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>406</v>
       </c>
-      <c r="F10" s="0">
+      <c r="F10">
         <v>1</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>407</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>408</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>409</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>410</v>
       </c>
-      <c r="F11" s="0">
+      <c r="F11">
         <v>2</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>411</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>412</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>413</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" t="s">
         <v>414</v>
       </c>
-      <c r="F12" s="0">
+      <c r="F12">
         <v>3</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>415</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>416</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>417</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" t="s">
         <v>418</v>
       </c>
-      <c r="F13" s="0">
+      <c r="F13">
         <v>4</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>419</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>420</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>413</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" t="s">
         <v>421</v>
       </c>
-      <c r="F14" s="0">
+      <c r="F14">
         <v>5</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
         <v>422</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>423</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>424</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" t="s">
         <v>425</v>
       </c>
-      <c r="F15" s="0">
+      <c r="F15">
         <v>6</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
         <v>426</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>427</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>428</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" t="s">
         <v>429</v>
       </c>
-      <c r="F16" s="0">
+      <c r="F16">
         <v>0</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
         <v>430</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>431</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>432</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" t="s">
         <v>433</v>
       </c>
-      <c r="F17" s="0">
+      <c r="F17">
         <v>1</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
         <v>434</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>101</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>435</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>436</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" t="s">
         <v>437</v>
       </c>
-      <c r="F18" s="0">
+      <c r="F18">
         <v>2</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
         <v>438</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>439</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>397</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" t="s">
         <v>440</v>
       </c>
-      <c r="F19" s="0">
+      <c r="F19">
         <v>3</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
         <v>441</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>113</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>442</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>443</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" t="s">
         <v>444</v>
       </c>
-      <c r="F20" s="0">
+      <c r="F20">
         <v>4</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
         <v>445</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>119</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>446</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>447</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" t="s">
         <v>448</v>
       </c>
-      <c r="F21" s="0">
+      <c r="F21">
         <v>5</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
         <v>449</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>125</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>450</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" t="s">
         <v>451</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" t="s">
         <v>452</v>
       </c>
-      <c r="F22" s="0">
+      <c r="F22">
         <v>6</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
         <v>453</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>131</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>454</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" t="s">
         <v>455</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" t="s">
         <v>456</v>
       </c>
-      <c r="F23" s="0">
+      <c r="F23">
         <v>0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
         <v>457</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>137</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>458</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>405</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" t="s">
         <v>459</v>
       </c>
-      <c r="F24" s="0">
+      <c r="F24">
         <v>1</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
         <v>460</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>143</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>461</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>409</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" t="s">
         <v>462</v>
       </c>
-      <c r="F25" s="0">
+      <c r="F25">
         <v>2</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
         <v>463</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>148</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>464</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>465</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" t="s">
         <v>466</v>
       </c>
-      <c r="F26" s="0">
+      <c r="F26">
         <v>3</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
         <v>467</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>153</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>468</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>469</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" t="s">
         <v>470</v>
       </c>
-      <c r="F27" s="0">
+      <c r="F27">
         <v>4</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
         <v>471</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>159</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>472</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" t="s">
         <v>473</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" t="s">
         <v>474</v>
       </c>
-      <c r="F28" s="0">
+      <c r="F28">
         <v>5</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
         <v>475</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>164</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" t="s">
         <v>476</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" t="s">
         <v>477</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" t="s">
         <v>478</v>
       </c>
-      <c r="F29" s="0">
+      <c r="F29">
         <v>6</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
         <v>479</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>168</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" t="s">
         <v>480</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" t="s">
         <v>390</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E30" t="s">
         <v>481</v>
       </c>
-      <c r="F30" s="0">
+      <c r="F30">
         <v>0</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
         <v>482</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>172</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" t="s">
         <v>483</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" t="s">
         <v>484</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E31" t="s">
         <v>485</v>
       </c>
-      <c r="F31" s="0">
+      <c r="F31">
         <v>1</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
         <v>486</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>178</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" t="s">
         <v>487</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" t="s">
         <v>488</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="E32" t="s">
         <v>489</v>
       </c>
-      <c r="F32" s="0">
+      <c r="F32">
         <v>1</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
         <v>490</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>178</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" t="s">
         <v>491</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" t="s">
         <v>488</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="E33" t="s">
         <v>492</v>
       </c>
-      <c r="F33" s="0">
+      <c r="F33">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA517598-8C7D-4584-A300-A6EB0C629AED}">
-  <dimension ref="A1:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="1" width="34.53125" customWidth="1"/>
-    <col min="2" max="2" bestFit="1" width="5.33203125" customWidth="1"/>
-    <col min="3" max="3" bestFit="1" width="7.1328125" customWidth="1"/>
-    <col min="4" max="4" bestFit="1" width="34.46484375" customWidth="1"/>
-    <col min="5" max="5" bestFit="1" width="33.3984375" customWidth="1"/>
-    <col min="6" max="6" bestFit="1" width="34.19921875" customWidth="1"/>
-    <col min="7" max="7" bestFit="1" width="34.796875" customWidth="1"/>
-    <col min="8" max="8" bestFit="1" width="4.46484375" customWidth="1"/>
-    <col min="9" max="9" bestFit="1" width="4.73046875" customWidth="1"/>
-    <col min="10" max="10" bestFit="1" width="17.33203125" customWidth="1"/>
-    <col min="11" max="11" bestFit="1" width="34" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>493</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>494</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>495</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>496</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>497</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>498</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>499</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>500</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>501</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>503</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>504</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>505</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="D2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="H2" s="0">
-        <v>45</v>
-      </c>
-      <c r="I2" s="0">
-        <v>555</v>
-      </c>
-      <c r="J2" s="0" t="s">
+      <c r="G2" t="s">
+        <v>356</v>
+      </c>
+      <c r="H2">
+        <v>31</v>
+      </c>
+      <c r="I2">
+        <v>189</v>
+      </c>
+      <c r="J2" t="s">
         <v>506</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>507</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>504</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>508</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="H3" s="0">
-        <v>2</v>
-      </c>
-      <c r="I3" s="0">
-        <v>8888</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>509</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>460</v>
+      <c r="K2" t="s">
+        <v>486</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/DbFolder/ParkingDB.xlsx
+++ b/DbFolder/ParkingDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepositories\parkingWPF_project\DbFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F4C508-1633-47F8-9B05-D5F224BEC1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE319F7-E808-49AA-8A4F-5D06C657ABC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Owners" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="517">
   <si>
     <t>Id</t>
   </si>
@@ -579,6 +579,15 @@
     <t>79026140587</t>
   </si>
   <si>
+    <t>dcaed685-0a59-4009-bf3d-8d337d804e0b</t>
+  </si>
+  <si>
+    <t>Анжелика</t>
+  </si>
+  <si>
+    <t>79514597925</t>
+  </si>
+  <si>
     <t>Inn</t>
   </si>
   <si>
@@ -1005,6 +1014,9 @@
     <t>f0ecd233-41ec-4c10-9a1d-39c65372d462</t>
   </si>
   <si>
+    <t>734299ee-1cf1-4138-8112-4d49ea1d6aaf</t>
+  </si>
+  <si>
     <t>528a7b0d-42f4-48de-b4e7-991ae9838f8d</t>
   </si>
   <si>
@@ -1098,9 +1110,6 @@
     <t>771acd2e-ba85-49b5-8072-63e1387a4ae1</t>
   </si>
   <si>
-    <t>Анжелика</t>
-  </si>
-  <si>
     <t>Клементьева</t>
   </si>
   <si>
@@ -1128,6 +1137,15 @@
     <t>Юркин</t>
   </si>
   <si>
+    <t>a120a606-086c-4f00-b5fc-22c0481eb0f1</t>
+  </si>
+  <si>
+    <t>Даниил</t>
+  </si>
+  <si>
+    <t>Ерофеев</t>
+  </si>
+  <si>
     <t>ClientId</t>
   </si>
   <si>
@@ -1504,6 +1522,18 @@
   </si>
   <si>
     <t>2109</t>
+  </si>
+  <si>
+    <t>42da13c2-cb72-4538-92c8-9d29ec318bb6</t>
+  </si>
+  <si>
+    <t>Е 666 КХ 777</t>
+  </si>
+  <si>
+    <t>BMW</t>
+  </si>
+  <si>
+    <t>M3</t>
   </si>
   <si>
     <t>Series</t>
@@ -1894,9 +1924,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -2538,6 +2568,26 @@
       </c>
       <c r="F32" t="s">
         <v>183</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B33" t="s">
+        <v>185</v>
+      </c>
+      <c r="C33" t="s">
+        <v>180</v>
+      </c>
+      <c r="D33" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" t="s">
+        <v>182</v>
+      </c>
+      <c r="F33" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2564,63 +2614,63 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B4" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C5" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D5" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -2630,7 +2680,1322 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D92"/>
+  <dimension ref="A1:D93"/>
+  <sheetViews>
+    <sheetView topLeftCell="A78" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" t="s">
+        <v>223</v>
+      </c>
+      <c r="D9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>226</v>
+      </c>
+      <c r="B11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" t="s">
+        <v>227</v>
+      </c>
+      <c r="D11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>228</v>
+      </c>
+      <c r="B12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" t="s">
+        <v>229</v>
+      </c>
+      <c r="D12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>230</v>
+      </c>
+      <c r="B13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>232</v>
+      </c>
+      <c r="B14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" t="s">
+        <v>233</v>
+      </c>
+      <c r="D14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" t="s">
+        <v>235</v>
+      </c>
+      <c r="D15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>236</v>
+      </c>
+      <c r="B16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" t="s">
+        <v>237</v>
+      </c>
+      <c r="D16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>238</v>
+      </c>
+      <c r="B17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" t="s">
+        <v>239</v>
+      </c>
+      <c r="D17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>240</v>
+      </c>
+      <c r="B18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" t="s">
+        <v>241</v>
+      </c>
+      <c r="D18" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>242</v>
+      </c>
+      <c r="B19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" t="s">
+        <v>243</v>
+      </c>
+      <c r="D19" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>244</v>
+      </c>
+      <c r="B20" t="s">
+        <v>188</v>
+      </c>
+      <c r="C20" t="s">
+        <v>245</v>
+      </c>
+      <c r="D20" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>246</v>
+      </c>
+      <c r="B21" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21" t="s">
+        <v>247</v>
+      </c>
+      <c r="D21" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>248</v>
+      </c>
+      <c r="B22" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" t="s">
+        <v>249</v>
+      </c>
+      <c r="D22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>250</v>
+      </c>
+      <c r="B23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" t="s">
+        <v>251</v>
+      </c>
+      <c r="D23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>252</v>
+      </c>
+      <c r="B24" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" t="s">
+        <v>253</v>
+      </c>
+      <c r="D24" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>254</v>
+      </c>
+      <c r="B25" t="s">
+        <v>188</v>
+      </c>
+      <c r="C25" t="s">
+        <v>255</v>
+      </c>
+      <c r="D25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>256</v>
+      </c>
+      <c r="B26" t="s">
+        <v>188</v>
+      </c>
+      <c r="C26" t="s">
+        <v>257</v>
+      </c>
+      <c r="D26" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>258</v>
+      </c>
+      <c r="B27" t="s">
+        <v>188</v>
+      </c>
+      <c r="C27" t="s">
+        <v>259</v>
+      </c>
+      <c r="D27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>260</v>
+      </c>
+      <c r="B28" t="s">
+        <v>188</v>
+      </c>
+      <c r="C28" t="s">
+        <v>261</v>
+      </c>
+      <c r="D28" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>262</v>
+      </c>
+      <c r="B29" t="s">
+        <v>188</v>
+      </c>
+      <c r="C29" t="s">
+        <v>263</v>
+      </c>
+      <c r="D29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>264</v>
+      </c>
+      <c r="B30" t="s">
+        <v>188</v>
+      </c>
+      <c r="C30" t="s">
+        <v>265</v>
+      </c>
+      <c r="D30" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>266</v>
+      </c>
+      <c r="B31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C31" t="s">
+        <v>267</v>
+      </c>
+      <c r="D31" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>268</v>
+      </c>
+      <c r="B32" t="s">
+        <v>192</v>
+      </c>
+      <c r="C32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D32" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>269</v>
+      </c>
+      <c r="B33" t="s">
+        <v>192</v>
+      </c>
+      <c r="C33" t="s">
+        <v>210</v>
+      </c>
+      <c r="D33" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>270</v>
+      </c>
+      <c r="B34" t="s">
+        <v>192</v>
+      </c>
+      <c r="C34" t="s">
+        <v>213</v>
+      </c>
+      <c r="D34" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>271</v>
+      </c>
+      <c r="B35" t="s">
+        <v>192</v>
+      </c>
+      <c r="C35" t="s">
+        <v>215</v>
+      </c>
+      <c r="D35" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>272</v>
+      </c>
+      <c r="B36" t="s">
+        <v>192</v>
+      </c>
+      <c r="C36" t="s">
+        <v>217</v>
+      </c>
+      <c r="D36" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>273</v>
+      </c>
+      <c r="B37" t="s">
+        <v>192</v>
+      </c>
+      <c r="C37" t="s">
+        <v>219</v>
+      </c>
+      <c r="D37" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>274</v>
+      </c>
+      <c r="B38" t="s">
+        <v>192</v>
+      </c>
+      <c r="C38" t="s">
+        <v>221</v>
+      </c>
+      <c r="D38" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>275</v>
+      </c>
+      <c r="B39" t="s">
+        <v>192</v>
+      </c>
+      <c r="C39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D39" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>276</v>
+      </c>
+      <c r="B40" t="s">
+        <v>192</v>
+      </c>
+      <c r="C40" t="s">
+        <v>225</v>
+      </c>
+      <c r="D40" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>277</v>
+      </c>
+      <c r="B41" t="s">
+        <v>192</v>
+      </c>
+      <c r="C41" t="s">
+        <v>227</v>
+      </c>
+      <c r="D41" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>278</v>
+      </c>
+      <c r="B42" t="s">
+        <v>192</v>
+      </c>
+      <c r="C42" t="s">
+        <v>229</v>
+      </c>
+      <c r="D42" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>279</v>
+      </c>
+      <c r="B43" t="s">
+        <v>192</v>
+      </c>
+      <c r="C43" t="s">
+        <v>231</v>
+      </c>
+      <c r="D43" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>280</v>
+      </c>
+      <c r="B44" t="s">
+        <v>192</v>
+      </c>
+      <c r="C44" t="s">
+        <v>233</v>
+      </c>
+      <c r="D44" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>281</v>
+      </c>
+      <c r="B45" t="s">
+        <v>192</v>
+      </c>
+      <c r="C45" t="s">
+        <v>235</v>
+      </c>
+      <c r="D45" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>282</v>
+      </c>
+      <c r="B46" t="s">
+        <v>192</v>
+      </c>
+      <c r="C46" t="s">
+        <v>237</v>
+      </c>
+      <c r="D46" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>283</v>
+      </c>
+      <c r="B47" t="s">
+        <v>192</v>
+      </c>
+      <c r="C47" t="s">
+        <v>239</v>
+      </c>
+      <c r="D47" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>284</v>
+      </c>
+      <c r="B48" t="s">
+        <v>192</v>
+      </c>
+      <c r="C48" t="s">
+        <v>241</v>
+      </c>
+      <c r="D48" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>285</v>
+      </c>
+      <c r="B49" t="s">
+        <v>192</v>
+      </c>
+      <c r="C49" t="s">
+        <v>243</v>
+      </c>
+      <c r="D49" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>286</v>
+      </c>
+      <c r="B50" t="s">
+        <v>192</v>
+      </c>
+      <c r="C50" t="s">
+        <v>245</v>
+      </c>
+      <c r="D50" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>287</v>
+      </c>
+      <c r="B51" t="s">
+        <v>192</v>
+      </c>
+      <c r="C51" t="s">
+        <v>247</v>
+      </c>
+      <c r="D51" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>288</v>
+      </c>
+      <c r="B52" t="s">
+        <v>192</v>
+      </c>
+      <c r="C52" t="s">
+        <v>249</v>
+      </c>
+      <c r="D52" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>289</v>
+      </c>
+      <c r="B53" t="s">
+        <v>192</v>
+      </c>
+      <c r="C53" t="s">
+        <v>251</v>
+      </c>
+      <c r="D53" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>290</v>
+      </c>
+      <c r="B54" t="s">
+        <v>192</v>
+      </c>
+      <c r="C54" t="s">
+        <v>253</v>
+      </c>
+      <c r="D54" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>291</v>
+      </c>
+      <c r="B55" t="s">
+        <v>192</v>
+      </c>
+      <c r="C55" t="s">
+        <v>255</v>
+      </c>
+      <c r="D55" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>292</v>
+      </c>
+      <c r="B56" t="s">
+        <v>192</v>
+      </c>
+      <c r="C56" t="s">
+        <v>257</v>
+      </c>
+      <c r="D56" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>293</v>
+      </c>
+      <c r="B57" t="s">
+        <v>192</v>
+      </c>
+      <c r="C57" t="s">
+        <v>259</v>
+      </c>
+      <c r="D57" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>294</v>
+      </c>
+      <c r="B58" t="s">
+        <v>192</v>
+      </c>
+      <c r="C58" t="s">
+        <v>261</v>
+      </c>
+      <c r="D58" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>295</v>
+      </c>
+      <c r="B59" t="s">
+        <v>192</v>
+      </c>
+      <c r="C59" t="s">
+        <v>263</v>
+      </c>
+      <c r="D59" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>296</v>
+      </c>
+      <c r="B60" t="s">
+        <v>192</v>
+      </c>
+      <c r="C60" t="s">
+        <v>265</v>
+      </c>
+      <c r="D60" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>297</v>
+      </c>
+      <c r="B61" t="s">
+        <v>192</v>
+      </c>
+      <c r="C61" t="s">
+        <v>267</v>
+      </c>
+      <c r="D61" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>298</v>
+      </c>
+      <c r="B62" t="s">
+        <v>196</v>
+      </c>
+      <c r="C62" t="s">
+        <v>207</v>
+      </c>
+      <c r="D62" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>299</v>
+      </c>
+      <c r="B63" t="s">
+        <v>196</v>
+      </c>
+      <c r="C63" t="s">
+        <v>210</v>
+      </c>
+      <c r="D63" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>300</v>
+      </c>
+      <c r="B64" t="s">
+        <v>196</v>
+      </c>
+      <c r="C64" t="s">
+        <v>213</v>
+      </c>
+      <c r="D64" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>301</v>
+      </c>
+      <c r="B65" t="s">
+        <v>196</v>
+      </c>
+      <c r="C65" t="s">
+        <v>215</v>
+      </c>
+      <c r="D65" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>302</v>
+      </c>
+      <c r="B66" t="s">
+        <v>196</v>
+      </c>
+      <c r="C66" t="s">
+        <v>217</v>
+      </c>
+      <c r="D66" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>303</v>
+      </c>
+      <c r="B67" t="s">
+        <v>196</v>
+      </c>
+      <c r="C67" t="s">
+        <v>219</v>
+      </c>
+      <c r="D67" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>304</v>
+      </c>
+      <c r="B68" t="s">
+        <v>196</v>
+      </c>
+      <c r="C68" t="s">
+        <v>221</v>
+      </c>
+      <c r="D68" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>305</v>
+      </c>
+      <c r="B69" t="s">
+        <v>196</v>
+      </c>
+      <c r="C69" t="s">
+        <v>223</v>
+      </c>
+      <c r="D69" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>306</v>
+      </c>
+      <c r="B70" t="s">
+        <v>196</v>
+      </c>
+      <c r="C70" t="s">
+        <v>225</v>
+      </c>
+      <c r="D70" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>307</v>
+      </c>
+      <c r="B71" t="s">
+        <v>196</v>
+      </c>
+      <c r="C71" t="s">
+        <v>227</v>
+      </c>
+      <c r="D71" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>308</v>
+      </c>
+      <c r="B72" t="s">
+        <v>196</v>
+      </c>
+      <c r="C72" t="s">
+        <v>229</v>
+      </c>
+      <c r="D72" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>309</v>
+      </c>
+      <c r="B73" t="s">
+        <v>196</v>
+      </c>
+      <c r="C73" t="s">
+        <v>231</v>
+      </c>
+      <c r="D73" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>310</v>
+      </c>
+      <c r="B74" t="s">
+        <v>196</v>
+      </c>
+      <c r="C74" t="s">
+        <v>233</v>
+      </c>
+      <c r="D74" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>311</v>
+      </c>
+      <c r="B75" t="s">
+        <v>196</v>
+      </c>
+      <c r="C75" t="s">
+        <v>235</v>
+      </c>
+      <c r="D75" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>312</v>
+      </c>
+      <c r="B76" t="s">
+        <v>196</v>
+      </c>
+      <c r="C76" t="s">
+        <v>237</v>
+      </c>
+      <c r="D76" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>313</v>
+      </c>
+      <c r="B77" t="s">
+        <v>196</v>
+      </c>
+      <c r="C77" t="s">
+        <v>239</v>
+      </c>
+      <c r="D77" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>314</v>
+      </c>
+      <c r="B78" t="s">
+        <v>196</v>
+      </c>
+      <c r="C78" t="s">
+        <v>241</v>
+      </c>
+      <c r="D78" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>315</v>
+      </c>
+      <c r="B79" t="s">
+        <v>196</v>
+      </c>
+      <c r="C79" t="s">
+        <v>243</v>
+      </c>
+      <c r="D79" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>316</v>
+      </c>
+      <c r="B80" t="s">
+        <v>196</v>
+      </c>
+      <c r="C80" t="s">
+        <v>245</v>
+      </c>
+      <c r="D80" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>317</v>
+      </c>
+      <c r="B81" t="s">
+        <v>196</v>
+      </c>
+      <c r="C81" t="s">
+        <v>247</v>
+      </c>
+      <c r="D81" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>318</v>
+      </c>
+      <c r="B82" t="s">
+        <v>196</v>
+      </c>
+      <c r="C82" t="s">
+        <v>249</v>
+      </c>
+      <c r="D82" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>319</v>
+      </c>
+      <c r="B83" t="s">
+        <v>196</v>
+      </c>
+      <c r="C83" t="s">
+        <v>251</v>
+      </c>
+      <c r="D83" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>320</v>
+      </c>
+      <c r="B84" t="s">
+        <v>196</v>
+      </c>
+      <c r="C84" t="s">
+        <v>253</v>
+      </c>
+      <c r="D84" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>321</v>
+      </c>
+      <c r="B85" t="s">
+        <v>196</v>
+      </c>
+      <c r="C85" t="s">
+        <v>255</v>
+      </c>
+      <c r="D85" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>322</v>
+      </c>
+      <c r="B86" t="s">
+        <v>196</v>
+      </c>
+      <c r="C86" t="s">
+        <v>257</v>
+      </c>
+      <c r="D86" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>323</v>
+      </c>
+      <c r="B87" t="s">
+        <v>196</v>
+      </c>
+      <c r="C87" t="s">
+        <v>259</v>
+      </c>
+      <c r="D87" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>324</v>
+      </c>
+      <c r="B88" t="s">
+        <v>196</v>
+      </c>
+      <c r="C88" t="s">
+        <v>261</v>
+      </c>
+      <c r="D88" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>325</v>
+      </c>
+      <c r="B89" t="s">
+        <v>196</v>
+      </c>
+      <c r="C89" t="s">
+        <v>263</v>
+      </c>
+      <c r="D89" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>326</v>
+      </c>
+      <c r="B90" t="s">
+        <v>196</v>
+      </c>
+      <c r="C90" t="s">
+        <v>265</v>
+      </c>
+      <c r="D90" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>327</v>
+      </c>
+      <c r="B91" t="s">
+        <v>196</v>
+      </c>
+      <c r="C91" t="s">
+        <v>267</v>
+      </c>
+      <c r="D91" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>328</v>
+      </c>
+      <c r="B92" t="s">
+        <v>200</v>
+      </c>
+      <c r="C92" t="s">
+        <v>207</v>
+      </c>
+      <c r="D92" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>329</v>
+      </c>
+      <c r="B93" t="s">
+        <v>200</v>
+      </c>
+      <c r="C93" t="s">
+        <v>210</v>
+      </c>
+      <c r="D93" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2641,1510 +4006,223 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>202</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>330</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>204</v>
+        <v>331</v>
       </c>
       <c r="D2" t="s">
-        <v>205</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>333</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>207</v>
+        <v>334</v>
       </c>
       <c r="D3" t="s">
-        <v>208</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>209</v>
+        <v>335</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>336</v>
       </c>
       <c r="C4" t="s">
-        <v>210</v>
+        <v>337</v>
       </c>
       <c r="D4" t="s">
-        <v>208</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>211</v>
+        <v>339</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>340</v>
       </c>
       <c r="C5" t="s">
-        <v>212</v>
+        <v>341</v>
       </c>
       <c r="D5" t="s">
-        <v>208</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>213</v>
+        <v>343</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s">
-        <v>214</v>
+        <v>344</v>
       </c>
       <c r="D6" t="s">
-        <v>208</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>215</v>
+        <v>345</v>
       </c>
       <c r="B7" t="s">
-        <v>185</v>
+        <v>346</v>
       </c>
       <c r="C7" t="s">
-        <v>216</v>
+        <v>347</v>
       </c>
       <c r="D7" t="s">
-        <v>208</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>217</v>
+        <v>349</v>
       </c>
       <c r="B8" t="s">
-        <v>185</v>
+        <v>350</v>
       </c>
       <c r="C8" t="s">
-        <v>218</v>
+        <v>351</v>
       </c>
       <c r="D8" t="s">
-        <v>208</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>219</v>
+        <v>352</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>353</v>
       </c>
       <c r="C9" t="s">
-        <v>220</v>
+        <v>127</v>
       </c>
       <c r="D9" t="s">
-        <v>208</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>221</v>
+        <v>355</v>
       </c>
       <c r="B10" t="s">
-        <v>185</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>222</v>
+        <v>356</v>
       </c>
       <c r="D10" t="s">
-        <v>208</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>223</v>
+        <v>358</v>
       </c>
       <c r="B11" t="s">
-        <v>185</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>224</v>
+        <v>359</v>
       </c>
       <c r="D11" t="s">
-        <v>208</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>225</v>
+        <v>360</v>
       </c>
       <c r="B12" t="s">
         <v>185</v>
       </c>
       <c r="C12" t="s">
-        <v>226</v>
+        <v>361</v>
       </c>
       <c r="D12" t="s">
-        <v>208</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>227</v>
+        <v>362</v>
       </c>
       <c r="B13" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="C13" t="s">
-        <v>228</v>
+        <v>363</v>
       </c>
       <c r="D13" t="s">
-        <v>208</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>229</v>
+        <v>364</v>
       </c>
       <c r="B14" t="s">
-        <v>185</v>
+        <v>365</v>
       </c>
       <c r="C14" t="s">
-        <v>230</v>
+        <v>366</v>
       </c>
       <c r="D14" t="s">
-        <v>208</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>231</v>
+        <v>367</v>
       </c>
       <c r="B15" t="s">
-        <v>185</v>
+        <v>368</v>
       </c>
       <c r="C15" t="s">
-        <v>232</v>
+        <v>369</v>
       </c>
       <c r="D15" t="s">
-        <v>208</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>233</v>
+        <v>370</v>
       </c>
       <c r="B16" t="s">
-        <v>185</v>
+        <v>371</v>
       </c>
       <c r="C16" t="s">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="D16" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>235</v>
-      </c>
-      <c r="B17" t="s">
-        <v>185</v>
-      </c>
-      <c r="C17" t="s">
-        <v>236</v>
-      </c>
-      <c r="D17" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>237</v>
-      </c>
-      <c r="B18" t="s">
-        <v>185</v>
-      </c>
-      <c r="C18" t="s">
-        <v>238</v>
-      </c>
-      <c r="D18" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>239</v>
-      </c>
-      <c r="B19" t="s">
-        <v>185</v>
-      </c>
-      <c r="C19" t="s">
-        <v>240</v>
-      </c>
-      <c r="D19" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>241</v>
-      </c>
-      <c r="B20" t="s">
-        <v>185</v>
-      </c>
-      <c r="C20" t="s">
-        <v>242</v>
-      </c>
-      <c r="D20" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>243</v>
-      </c>
-      <c r="B21" t="s">
-        <v>185</v>
-      </c>
-      <c r="C21" t="s">
-        <v>244</v>
-      </c>
-      <c r="D21" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>245</v>
-      </c>
-      <c r="B22" t="s">
-        <v>185</v>
-      </c>
-      <c r="C22" t="s">
-        <v>246</v>
-      </c>
-      <c r="D22" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>247</v>
-      </c>
-      <c r="B23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C23" t="s">
-        <v>248</v>
-      </c>
-      <c r="D23" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>249</v>
-      </c>
-      <c r="B24" t="s">
-        <v>185</v>
-      </c>
-      <c r="C24" t="s">
-        <v>250</v>
-      </c>
-      <c r="D24" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>251</v>
-      </c>
-      <c r="B25" t="s">
-        <v>185</v>
-      </c>
-      <c r="C25" t="s">
-        <v>252</v>
-      </c>
-      <c r="D25" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>253</v>
-      </c>
-      <c r="B26" t="s">
-        <v>185</v>
-      </c>
-      <c r="C26" t="s">
-        <v>254</v>
-      </c>
-      <c r="D26" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>255</v>
-      </c>
-      <c r="B27" t="s">
-        <v>185</v>
-      </c>
-      <c r="C27" t="s">
-        <v>256</v>
-      </c>
-      <c r="D27" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>257</v>
-      </c>
-      <c r="B28" t="s">
-        <v>185</v>
-      </c>
-      <c r="C28" t="s">
-        <v>258</v>
-      </c>
-      <c r="D28" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>259</v>
-      </c>
-      <c r="B29" t="s">
-        <v>185</v>
-      </c>
-      <c r="C29" t="s">
-        <v>260</v>
-      </c>
-      <c r="D29" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>261</v>
-      </c>
-      <c r="B30" t="s">
-        <v>185</v>
-      </c>
-      <c r="C30" t="s">
-        <v>262</v>
-      </c>
-      <c r="D30" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>263</v>
-      </c>
-      <c r="B31" t="s">
-        <v>185</v>
-      </c>
-      <c r="C31" t="s">
-        <v>264</v>
-      </c>
-      <c r="D31" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>265</v>
-      </c>
-      <c r="B32" t="s">
-        <v>189</v>
-      </c>
-      <c r="C32" t="s">
-        <v>204</v>
-      </c>
-      <c r="D32" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>266</v>
-      </c>
-      <c r="B33" t="s">
-        <v>189</v>
-      </c>
-      <c r="C33" t="s">
-        <v>207</v>
-      </c>
-      <c r="D33" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>267</v>
-      </c>
-      <c r="B34" t="s">
-        <v>189</v>
-      </c>
-      <c r="C34" t="s">
-        <v>210</v>
-      </c>
-      <c r="D34" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>268</v>
-      </c>
-      <c r="B35" t="s">
-        <v>189</v>
-      </c>
-      <c r="C35" t="s">
-        <v>212</v>
-      </c>
-      <c r="D35" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>269</v>
-      </c>
-      <c r="B36" t="s">
-        <v>189</v>
-      </c>
-      <c r="C36" t="s">
-        <v>214</v>
-      </c>
-      <c r="D36" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>270</v>
-      </c>
-      <c r="B37" t="s">
-        <v>189</v>
-      </c>
-      <c r="C37" t="s">
-        <v>216</v>
-      </c>
-      <c r="D37" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>271</v>
-      </c>
-      <c r="B38" t="s">
-        <v>189</v>
-      </c>
-      <c r="C38" t="s">
-        <v>218</v>
-      </c>
-      <c r="D38" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>272</v>
-      </c>
-      <c r="B39" t="s">
-        <v>189</v>
-      </c>
-      <c r="C39" t="s">
-        <v>220</v>
-      </c>
-      <c r="D39" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
-        <v>273</v>
-      </c>
-      <c r="B40" t="s">
-        <v>189</v>
-      </c>
-      <c r="C40" t="s">
-        <v>222</v>
-      </c>
-      <c r="D40" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>274</v>
-      </c>
-      <c r="B41" t="s">
-        <v>189</v>
-      </c>
-      <c r="C41" t="s">
-        <v>224</v>
-      </c>
-      <c r="D41" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>275</v>
-      </c>
-      <c r="B42" t="s">
-        <v>189</v>
-      </c>
-      <c r="C42" t="s">
-        <v>226</v>
-      </c>
-      <c r="D42" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
-        <v>276</v>
-      </c>
-      <c r="B43" t="s">
-        <v>189</v>
-      </c>
-      <c r="C43" t="s">
-        <v>228</v>
-      </c>
-      <c r="D43" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
-        <v>277</v>
-      </c>
-      <c r="B44" t="s">
-        <v>189</v>
-      </c>
-      <c r="C44" t="s">
-        <v>230</v>
-      </c>
-      <c r="D44" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
-        <v>278</v>
-      </c>
-      <c r="B45" t="s">
-        <v>189</v>
-      </c>
-      <c r="C45" t="s">
-        <v>232</v>
-      </c>
-      <c r="D45" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
-        <v>279</v>
-      </c>
-      <c r="B46" t="s">
-        <v>189</v>
-      </c>
-      <c r="C46" t="s">
-        <v>234</v>
-      </c>
-      <c r="D46" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>280</v>
-      </c>
-      <c r="B47" t="s">
-        <v>189</v>
-      </c>
-      <c r="C47" t="s">
-        <v>236</v>
-      </c>
-      <c r="D47" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
-        <v>281</v>
-      </c>
-      <c r="B48" t="s">
-        <v>189</v>
-      </c>
-      <c r="C48" t="s">
-        <v>238</v>
-      </c>
-      <c r="D48" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
-        <v>282</v>
-      </c>
-      <c r="B49" t="s">
-        <v>189</v>
-      </c>
-      <c r="C49" t="s">
-        <v>240</v>
-      </c>
-      <c r="D49" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
-        <v>283</v>
-      </c>
-      <c r="B50" t="s">
-        <v>189</v>
-      </c>
-      <c r="C50" t="s">
-        <v>242</v>
-      </c>
-      <c r="D50" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
-        <v>284</v>
-      </c>
-      <c r="B51" t="s">
-        <v>189</v>
-      </c>
-      <c r="C51" t="s">
-        <v>244</v>
-      </c>
-      <c r="D51" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
-        <v>285</v>
-      </c>
-      <c r="B52" t="s">
-        <v>189</v>
-      </c>
-      <c r="C52" t="s">
-        <v>246</v>
-      </c>
-      <c r="D52" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
-        <v>286</v>
-      </c>
-      <c r="B53" t="s">
-        <v>189</v>
-      </c>
-      <c r="C53" t="s">
-        <v>248</v>
-      </c>
-      <c r="D53" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
-        <v>287</v>
-      </c>
-      <c r="B54" t="s">
-        <v>189</v>
-      </c>
-      <c r="C54" t="s">
-        <v>250</v>
-      </c>
-      <c r="D54" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
-        <v>288</v>
-      </c>
-      <c r="B55" t="s">
-        <v>189</v>
-      </c>
-      <c r="C55" t="s">
-        <v>252</v>
-      </c>
-      <c r="D55" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
-        <v>289</v>
-      </c>
-      <c r="B56" t="s">
-        <v>189</v>
-      </c>
-      <c r="C56" t="s">
-        <v>254</v>
-      </c>
-      <c r="D56" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
-        <v>290</v>
-      </c>
-      <c r="B57" t="s">
-        <v>189</v>
-      </c>
-      <c r="C57" t="s">
-        <v>256</v>
-      </c>
-      <c r="D57" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
-        <v>291</v>
-      </c>
-      <c r="B58" t="s">
-        <v>189</v>
-      </c>
-      <c r="C58" t="s">
-        <v>258</v>
-      </c>
-      <c r="D58" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
-        <v>292</v>
-      </c>
-      <c r="B59" t="s">
-        <v>189</v>
-      </c>
-      <c r="C59" t="s">
-        <v>260</v>
-      </c>
-      <c r="D59" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
-        <v>293</v>
-      </c>
-      <c r="B60" t="s">
-        <v>189</v>
-      </c>
-      <c r="C60" t="s">
-        <v>262</v>
-      </c>
-      <c r="D60" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
-        <v>294</v>
-      </c>
-      <c r="B61" t="s">
-        <v>189</v>
-      </c>
-      <c r="C61" t="s">
-        <v>264</v>
-      </c>
-      <c r="D61" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
-        <v>295</v>
-      </c>
-      <c r="B62" t="s">
-        <v>193</v>
-      </c>
-      <c r="C62" t="s">
-        <v>204</v>
-      </c>
-      <c r="D62" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
-        <v>296</v>
-      </c>
-      <c r="B63" t="s">
-        <v>193</v>
-      </c>
-      <c r="C63" t="s">
-        <v>207</v>
-      </c>
-      <c r="D63" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A64" t="s">
-        <v>297</v>
-      </c>
-      <c r="B64" t="s">
-        <v>193</v>
-      </c>
-      <c r="C64" t="s">
-        <v>210</v>
-      </c>
-      <c r="D64" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
-        <v>298</v>
-      </c>
-      <c r="B65" t="s">
-        <v>193</v>
-      </c>
-      <c r="C65" t="s">
-        <v>212</v>
-      </c>
-      <c r="D65" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A66" t="s">
-        <v>299</v>
-      </c>
-      <c r="B66" t="s">
-        <v>193</v>
-      </c>
-      <c r="C66" t="s">
-        <v>214</v>
-      </c>
-      <c r="D66" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A67" t="s">
-        <v>300</v>
-      </c>
-      <c r="B67" t="s">
-        <v>193</v>
-      </c>
-      <c r="C67" t="s">
-        <v>216</v>
-      </c>
-      <c r="D67" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A68" t="s">
-        <v>301</v>
-      </c>
-      <c r="B68" t="s">
-        <v>193</v>
-      </c>
-      <c r="C68" t="s">
-        <v>218</v>
-      </c>
-      <c r="D68" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
-        <v>302</v>
-      </c>
-      <c r="B69" t="s">
-        <v>193</v>
-      </c>
-      <c r="C69" t="s">
-        <v>220</v>
-      </c>
-      <c r="D69" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A70" t="s">
-        <v>303</v>
-      </c>
-      <c r="B70" t="s">
-        <v>193</v>
-      </c>
-      <c r="C70" t="s">
-        <v>222</v>
-      </c>
-      <c r="D70" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A71" t="s">
-        <v>304</v>
-      </c>
-      <c r="B71" t="s">
-        <v>193</v>
-      </c>
-      <c r="C71" t="s">
-        <v>224</v>
-      </c>
-      <c r="D71" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A72" t="s">
-        <v>305</v>
-      </c>
-      <c r="B72" t="s">
-        <v>193</v>
-      </c>
-      <c r="C72" t="s">
-        <v>226</v>
-      </c>
-      <c r="D72" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A73" t="s">
-        <v>306</v>
-      </c>
-      <c r="B73" t="s">
-        <v>193</v>
-      </c>
-      <c r="C73" t="s">
-        <v>228</v>
-      </c>
-      <c r="D73" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A74" t="s">
-        <v>307</v>
-      </c>
-      <c r="B74" t="s">
-        <v>193</v>
-      </c>
-      <c r="C74" t="s">
-        <v>230</v>
-      </c>
-      <c r="D74" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A75" t="s">
-        <v>308</v>
-      </c>
-      <c r="B75" t="s">
-        <v>193</v>
-      </c>
-      <c r="C75" t="s">
-        <v>232</v>
-      </c>
-      <c r="D75" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A76" t="s">
-        <v>309</v>
-      </c>
-      <c r="B76" t="s">
-        <v>193</v>
-      </c>
-      <c r="C76" t="s">
-        <v>234</v>
-      </c>
-      <c r="D76" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A77" t="s">
-        <v>310</v>
-      </c>
-      <c r="B77" t="s">
-        <v>193</v>
-      </c>
-      <c r="C77" t="s">
-        <v>236</v>
-      </c>
-      <c r="D77" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A78" t="s">
-        <v>311</v>
-      </c>
-      <c r="B78" t="s">
-        <v>193</v>
-      </c>
-      <c r="C78" t="s">
-        <v>238</v>
-      </c>
-      <c r="D78" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A79" t="s">
-        <v>312</v>
-      </c>
-      <c r="B79" t="s">
-        <v>193</v>
-      </c>
-      <c r="C79" t="s">
-        <v>240</v>
-      </c>
-      <c r="D79" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A80" t="s">
-        <v>313</v>
-      </c>
-      <c r="B80" t="s">
-        <v>193</v>
-      </c>
-      <c r="C80" t="s">
-        <v>242</v>
-      </c>
-      <c r="D80" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A81" t="s">
-        <v>314</v>
-      </c>
-      <c r="B81" t="s">
-        <v>193</v>
-      </c>
-      <c r="C81" t="s">
-        <v>244</v>
-      </c>
-      <c r="D81" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A82" t="s">
-        <v>315</v>
-      </c>
-      <c r="B82" t="s">
-        <v>193</v>
-      </c>
-      <c r="C82" t="s">
-        <v>246</v>
-      </c>
-      <c r="D82" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A83" t="s">
-        <v>316</v>
-      </c>
-      <c r="B83" t="s">
-        <v>193</v>
-      </c>
-      <c r="C83" t="s">
-        <v>248</v>
-      </c>
-      <c r="D83" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A84" t="s">
-        <v>317</v>
-      </c>
-      <c r="B84" t="s">
-        <v>193</v>
-      </c>
-      <c r="C84" t="s">
-        <v>250</v>
-      </c>
-      <c r="D84" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A85" t="s">
-        <v>318</v>
-      </c>
-      <c r="B85" t="s">
-        <v>193</v>
-      </c>
-      <c r="C85" t="s">
-        <v>252</v>
-      </c>
-      <c r="D85" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A86" t="s">
-        <v>319</v>
-      </c>
-      <c r="B86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C86" t="s">
-        <v>254</v>
-      </c>
-      <c r="D86" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A87" t="s">
-        <v>320</v>
-      </c>
-      <c r="B87" t="s">
-        <v>193</v>
-      </c>
-      <c r="C87" t="s">
-        <v>256</v>
-      </c>
-      <c r="D87" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A88" t="s">
-        <v>321</v>
-      </c>
-      <c r="B88" t="s">
-        <v>193</v>
-      </c>
-      <c r="C88" t="s">
-        <v>258</v>
-      </c>
-      <c r="D88" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A89" t="s">
-        <v>322</v>
-      </c>
-      <c r="B89" t="s">
-        <v>193</v>
-      </c>
-      <c r="C89" t="s">
-        <v>260</v>
-      </c>
-      <c r="D89" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A90" t="s">
-        <v>323</v>
-      </c>
-      <c r="B90" t="s">
-        <v>193</v>
-      </c>
-      <c r="C90" t="s">
-        <v>262</v>
-      </c>
-      <c r="D90" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A91" t="s">
-        <v>324</v>
-      </c>
-      <c r="B91" t="s">
-        <v>193</v>
-      </c>
-      <c r="C91" t="s">
-        <v>264</v>
-      </c>
-      <c r="D91" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A92" t="s">
-        <v>325</v>
-      </c>
-      <c r="B92" t="s">
-        <v>197</v>
-      </c>
-      <c r="C92" t="s">
-        <v>204</v>
-      </c>
-      <c r="D92" t="s">
-        <v>208</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>329</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>331</v>
-      </c>
-      <c r="B4" t="s">
-        <v>332</v>
-      </c>
-      <c r="C4" t="s">
-        <v>333</v>
-      </c>
-      <c r="D4" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>335</v>
-      </c>
-      <c r="B5" t="s">
-        <v>336</v>
-      </c>
-      <c r="C5" t="s">
-        <v>337</v>
-      </c>
-      <c r="D5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>339</v>
-      </c>
-      <c r="B6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C6" t="s">
-        <v>340</v>
-      </c>
-      <c r="D6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>341</v>
-      </c>
-      <c r="B7" t="s">
-        <v>342</v>
-      </c>
-      <c r="C7" t="s">
-        <v>343</v>
-      </c>
-      <c r="D7" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>345</v>
-      </c>
-      <c r="B8" t="s">
-        <v>346</v>
-      </c>
-      <c r="C8" t="s">
-        <v>347</v>
-      </c>
-      <c r="D8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>348</v>
-      </c>
-      <c r="B9" t="s">
-        <v>349</v>
-      </c>
-      <c r="C9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>351</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>352</v>
-      </c>
-      <c r="D10" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>354</v>
-      </c>
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" t="s">
-        <v>355</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>356</v>
-      </c>
-      <c r="B12" t="s">
-        <v>357</v>
-      </c>
-      <c r="C12" t="s">
-        <v>358</v>
-      </c>
-      <c r="D12" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>359</v>
-      </c>
-      <c r="B13" t="s">
-        <v>154</v>
-      </c>
-      <c r="C13" t="s">
-        <v>360</v>
-      </c>
-      <c r="D13" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>361</v>
-      </c>
-      <c r="B14" t="s">
-        <v>362</v>
-      </c>
-      <c r="C14" t="s">
-        <v>363</v>
-      </c>
-      <c r="D14" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>364</v>
-      </c>
-      <c r="B15" t="s">
-        <v>365</v>
-      </c>
-      <c r="C15" t="s">
-        <v>366</v>
-      </c>
-      <c r="D15" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4154,9 +4232,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -4165,36 +4245,36 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="C1" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="D1" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="E1" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="F1" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="D2" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="E2" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -4202,19 +4282,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="D3" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="E3" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -4222,19 +4302,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D4" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="E4" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -4242,19 +4322,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="D5" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="E5" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -4262,19 +4342,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="D6" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="E6" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -4282,19 +4362,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="E7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -4302,19 +4382,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="B8" t="s">
         <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="D8" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E8" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="F8">
         <v>6</v>
@@ -4322,19 +4402,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="B9" t="s">
         <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="D9" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="E9" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4342,19 +4422,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B10" t="s">
         <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="D10" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="E10" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -4362,19 +4442,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="B11" t="s">
         <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="D11" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="E11" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -4382,19 +4462,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="B12" t="s">
         <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="D12" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="E12" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -4402,19 +4482,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="D13" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="E13" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="F13">
         <v>4</v>
@@ -4422,19 +4502,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="B14" t="s">
         <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="D14" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="E14" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="F14">
         <v>5</v>
@@ -4442,19 +4522,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B15" t="s">
         <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="D15" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="E15" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="F15">
         <v>6</v>
@@ -4462,19 +4542,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B16" t="s">
         <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="D16" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E16" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -4482,19 +4562,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B17" t="s">
         <v>95</v>
       </c>
       <c r="C17" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="D17" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="E17" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -4502,19 +4582,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B18" t="s">
         <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="D18" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="E18" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -4522,19 +4602,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B19" t="s">
         <v>107</v>
       </c>
       <c r="C19" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="D19" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E19" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="F19">
         <v>3</v>
@@ -4542,19 +4622,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="B20" t="s">
         <v>113</v>
       </c>
       <c r="C20" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="D20" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="E20" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="F20">
         <v>4</v>
@@ -4562,19 +4642,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B21" t="s">
         <v>119</v>
       </c>
       <c r="C21" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="D21" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="E21" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="F21">
         <v>5</v>
@@ -4582,19 +4662,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="B22" t="s">
         <v>125</v>
       </c>
       <c r="C22" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="D22" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="E22" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="F22">
         <v>6</v>
@@ -4602,19 +4682,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B23" t="s">
         <v>131</v>
       </c>
       <c r="C23" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="D23" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="E23" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -4622,19 +4702,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="B24" t="s">
         <v>137</v>
       </c>
       <c r="C24" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="D24" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="E24" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -4642,19 +4722,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B25" t="s">
         <v>143</v>
       </c>
       <c r="C25" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="D25" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="E25" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="F25">
         <v>2</v>
@@ -4662,19 +4742,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B26" t="s">
         <v>148</v>
       </c>
       <c r="C26" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="D26" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="E26" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="F26">
         <v>3</v>
@@ -4682,19 +4762,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="B27" t="s">
         <v>153</v>
       </c>
       <c r="C27" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="D27" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="E27" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="F27">
         <v>4</v>
@@ -4702,19 +4782,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="B28" t="s">
         <v>159</v>
       </c>
       <c r="C28" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="D28" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="E28" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="F28">
         <v>5</v>
@@ -4722,19 +4802,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="B29" t="s">
         <v>164</v>
       </c>
       <c r="C29" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="D29" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="E29" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="F29">
         <v>6</v>
@@ -4742,19 +4822,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="B30" t="s">
         <v>168</v>
       </c>
       <c r="C30" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D30" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="E30" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -4762,19 +4842,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="B31" t="s">
         <v>172</v>
       </c>
       <c r="C31" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="D31" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="E31" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -4782,19 +4862,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="B32" t="s">
         <v>178</v>
       </c>
       <c r="C32" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="D32" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="E32" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -4802,21 +4882,41 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="B33" t="s">
         <v>178</v>
       </c>
       <c r="C33" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="D33" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="E33" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="F33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>499</v>
+      </c>
+      <c r="B34" t="s">
+        <v>184</v>
+      </c>
+      <c r="C34" t="s">
+        <v>500</v>
+      </c>
+      <c r="D34" t="s">
+        <v>501</v>
+      </c>
+      <c r="E34" t="s">
+        <v>502</v>
+      </c>
+      <c r="F34">
         <v>3</v>
       </c>
     </row>
@@ -4829,7 +4929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -4842,57 +4942,57 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="C1" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="D1" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="E1" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="F1" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="G1" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="H1" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="I1" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="J1" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="K1" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="B2" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="C2" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="D2" t="s">
         <v>178</v>
       </c>
       <c r="E2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G2" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="H2">
         <v>31</v>
@@ -4901,10 +5001,10 @@
         <v>189</v>
       </c>
       <c r="J2" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="K2" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>

--- a/DbFolder/ParkingDB.xlsx
+++ b/DbFolder/ParkingDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepositories\parkingWPF_project\DbFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE319F7-E808-49AA-8A4F-5D06C657ABC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EFB497-6415-46D6-B32E-4127660DA610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Owners" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="518">
   <si>
     <t>Id</t>
   </si>
@@ -1576,6 +1576,9 @@
   </si>
   <si>
     <t>26.01.2025 15:48:01</t>
+  </si>
+  <si>
+    <t>335ea5a2-436d-4ff6-8556-fca100072d8c</t>
   </si>
 </sst>
 </file>
@@ -1608,8 +1611,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3971,7 +3975,7 @@
         <v>207</v>
       </c>
       <c r="D92" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.45">
@@ -4234,7 +4238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
@@ -4927,13 +4931,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.265625" customWidth="1"/>
     <col min="11" max="11" width="33.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5007,6 +5013,41 @@
         <v>492</v>
       </c>
     </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C3" t="s">
+        <v>515</v>
+      </c>
+      <c r="D3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F3" t="s">
+        <v>328</v>
+      </c>
+      <c r="G3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H3">
+        <v>30</v>
+      </c>
+      <c r="I3">
+        <v>199</v>
+      </c>
+      <c r="J3" s="1">
+        <v>45714.65834490741</v>
+      </c>
+      <c r="K3" t="s">
+        <v>499</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DbFolder/ParkingDB.xlsx
+++ b/DbFolder/ParkingDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepositories\parkingWPF_project\DbFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EFB497-6415-46D6-B32E-4127660DA610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87CE041-DDCA-4572-A9CC-C464CD401ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1185" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Owners" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="518">
   <si>
     <t>Id</t>
   </si>
@@ -1611,9 +1611,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -5041,8 +5040,8 @@
       <c r="I3">
         <v>199</v>
       </c>
-      <c r="J3" s="1">
-        <v>45714.65834490741</v>
+      <c r="J3" t="s">
+        <v>516</v>
       </c>
       <c r="K3" t="s">
         <v>499</v>

--- a/DbFolder/ParkingDB.xlsx
+++ b/DbFolder/ParkingDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepositories\parkingWPF_project\DbFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87CE041-DDCA-4572-A9CC-C464CD401ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B5094A-6CA0-4E12-A8FB-BB51AAD02DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1185" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Owners" sheetId="1" r:id="rId1"/>
@@ -4933,7 +4933,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/DbFolder/ParkingDB.xlsx
+++ b/DbFolder/ParkingDB.xlsx
@@ -20,12 +20,12 @@
     <sheet name="Vehicles" sheetId="5" r:id="rId5"/>
     <sheet name="Receipts" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="1" fullPrecision="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="519">
   <si>
     <t>Id</t>
   </si>
@@ -1015,6 +1015,9 @@
   </si>
   <si>
     <t>734299ee-1cf1-4138-8112-4d49ea1d6aaf</t>
+  </si>
+  <si>
+    <t>c2c49830-68a9-4c01-bd7d-d6f7bea9cf10</t>
   </si>
   <si>
     <t>528a7b0d-42f4-48de-b4e7-991ae9838f8d</t>
@@ -1585,7 +1588,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1933,668 +1937,669 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="0" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="0" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    <row r="5">
+      <c r="A5" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+    <row r="6">
+      <c r="A6" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+    <row r="7">
+      <c r="A7" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="0" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+    <row r="8">
+      <c r="A8" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="0" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+    <row r="9">
+      <c r="A9" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="0" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+    <row r="10">
+      <c r="A10" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="0" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+    <row r="11">
+      <c r="A11" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="0" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+    <row r="12">
+      <c r="A12" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="0" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+    <row r="13">
+      <c r="A13" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="0" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+    <row r="14">
+      <c r="A14" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="0" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+    <row r="15">
+      <c r="A15" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="0" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+    <row r="16">
+      <c r="A16" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="0" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+    <row r="17">
+      <c r="A17" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="0" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+    <row r="18">
+      <c r="A18" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="0" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+    <row r="19">
+      <c r="A19" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="0" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+    <row r="20">
+      <c r="A20" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="0" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+    <row r="21">
+      <c r="A21" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="0" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
+    <row r="22">
+      <c r="A22" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="0" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
+    <row r="23">
+      <c r="A23" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="0" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
+    <row r="24">
+      <c r="A24" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="0" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
+    <row r="25">
+      <c r="A25" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="0" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
+    <row r="26">
+      <c r="A26" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="0" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
+    <row r="27">
+      <c r="A27" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="0" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
+    <row r="28">
+      <c r="A28" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="0" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
+    <row r="29">
+      <c r="A29" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="0" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
+    <row r="30">
+      <c r="A30" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="0" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+    <row r="31">
+      <c r="A31" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="0" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
+    <row r="32">
+      <c r="A32" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="0" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
+    <row r="33">
+      <c r="A33" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="0" t="s">
         <v>186</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -2606,1393 +2611,1409 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    <row r="5">
+      <c r="A5" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>203</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D93"/>
+  <dimension ref="A1:D94"/>
   <sheetViews>
     <sheetView topLeftCell="A78" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="D3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="D3" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="D4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="D4" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="D5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+      <c r="D5" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="D6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="D6" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="D7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="D7" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="D8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+      <c r="D8" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="D9" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+      <c r="D9" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="D10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+      <c r="D10" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="D11" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+      <c r="D11" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="D12" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+      <c r="D12" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="D13" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+      <c r="D13" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="D14" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+      <c r="D14" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="D15" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+      <c r="D15" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="D16" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+      <c r="D16" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="D17" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+      <c r="D17" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="D18" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+      <c r="D18" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="D19" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+      <c r="D19" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="D20" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+      <c r="D20" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="D21" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
+      <c r="D21" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="D22" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
+      <c r="D22" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="D23" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
+      <c r="D23" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="D24" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
+      <c r="D24" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="D25" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
+      <c r="D25" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="D26" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
+      <c r="D26" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="D27" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
+      <c r="D27" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="D28" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
+      <c r="D28" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="D29" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
+      <c r="D29" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="D30" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+      <c r="D30" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="D31" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
+      <c r="D31" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="D32" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
+      <c r="D32" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="D33" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
+      <c r="D33" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="D34" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
+      <c r="D34" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="D35" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
+      <c r="D35" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="D36" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
+      <c r="D36" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="D37" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
+      <c r="D37" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="D38" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
+      <c r="D38" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="D39" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
+      <c r="D39" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="D40" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
+      <c r="D40" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="D41" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
+      <c r="D41" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="D42" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
+      <c r="D42" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="D43" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
+      <c r="D43" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="D44" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
+      <c r="D44" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="D45" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
+      <c r="D45" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="D46" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
+      <c r="D46" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="D47" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
+      <c r="D47" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="D48" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
+      <c r="D48" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="D49" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
+      <c r="D49" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="D50" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
+      <c r="D50" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="D51" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
+      <c r="D51" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="D52" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
+      <c r="D52" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="D53" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
+      <c r="D53" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="D54" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
+      <c r="D54" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="D55" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
+      <c r="D55" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="D56" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
+      <c r="D56" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="D57" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
+      <c r="D57" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="D58" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
+      <c r="D58" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="D59" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
+      <c r="D59" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="D60" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
+      <c r="D60" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="D61" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
+      <c r="D61" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="D62" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
+      <c r="D62" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="D63" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A64" t="s">
+      <c r="D63" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="D64" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
+      <c r="D64" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="D65" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A66" t="s">
+      <c r="D65" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="D66" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A67" t="s">
+      <c r="D66" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="D67" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A68" t="s">
+      <c r="D67" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="D68" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
+      <c r="D68" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="D69" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A70" t="s">
+      <c r="D69" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="D70" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A71" t="s">
+      <c r="D70" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="D71" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A72" t="s">
+      <c r="D71" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="D72" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A73" t="s">
+      <c r="D72" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="D73" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A74" t="s">
+      <c r="D73" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="D74" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A75" t="s">
+      <c r="D74" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="D75" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A76" t="s">
+      <c r="D75" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="s">
         <v>312</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="D76" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A77" t="s">
+      <c r="D76" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="D77" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A78" t="s">
+      <c r="D77" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="D78" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A79" t="s">
+      <c r="D78" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="D79" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A80" t="s">
+      <c r="D79" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="D80" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A81" t="s">
+      <c r="D80" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="D81" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A82" t="s">
+      <c r="D81" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="D82" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A83" t="s">
+      <c r="D82" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="D83" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A84" t="s">
+      <c r="D83" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="D84" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A85" t="s">
+      <c r="D84" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="s">
         <v>321</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="D85" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A86" t="s">
+      <c r="D85" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="D86" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A87" t="s">
+      <c r="D86" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="s">
         <v>323</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="D87" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A88" t="s">
+      <c r="D87" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="D88" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A89" t="s">
+      <c r="D88" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="D89" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A90" t="s">
+      <c r="D89" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="D90" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A91" t="s">
+      <c r="D90" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="D91" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A92" t="s">
+      <c r="D91" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="0" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A93" t="s">
+    <row r="93">
+      <c r="A93" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="D94" s="0" t="s">
         <v>211</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -4004,232 +4025,233 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>330</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="C2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="0" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="D2" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>334</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>335</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" s="0" t="s">
         <v>337</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" s="0" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="D4" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
         <v>340</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" s="0" t="s">
         <v>341</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" s="0" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+      <c r="D5" s="0" t="s">
         <v>343</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="C6" t="s">
-        <v>344</v>
-      </c>
-      <c r="D6" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="C6" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D6" s="0" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
         <v>346</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B7" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C7" s="0" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="D7" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B8" s="0" t="s">
         <v>351</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C8" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>352</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="9">
+      <c r="A9" s="0" t="s">
         <v>353</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B9" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+      <c r="D9" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
-        <v>356</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10" s="0" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+      <c r="D10" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="C11" t="s">
-        <v>359</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>360</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C12" t="s">
-        <v>361</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>362</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="C13" t="s">
-        <v>363</v>
-      </c>
-      <c r="D13" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+      <c r="C13" s="0" t="s">
         <v>364</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D13" s="0" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B14" s="0" t="s">
         <v>366</v>
       </c>
-      <c r="D14" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+      <c r="C14" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D14" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
         <v>368</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B15" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C15" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>370</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="16">
+      <c r="A16" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B16" s="0" t="s">
         <v>372</v>
       </c>
-      <c r="D16" t="s">
+      <c r="C16" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>140</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -4243,688 +4265,689 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="0" t="s">
         <v>374</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="0" t="s">
         <v>375</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" s="0" t="s">
         <v>376</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="0" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="F1" s="0" t="s">
         <v>378</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>379</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="0" t="s">
         <v>380</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="F2">
+      <c r="E2" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="F2" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>382</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>383</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="0" t="s">
         <v>384</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="F3">
+      <c r="E3" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="F3" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>386</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
-        <v>387</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="0" t="s">
         <v>388</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4" s="0" t="s">
         <v>389</v>
       </c>
-      <c r="F4">
+      <c r="E4" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="F4" s="0">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>390</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>391</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="0" t="s">
         <v>392</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D5" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="F5">
+      <c r="E5" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="F5" s="0">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
-        <v>395</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" s="0" t="s">
         <v>396</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D6" s="0" t="s">
         <v>397</v>
       </c>
-      <c r="F6">
+      <c r="E6" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="F6" s="0">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>398</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C7" t="s">
-        <v>399</v>
-      </c>
-      <c r="D7" t="s">
-        <v>392</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="C7" s="0" t="s">
         <v>400</v>
       </c>
-      <c r="F7">
+      <c r="D7" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="F7" s="0">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>401</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C8" t="s">
-        <v>402</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" s="0" t="s">
         <v>403</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D8" s="0" t="s">
         <v>404</v>
       </c>
-      <c r="F8">
+      <c r="E8" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="F8" s="0">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>405</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C9" t="s">
-        <v>406</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" s="0" t="s">
         <v>407</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D9" s="0" t="s">
         <v>408</v>
       </c>
-      <c r="F9">
+      <c r="E9" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="F9" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>409</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="C10" t="s">
-        <v>410</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10" s="0" t="s">
         <v>411</v>
       </c>
-      <c r="E10" t="s">
+      <c r="D10" s="0" t="s">
         <v>412</v>
       </c>
-      <c r="F10">
+      <c r="E10" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="F10" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>413</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="C11" t="s">
-        <v>414</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" s="0" t="s">
         <v>415</v>
       </c>
-      <c r="E11" t="s">
+      <c r="D11" s="0" t="s">
         <v>416</v>
       </c>
-      <c r="F11">
+      <c r="E11" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="F11" s="0">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>417</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C12" t="s">
-        <v>418</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" s="0" t="s">
         <v>419</v>
       </c>
-      <c r="E12" t="s">
+      <c r="D12" s="0" t="s">
         <v>420</v>
       </c>
-      <c r="F12">
+      <c r="E12" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="F12" s="0">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>421</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="C13" t="s">
-        <v>422</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C13" s="0" t="s">
         <v>423</v>
       </c>
-      <c r="E13" t="s">
+      <c r="D13" s="0" t="s">
         <v>424</v>
       </c>
-      <c r="F13">
+      <c r="E13" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="F13" s="0">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>425</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="C14" t="s">
-        <v>426</v>
-      </c>
-      <c r="D14" t="s">
-        <v>419</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="C14" s="0" t="s">
         <v>427</v>
       </c>
-      <c r="F14">
+      <c r="D14" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="F14" s="0">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>428</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C15" t="s">
-        <v>429</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C15" s="0" t="s">
         <v>430</v>
       </c>
-      <c r="E15" t="s">
+      <c r="D15" s="0" t="s">
         <v>431</v>
       </c>
-      <c r="F15">
+      <c r="E15" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="F15" s="0">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>432</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="B16" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="C16" t="s">
-        <v>433</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C16" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="E16" t="s">
+      <c r="D16" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="F16">
+      <c r="E16" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="F16" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>436</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="B17" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="C17" t="s">
-        <v>437</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C17" s="0" t="s">
         <v>438</v>
       </c>
-      <c r="E17" t="s">
+      <c r="D17" s="0" t="s">
         <v>439</v>
       </c>
-      <c r="F17">
+      <c r="E17" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="F17" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>440</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="B18" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="C18" t="s">
-        <v>441</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C18" s="0" t="s">
         <v>442</v>
       </c>
-      <c r="E18" t="s">
+      <c r="D18" s="0" t="s">
         <v>443</v>
       </c>
-      <c r="F18">
+      <c r="E18" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="F18" s="0">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>444</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="B19" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="C19" t="s">
-        <v>445</v>
-      </c>
-      <c r="D19" t="s">
-        <v>403</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="C19" s="0" t="s">
         <v>446</v>
       </c>
-      <c r="F19">
+      <c r="D19" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="F19" s="0">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>447</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="B20" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="C20" t="s">
-        <v>448</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C20" s="0" t="s">
         <v>449</v>
       </c>
-      <c r="E20" t="s">
+      <c r="D20" s="0" t="s">
         <v>450</v>
       </c>
-      <c r="F20">
+      <c r="E20" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="F20" s="0">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>451</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B21" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="C21" t="s">
-        <v>452</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C21" s="0" t="s">
         <v>453</v>
       </c>
-      <c r="E21" t="s">
+      <c r="D21" s="0" t="s">
         <v>454</v>
       </c>
-      <c r="F21">
+      <c r="E21" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="F21" s="0">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>455</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="B22" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="C22" t="s">
-        <v>456</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C22" s="0" t="s">
         <v>457</v>
       </c>
-      <c r="E22" t="s">
+      <c r="D22" s="0" t="s">
         <v>458</v>
       </c>
-      <c r="F22">
+      <c r="E22" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="F22" s="0">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>459</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="B23" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="C23" t="s">
-        <v>460</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C23" s="0" t="s">
         <v>461</v>
       </c>
-      <c r="E23" t="s">
+      <c r="D23" s="0" t="s">
         <v>462</v>
       </c>
-      <c r="F23">
+      <c r="E23" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="F23" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>463</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="B24" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="C24" t="s">
-        <v>464</v>
-      </c>
-      <c r="D24" t="s">
-        <v>411</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="C24" s="0" t="s">
         <v>465</v>
       </c>
-      <c r="F24">
+      <c r="D24" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="F24" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>466</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="B25" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="C25" t="s">
-        <v>467</v>
-      </c>
-      <c r="D25" t="s">
-        <v>415</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="C25" s="0" t="s">
         <v>468</v>
       </c>
-      <c r="F25">
+      <c r="D25" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="F25" s="0">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>469</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="B26" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="C26" t="s">
-        <v>470</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C26" s="0" t="s">
         <v>471</v>
       </c>
-      <c r="E26" t="s">
+      <c r="D26" s="0" t="s">
         <v>472</v>
       </c>
-      <c r="F26">
+      <c r="E26" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="F26" s="0">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>473</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="B27" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="C27" t="s">
-        <v>474</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C27" s="0" t="s">
         <v>475</v>
       </c>
-      <c r="E27" t="s">
+      <c r="D27" s="0" t="s">
         <v>476</v>
       </c>
-      <c r="F27">
+      <c r="E27" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="F27" s="0">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>477</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="B28" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="C28" t="s">
-        <v>478</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C28" s="0" t="s">
         <v>479</v>
       </c>
-      <c r="E28" t="s">
+      <c r="D28" s="0" t="s">
         <v>480</v>
       </c>
-      <c r="F28">
+      <c r="E28" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="F28" s="0">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>481</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="B29" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="C29" t="s">
-        <v>482</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C29" s="0" t="s">
         <v>483</v>
       </c>
-      <c r="E29" t="s">
+      <c r="D29" s="0" t="s">
         <v>484</v>
       </c>
-      <c r="F29">
+      <c r="E29" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="F29" s="0">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>485</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="B30" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="C30" t="s">
-        <v>486</v>
-      </c>
-      <c r="D30" t="s">
-        <v>396</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="C30" s="0" t="s">
         <v>487</v>
       </c>
-      <c r="F30">
+      <c r="D30" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="F30" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>488</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="B31" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="C31" t="s">
-        <v>489</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C31" s="0" t="s">
         <v>490</v>
       </c>
-      <c r="E31" t="s">
+      <c r="D31" s="0" t="s">
         <v>491</v>
       </c>
-      <c r="F31">
+      <c r="E31" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="F31" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>492</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="B32" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="C32" t="s">
-        <v>493</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="C32" s="0" t="s">
         <v>494</v>
       </c>
-      <c r="E32" t="s">
+      <c r="D32" s="0" t="s">
         <v>495</v>
       </c>
-      <c r="F32">
+      <c r="E32" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="F32" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>496</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="B33" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="C33" t="s">
-        <v>497</v>
-      </c>
-      <c r="D33" t="s">
-        <v>494</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="C33" s="0" t="s">
         <v>498</v>
       </c>
-      <c r="F33">
+      <c r="D33" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="F33" s="0">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>499</v>
-      </c>
-      <c r="B34" t="s">
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="B34" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C34" t="s">
-        <v>500</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="C34" s="0" t="s">
         <v>501</v>
       </c>
-      <c r="E34" t="s">
+      <c r="D34" s="0" t="s">
         <v>502</v>
       </c>
-      <c r="F34">
-        <v>3</v>
+      <c r="E34" s="0" t="s">
+        <v>503</v>
+      </c>
+      <c r="F34" s="0">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -4939,115 +4962,116 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="10" max="10" width="23.265625" customWidth="1"/>
-    <col min="11" max="11" width="33.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" bestFit="1" width="33.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>503</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="0" t="s">
         <v>504</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="0" t="s">
         <v>505</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" s="0" t="s">
         <v>506</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="0" t="s">
         <v>507</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" s="0" t="s">
         <v>508</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" s="0" t="s">
         <v>509</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H1" s="0" t="s">
         <v>510</v>
       </c>
-      <c r="J1" t="s">
+      <c r="I1" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="K1" t="s">
+      <c r="J1" s="0" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="K1" s="0" t="s">
         <v>513</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>514</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="0" t="s">
         <v>515</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="G2" t="s">
-        <v>360</v>
-      </c>
-      <c r="H2">
+      <c r="G2" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="H2" s="0">
         <v>31</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="0">
         <v>189</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>516</v>
       </c>
-      <c r="K2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="D3" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="H3" s="0">
+        <v>30</v>
+      </c>
+      <c r="I3" s="0">
+        <v>199</v>
+      </c>
+      <c r="J3" s="0" t="s">
         <v>517</v>
       </c>
-      <c r="B3" t="s">
-        <v>514</v>
-      </c>
-      <c r="C3" t="s">
-        <v>515</v>
-      </c>
-      <c r="D3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E3" t="s">
-        <v>200</v>
-      </c>
-      <c r="F3" t="s">
-        <v>328</v>
-      </c>
-      <c r="G3" t="s">
-        <v>360</v>
-      </c>
-      <c r="H3">
-        <v>30</v>
-      </c>
-      <c r="I3">
-        <v>199</v>
-      </c>
-      <c r="J3" t="s">
-        <v>516</v>
-      </c>
-      <c r="K3" t="s">
-        <v>499</v>
+      <c r="K3" s="0" t="s">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/DbFolder/ParkingDB.xlsx
+++ b/DbFolder/ParkingDB.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="521">
   <si>
     <t>Id</t>
   </si>
@@ -1582,6 +1582,12 @@
   </si>
   <si>
     <t>335ea5a2-436d-4ff6-8556-fca100072d8c</t>
+  </si>
+  <si>
+    <t>eb33ae18-ac75-4f14-98b9-3ba6accf121d</t>
+  </si>
+  <si>
+    <t>27.01.2025 21:43:37</t>
   </si>
 </sst>
 </file>
@@ -3140,7 +3146,7 @@
         <v>207</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33">
@@ -4953,7 +4959,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
@@ -5070,6 +5076,41 @@
         <v>500</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="H4" s="0">
+        <v>31</v>
+      </c>
+      <c r="I4" s="0">
+        <v>213</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>486</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/DbFolder/ParkingDB.xlsx
+++ b/DbFolder/ParkingDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepositories\parkingWPF_project\DbFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B5094A-6CA0-4E12-A8FB-BB51AAD02DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A149233E-48ED-4F48-A838-5FEDBA51EDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1185" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Owners" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <sheet name="Vehicles" sheetId="5" r:id="rId5"/>
     <sheet name="Receipts" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1" fullPrecision="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="522">
   <si>
     <t>Id</t>
   </si>
@@ -583,6 +583,9 @@
   </si>
   <si>
     <t>Анжелика</t>
+  </si>
+  <si>
+    <t>г. Магнитогорск, ул. Карла Маркса, 162/2</t>
   </si>
   <si>
     <t>79514597925</t>
@@ -1594,8 +1597,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1943,669 +1945,668 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>80</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" t="s">
         <v>93</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>98</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" t="s">
         <v>99</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
         <v>101</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>103</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>104</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" t="s">
         <v>105</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>110</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
         <v>113</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>114</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>115</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>116</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="F20" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>120</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>121</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>122</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" t="s">
         <v>123</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
         <v>125</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>126</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>127</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" t="s">
         <v>128</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" t="s">
         <v>129</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F22" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
         <v>131</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>132</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>133</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" t="s">
         <v>134</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
         <v>137</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>138</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>139</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>140</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" t="s">
         <v>141</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F24" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
         <v>143</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>144</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>145</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" t="s">
         <v>146</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="F25" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
         <v>148</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>149</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>150</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" t="s">
         <v>151</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="F26" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
         <v>153</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>154</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>155</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>156</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" t="s">
         <v>157</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="F27" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
         <v>159</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>154</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>160</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" t="s">
         <v>161</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" t="s">
         <v>162</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="F28" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
         <v>164</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>165</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" t="s">
         <v>104</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" t="s">
         <v>166</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="F29" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
         <v>168</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>169</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E30" t="s">
         <v>170</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="F30" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
         <v>172</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>173</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" t="s">
         <v>174</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" t="s">
         <v>175</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E31" t="s">
         <v>176</v>
       </c>
-      <c r="F31" s="0" t="s">
+      <c r="F31" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
         <v>178</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>179</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" t="s">
         <v>180</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" t="s">
         <v>181</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="E32" t="s">
         <v>182</v>
       </c>
-      <c r="F32" s="0" t="s">
+      <c r="F32" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
         <v>184</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>185</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" t="s">
         <v>180</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" t="s">
         <v>122</v>
       </c>
-      <c r="E33" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="F33" s="0" t="s">
+      <c r="E33" t="s">
         <v>186</v>
+      </c>
+      <c r="F33" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -2613,83 +2614,89 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="A6:D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="20.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+      <c r="D1" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="0" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="B2" t="s">
         <v>190</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="C2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+      <c r="D2" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="0" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="B3" t="s">
         <v>194</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="C3" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+      <c r="D3" t="s">
         <v>196</v>
       </c>
-      <c r="B4" s="0" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="B4" t="s">
         <v>198</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="C4" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+      <c r="D4" t="s">
         <v>200</v>
       </c>
-      <c r="B5" s="0" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>201</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="B5" t="s">
         <v>202</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="C5" t="s">
         <v>203</v>
+      </c>
+      <c r="D5" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -2701,1325 +2708,1324 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="B1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+      <c r="D1" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" s="0" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>207</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="B2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+      <c r="D2" t="s">
         <v>209</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="0" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>210</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="B3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="D3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>213</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="B4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>227</v>
+      </c>
+      <c r="B11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" t="s">
+        <v>228</v>
+      </c>
+      <c r="D11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" t="s">
+        <v>230</v>
+      </c>
+      <c r="D12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>231</v>
+      </c>
+      <c r="B13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>233</v>
+      </c>
+      <c r="B14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C14" t="s">
+        <v>234</v>
+      </c>
+      <c r="D14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>235</v>
+      </c>
+      <c r="B15" t="s">
+        <v>189</v>
+      </c>
+      <c r="C15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>237</v>
+      </c>
+      <c r="B16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C16" t="s">
+        <v>238</v>
+      </c>
+      <c r="D16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>239</v>
+      </c>
+      <c r="B17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>241</v>
+      </c>
+      <c r="B18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C18" t="s">
+        <v>242</v>
+      </c>
+      <c r="D18" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>243</v>
+      </c>
+      <c r="B19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C19" t="s">
+        <v>244</v>
+      </c>
+      <c r="D19" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>245</v>
+      </c>
+      <c r="B20" t="s">
+        <v>189</v>
+      </c>
+      <c r="C20" t="s">
+        <v>246</v>
+      </c>
+      <c r="D20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>247</v>
+      </c>
+      <c r="B21" t="s">
+        <v>189</v>
+      </c>
+      <c r="C21" t="s">
+        <v>248</v>
+      </c>
+      <c r="D21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>249</v>
+      </c>
+      <c r="B22" t="s">
+        <v>189</v>
+      </c>
+      <c r="C22" t="s">
+        <v>250</v>
+      </c>
+      <c r="D22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>251</v>
+      </c>
+      <c r="B23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C23" t="s">
+        <v>252</v>
+      </c>
+      <c r="D23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>253</v>
+      </c>
+      <c r="B24" t="s">
+        <v>189</v>
+      </c>
+      <c r="C24" t="s">
+        <v>254</v>
+      </c>
+      <c r="D24" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>255</v>
+      </c>
+      <c r="B25" t="s">
+        <v>189</v>
+      </c>
+      <c r="C25" t="s">
+        <v>256</v>
+      </c>
+      <c r="D25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>257</v>
+      </c>
+      <c r="B26" t="s">
+        <v>189</v>
+      </c>
+      <c r="C26" t="s">
+        <v>258</v>
+      </c>
+      <c r="D26" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>259</v>
+      </c>
+      <c r="B27" t="s">
+        <v>189</v>
+      </c>
+      <c r="C27" t="s">
+        <v>260</v>
+      </c>
+      <c r="D27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>261</v>
+      </c>
+      <c r="B28" t="s">
+        <v>189</v>
+      </c>
+      <c r="C28" t="s">
+        <v>262</v>
+      </c>
+      <c r="D28" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>263</v>
+      </c>
+      <c r="B29" t="s">
+        <v>189</v>
+      </c>
+      <c r="C29" t="s">
+        <v>264</v>
+      </c>
+      <c r="D29" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>265</v>
+      </c>
+      <c r="B30" t="s">
+        <v>189</v>
+      </c>
+      <c r="C30" t="s">
+        <v>266</v>
+      </c>
+      <c r="D30" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>267</v>
+      </c>
+      <c r="B31" t="s">
+        <v>189</v>
+      </c>
+      <c r="C31" t="s">
+        <v>268</v>
+      </c>
+      <c r="D31" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>269</v>
+      </c>
+      <c r="B32" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" t="s">
+        <v>208</v>
+      </c>
+      <c r="D32" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>270</v>
+      </c>
+      <c r="B33" t="s">
+        <v>193</v>
+      </c>
+      <c r="C33" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+      <c r="D33" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>271</v>
+      </c>
+      <c r="B34" t="s">
+        <v>193</v>
+      </c>
+      <c r="C34" t="s">
         <v>214</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="D5" s="0" t="s">
+      <c r="D34" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>272</v>
+      </c>
+      <c r="B35" t="s">
+        <v>193</v>
+      </c>
+      <c r="C35" t="s">
+        <v>216</v>
+      </c>
+      <c r="D35" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>273</v>
+      </c>
+      <c r="B36" t="s">
+        <v>193</v>
+      </c>
+      <c r="C36" t="s">
+        <v>218</v>
+      </c>
+      <c r="D36" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>274</v>
+      </c>
+      <c r="B37" t="s">
+        <v>193</v>
+      </c>
+      <c r="C37" t="s">
+        <v>220</v>
+      </c>
+      <c r="D37" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>275</v>
+      </c>
+      <c r="B38" t="s">
+        <v>193</v>
+      </c>
+      <c r="C38" t="s">
+        <v>222</v>
+      </c>
+      <c r="D38" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>276</v>
+      </c>
+      <c r="B39" t="s">
+        <v>193</v>
+      </c>
+      <c r="C39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D39" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>277</v>
+      </c>
+      <c r="B40" t="s">
+        <v>193</v>
+      </c>
+      <c r="C40" t="s">
+        <v>226</v>
+      </c>
+      <c r="D40" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>278</v>
+      </c>
+      <c r="B41" t="s">
+        <v>193</v>
+      </c>
+      <c r="C41" t="s">
+        <v>228</v>
+      </c>
+      <c r="D41" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>279</v>
+      </c>
+      <c r="B42" t="s">
+        <v>193</v>
+      </c>
+      <c r="C42" t="s">
+        <v>230</v>
+      </c>
+      <c r="D42" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>280</v>
+      </c>
+      <c r="B43" t="s">
+        <v>193</v>
+      </c>
+      <c r="C43" t="s">
+        <v>232</v>
+      </c>
+      <c r="D43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>281</v>
+      </c>
+      <c r="B44" t="s">
+        <v>193</v>
+      </c>
+      <c r="C44" t="s">
+        <v>234</v>
+      </c>
+      <c r="D44" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>282</v>
+      </c>
+      <c r="B45" t="s">
+        <v>193</v>
+      </c>
+      <c r="C45" t="s">
+        <v>236</v>
+      </c>
+      <c r="D45" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>283</v>
+      </c>
+      <c r="B46" t="s">
+        <v>193</v>
+      </c>
+      <c r="C46" t="s">
+        <v>238</v>
+      </c>
+      <c r="D46" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>284</v>
+      </c>
+      <c r="B47" t="s">
+        <v>193</v>
+      </c>
+      <c r="C47" t="s">
+        <v>240</v>
+      </c>
+      <c r="D47" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>285</v>
+      </c>
+      <c r="B48" t="s">
+        <v>193</v>
+      </c>
+      <c r="C48" t="s">
+        <v>242</v>
+      </c>
+      <c r="D48" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>286</v>
+      </c>
+      <c r="B49" t="s">
+        <v>193</v>
+      </c>
+      <c r="C49" t="s">
+        <v>244</v>
+      </c>
+      <c r="D49" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>287</v>
+      </c>
+      <c r="B50" t="s">
+        <v>193</v>
+      </c>
+      <c r="C50" t="s">
+        <v>246</v>
+      </c>
+      <c r="D50" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>288</v>
+      </c>
+      <c r="B51" t="s">
+        <v>193</v>
+      </c>
+      <c r="C51" t="s">
+        <v>248</v>
+      </c>
+      <c r="D51" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>289</v>
+      </c>
+      <c r="B52" t="s">
+        <v>193</v>
+      </c>
+      <c r="C52" t="s">
+        <v>250</v>
+      </c>
+      <c r="D52" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>290</v>
+      </c>
+      <c r="B53" t="s">
+        <v>193</v>
+      </c>
+      <c r="C53" t="s">
+        <v>252</v>
+      </c>
+      <c r="D53" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>291</v>
+      </c>
+      <c r="B54" t="s">
+        <v>193</v>
+      </c>
+      <c r="C54" t="s">
+        <v>254</v>
+      </c>
+      <c r="D54" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>292</v>
+      </c>
+      <c r="B55" t="s">
+        <v>193</v>
+      </c>
+      <c r="C55" t="s">
+        <v>256</v>
+      </c>
+      <c r="D55" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>293</v>
+      </c>
+      <c r="B56" t="s">
+        <v>193</v>
+      </c>
+      <c r="C56" t="s">
+        <v>258</v>
+      </c>
+      <c r="D56" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>294</v>
+      </c>
+      <c r="B57" t="s">
+        <v>193</v>
+      </c>
+      <c r="C57" t="s">
+        <v>260</v>
+      </c>
+      <c r="D57" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>295</v>
+      </c>
+      <c r="B58" t="s">
+        <v>193</v>
+      </c>
+      <c r="C58" t="s">
+        <v>262</v>
+      </c>
+      <c r="D58" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>296</v>
+      </c>
+      <c r="B59" t="s">
+        <v>193</v>
+      </c>
+      <c r="C59" t="s">
+        <v>264</v>
+      </c>
+      <c r="D59" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>297</v>
+      </c>
+      <c r="B60" t="s">
+        <v>193</v>
+      </c>
+      <c r="C60" t="s">
+        <v>266</v>
+      </c>
+      <c r="D60" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>298</v>
+      </c>
+      <c r="B61" t="s">
+        <v>193</v>
+      </c>
+      <c r="C61" t="s">
+        <v>268</v>
+      </c>
+      <c r="D61" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>299</v>
+      </c>
+      <c r="B62" t="s">
+        <v>197</v>
+      </c>
+      <c r="C62" t="s">
+        <v>208</v>
+      </c>
+      <c r="D62" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>300</v>
+      </c>
+      <c r="B63" t="s">
+        <v>197</v>
+      </c>
+      <c r="C63" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
+      <c r="D63" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>301</v>
+      </c>
+      <c r="B64" t="s">
+        <v>197</v>
+      </c>
+      <c r="C64" t="s">
+        <v>214</v>
+      </c>
+      <c r="D64" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>302</v>
+      </c>
+      <c r="B65" t="s">
+        <v>197</v>
+      </c>
+      <c r="C65" t="s">
         <v>216</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="D6" s="0" t="s">
+      <c r="D65" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>303</v>
+      </c>
+      <c r="B66" t="s">
+        <v>197</v>
+      </c>
+      <c r="C66" t="s">
+        <v>218</v>
+      </c>
+      <c r="D66" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>304</v>
+      </c>
+      <c r="B67" t="s">
+        <v>197</v>
+      </c>
+      <c r="C67" t="s">
+        <v>220</v>
+      </c>
+      <c r="D67" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>305</v>
+      </c>
+      <c r="B68" t="s">
+        <v>197</v>
+      </c>
+      <c r="C68" t="s">
+        <v>222</v>
+      </c>
+      <c r="D68" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>306</v>
+      </c>
+      <c r="B69" t="s">
+        <v>197</v>
+      </c>
+      <c r="C69" t="s">
+        <v>224</v>
+      </c>
+      <c r="D69" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>307</v>
+      </c>
+      <c r="B70" t="s">
+        <v>197</v>
+      </c>
+      <c r="C70" t="s">
+        <v>226</v>
+      </c>
+      <c r="D70" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>308</v>
+      </c>
+      <c r="B71" t="s">
+        <v>197</v>
+      </c>
+      <c r="C71" t="s">
+        <v>228</v>
+      </c>
+      <c r="D71" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>309</v>
+      </c>
+      <c r="B72" t="s">
+        <v>197</v>
+      </c>
+      <c r="C72" t="s">
+        <v>230</v>
+      </c>
+      <c r="D72" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>310</v>
+      </c>
+      <c r="B73" t="s">
+        <v>197</v>
+      </c>
+      <c r="C73" t="s">
+        <v>232</v>
+      </c>
+      <c r="D73" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>311</v>
+      </c>
+      <c r="B74" t="s">
+        <v>197</v>
+      </c>
+      <c r="C74" t="s">
+        <v>234</v>
+      </c>
+      <c r="D74" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>312</v>
+      </c>
+      <c r="B75" t="s">
+        <v>197</v>
+      </c>
+      <c r="C75" t="s">
+        <v>236</v>
+      </c>
+      <c r="D75" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>313</v>
+      </c>
+      <c r="B76" t="s">
+        <v>197</v>
+      </c>
+      <c r="C76" t="s">
+        <v>238</v>
+      </c>
+      <c r="D76" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>314</v>
+      </c>
+      <c r="B77" t="s">
+        <v>197</v>
+      </c>
+      <c r="C77" t="s">
+        <v>240</v>
+      </c>
+      <c r="D77" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>315</v>
+      </c>
+      <c r="B78" t="s">
+        <v>197</v>
+      </c>
+      <c r="C78" t="s">
+        <v>242</v>
+      </c>
+      <c r="D78" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>316</v>
+      </c>
+      <c r="B79" t="s">
+        <v>197</v>
+      </c>
+      <c r="C79" t="s">
+        <v>244</v>
+      </c>
+      <c r="D79" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>317</v>
+      </c>
+      <c r="B80" t="s">
+        <v>197</v>
+      </c>
+      <c r="C80" t="s">
+        <v>246</v>
+      </c>
+      <c r="D80" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>318</v>
+      </c>
+      <c r="B81" t="s">
+        <v>197</v>
+      </c>
+      <c r="C81" t="s">
+        <v>248</v>
+      </c>
+      <c r="D81" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>319</v>
+      </c>
+      <c r="B82" t="s">
+        <v>197</v>
+      </c>
+      <c r="C82" t="s">
+        <v>250</v>
+      </c>
+      <c r="D82" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>320</v>
+      </c>
+      <c r="B83" t="s">
+        <v>197</v>
+      </c>
+      <c r="C83" t="s">
+        <v>252</v>
+      </c>
+      <c r="D83" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>321</v>
+      </c>
+      <c r="B84" t="s">
+        <v>197</v>
+      </c>
+      <c r="C84" t="s">
+        <v>254</v>
+      </c>
+      <c r="D84" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>322</v>
+      </c>
+      <c r="B85" t="s">
+        <v>197</v>
+      </c>
+      <c r="C85" t="s">
+        <v>256</v>
+      </c>
+      <c r="D85" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>323</v>
+      </c>
+      <c r="B86" t="s">
+        <v>197</v>
+      </c>
+      <c r="C86" t="s">
+        <v>258</v>
+      </c>
+      <c r="D86" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>324</v>
+      </c>
+      <c r="B87" t="s">
+        <v>197</v>
+      </c>
+      <c r="C87" t="s">
+        <v>260</v>
+      </c>
+      <c r="D87" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>325</v>
+      </c>
+      <c r="B88" t="s">
+        <v>197</v>
+      </c>
+      <c r="C88" t="s">
+        <v>262</v>
+      </c>
+      <c r="D88" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>326</v>
+      </c>
+      <c r="B89" t="s">
+        <v>197</v>
+      </c>
+      <c r="C89" t="s">
+        <v>264</v>
+      </c>
+      <c r="D89" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>327</v>
+      </c>
+      <c r="B90" t="s">
+        <v>197</v>
+      </c>
+      <c r="C90" t="s">
+        <v>266</v>
+      </c>
+      <c r="D90" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>328</v>
+      </c>
+      <c r="B91" t="s">
+        <v>197</v>
+      </c>
+      <c r="C91" t="s">
+        <v>268</v>
+      </c>
+      <c r="D91" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>329</v>
+      </c>
+      <c r="B92" t="s">
+        <v>201</v>
+      </c>
+      <c r="C92" t="s">
+        <v>208</v>
+      </c>
+      <c r="D92" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>330</v>
+      </c>
+      <c r="B93" t="s">
+        <v>201</v>
+      </c>
+      <c r="C93" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="D53" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="B63" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="D64" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="D65" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="0" t="s">
-        <v>302</v>
-      </c>
-      <c r="B66" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="D66" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B67" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="D67" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="B68" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="C68" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="D68" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="B69" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="C69" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="D69" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="C70" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="D70" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="D71" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="C72" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="D72" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="D73" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="B74" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="D74" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="B75" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="D75" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="B76" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="C76" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="D76" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="0" t="s">
-        <v>313</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="D77" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="B78" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="C78" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="D78" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="B79" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="C79" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="D79" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="B80" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="C80" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="D80" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="0" t="s">
-        <v>317</v>
-      </c>
-      <c r="B81" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="C81" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="D81" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="B82" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="C82" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="D82" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="B83" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="C83" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="D83" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="B84" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="C84" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="D84" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="B85" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="C85" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="D85" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="B86" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="C86" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="D86" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="B87" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="C87" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="D87" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="B88" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="C88" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="D88" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="B89" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="C89" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="D89" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="B90" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="C90" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="D90" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="B91" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="C91" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="D91" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="B92" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="C92" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="D92" s="0" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="B93" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="C93" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="D93" s="0" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="B94" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="C94" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="D94" s="0" t="s">
-        <v>211</v>
+      <c r="D93" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>331</v>
+      </c>
+      <c r="B94" t="s">
+        <v>201</v>
+      </c>
+      <c r="C94" t="s">
+        <v>214</v>
+      </c>
+      <c r="D94" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -4031,233 +4037,232 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="B2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="D2" s="0" t="s">
+      <c r="C2" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+      <c r="D2" t="s">
         <v>334</v>
       </c>
-      <c r="B3" s="0" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="D3" s="0" t="s">
+      <c r="C3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="B4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>337</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="B4" t="s">
         <v>338</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="C4" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+      <c r="D4" t="s">
         <v>340</v>
       </c>
-      <c r="B5" s="0" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>341</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="B5" t="s">
         <v>342</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="C5" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
+      <c r="D5" t="s">
         <v>344</v>
       </c>
-      <c r="B6" s="0" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>345</v>
+      </c>
+      <c r="B6" t="s">
         <v>154</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
+      <c r="C6" t="s">
         <v>346</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="D6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>347</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="B7" t="s">
         <v>348</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="C7" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
+      <c r="D7" t="s">
         <v>350</v>
       </c>
-      <c r="B8" s="0" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>351</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="B8" t="s">
         <v>352</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="C8" t="s">
+        <v>353</v>
+      </c>
+      <c r="D8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>353</v>
-      </c>
-      <c r="B9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>354</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="B9" t="s">
+        <v>355</v>
+      </c>
+      <c r="C9" t="s">
         <v>127</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
+      <c r="D9" t="s">
         <v>356</v>
       </c>
-      <c r="B10" s="0" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>357</v>
+      </c>
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>357</v>
-      </c>
-      <c r="D10" s="0" t="s">
+      <c r="C10" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
+      <c r="D10" t="s">
         <v>359</v>
       </c>
-      <c r="B11" s="0" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>360</v>
+      </c>
+      <c r="B11" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="D11" s="0" t="s">
+      <c r="C11" t="s">
+        <v>361</v>
+      </c>
+      <c r="D11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>361</v>
-      </c>
-      <c r="B12" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>362</v>
+      </c>
+      <c r="B12" t="s">
         <v>185</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>362</v>
-      </c>
-      <c r="D12" s="0" t="s">
+      <c r="C12" t="s">
+        <v>363</v>
+      </c>
+      <c r="D12" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>363</v>
-      </c>
-      <c r="B13" s="0" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>364</v>
+      </c>
+      <c r="B13" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>364</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
+      <c r="C13" t="s">
         <v>365</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="D13" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>366</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="B14" t="s">
         <v>367</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
+      <c r="C14" t="s">
         <v>368</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="D14" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
         <v>369</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="B15" t="s">
         <v>370</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="C15" t="s">
+        <v>371</v>
+      </c>
+      <c r="D15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="B16" s="0" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
         <v>372</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="B16" t="s">
         <v>373</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="C16" t="s">
+        <v>374</v>
+      </c>
+      <c r="D16" t="s">
         <v>140</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -4271,689 +4276,688 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="B1" t="s">
         <v>375</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="C1" t="s">
         <v>376</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="D1" t="s">
         <v>377</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="E1" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+      <c r="F1" t="s">
         <v>379</v>
       </c>
-      <c r="B2" s="0" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>380</v>
-      </c>
-      <c r="D2" s="0" t="s">
+      <c r="C2" t="s">
         <v>381</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="D2" t="s">
         <v>382</v>
       </c>
-      <c r="F2" s="0">
+      <c r="E2" t="s">
+        <v>383</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>383</v>
-      </c>
-      <c r="B3" s="0" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="D3" s="0" t="s">
+      <c r="C3" t="s">
         <v>385</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="D3" t="s">
         <v>386</v>
       </c>
-      <c r="F3" s="0">
+      <c r="E3" t="s">
+        <v>387</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>387</v>
-      </c>
-      <c r="B4" s="0" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="D4" s="0" t="s">
+      <c r="C4" t="s">
         <v>389</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="D4" t="s">
         <v>390</v>
       </c>
-      <c r="F4" s="0">
+      <c r="E4" t="s">
+        <v>391</v>
+      </c>
+      <c r="F4">
         <v>2</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="B5" s="0" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>392</v>
-      </c>
-      <c r="D5" s="0" t="s">
+      <c r="C5" t="s">
         <v>393</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="D5" t="s">
         <v>394</v>
       </c>
-      <c r="F5" s="0">
+      <c r="E5" t="s">
+        <v>395</v>
+      </c>
+      <c r="F5">
         <v>3</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>395</v>
-      </c>
-      <c r="B6" s="0" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>396</v>
+      </c>
+      <c r="B6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="D6" s="0" t="s">
+      <c r="C6" t="s">
         <v>397</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="D6" t="s">
         <v>398</v>
       </c>
-      <c r="F6" s="0">
+      <c r="E6" t="s">
+        <v>399</v>
+      </c>
+      <c r="F6">
         <v>4</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>399</v>
-      </c>
-      <c r="B7" s="0" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>400</v>
+      </c>
+      <c r="B7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>393</v>
-      </c>
-      <c r="E7" s="0" t="s">
+      <c r="C7" t="s">
         <v>401</v>
       </c>
-      <c r="F7" s="0">
+      <c r="D7" t="s">
+        <v>394</v>
+      </c>
+      <c r="E7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F7">
         <v>5</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>402</v>
-      </c>
-      <c r="B8" s="0" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>403</v>
+      </c>
+      <c r="B8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="D8" s="0" t="s">
+      <c r="C8" t="s">
         <v>404</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="D8" t="s">
         <v>405</v>
       </c>
-      <c r="F8" s="0">
+      <c r="E8" t="s">
+        <v>406</v>
+      </c>
+      <c r="F8">
         <v>6</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>406</v>
-      </c>
-      <c r="B9" s="0" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>407</v>
+      </c>
+      <c r="B9" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>407</v>
-      </c>
-      <c r="D9" s="0" t="s">
+      <c r="C9" t="s">
         <v>408</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="D9" t="s">
         <v>409</v>
       </c>
-      <c r="F9" s="0">
+      <c r="E9" t="s">
+        <v>410</v>
+      </c>
+      <c r="F9">
         <v>0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="B10" s="0" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>411</v>
+      </c>
+      <c r="B10" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>411</v>
-      </c>
-      <c r="D10" s="0" t="s">
+      <c r="C10" t="s">
         <v>412</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="D10" t="s">
         <v>413</v>
       </c>
-      <c r="F10" s="0">
+      <c r="E10" t="s">
+        <v>414</v>
+      </c>
+      <c r="F10">
         <v>1</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>414</v>
-      </c>
-      <c r="B11" s="0" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>415</v>
+      </c>
+      <c r="B11" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>415</v>
-      </c>
-      <c r="D11" s="0" t="s">
+      <c r="C11" t="s">
         <v>416</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="D11" t="s">
         <v>417</v>
       </c>
-      <c r="F11" s="0">
+      <c r="E11" t="s">
+        <v>418</v>
+      </c>
+      <c r="F11">
         <v>2</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="B12" s="0" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>419</v>
+      </c>
+      <c r="B12" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>419</v>
-      </c>
-      <c r="D12" s="0" t="s">
+      <c r="C12" t="s">
         <v>420</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="D12" t="s">
         <v>421</v>
       </c>
-      <c r="F12" s="0">
+      <c r="E12" t="s">
+        <v>422</v>
+      </c>
+      <c r="F12">
         <v>3</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="B13" s="0" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>423</v>
+      </c>
+      <c r="B13" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>423</v>
-      </c>
-      <c r="D13" s="0" t="s">
+      <c r="C13" t="s">
         <v>424</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="D13" t="s">
         <v>425</v>
       </c>
-      <c r="F13" s="0">
+      <c r="E13" t="s">
+        <v>426</v>
+      </c>
+      <c r="F13">
         <v>4</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>426</v>
-      </c>
-      <c r="B14" s="0" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>427</v>
+      </c>
+      <c r="B14" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>427</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>420</v>
-      </c>
-      <c r="E14" s="0" t="s">
+      <c r="C14" t="s">
         <v>428</v>
       </c>
-      <c r="F14" s="0">
+      <c r="D14" t="s">
+        <v>421</v>
+      </c>
+      <c r="E14" t="s">
+        <v>429</v>
+      </c>
+      <c r="F14">
         <v>5</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>429</v>
-      </c>
-      <c r="B15" s="0" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>430</v>
+      </c>
+      <c r="B15" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>430</v>
-      </c>
-      <c r="D15" s="0" t="s">
+      <c r="C15" t="s">
         <v>431</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="D15" t="s">
         <v>432</v>
       </c>
-      <c r="F15" s="0">
+      <c r="E15" t="s">
+        <v>433</v>
+      </c>
+      <c r="F15">
         <v>6</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
-        <v>433</v>
-      </c>
-      <c r="B16" s="0" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>434</v>
+      </c>
+      <c r="B16" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>434</v>
-      </c>
-      <c r="D16" s="0" t="s">
+      <c r="C16" t="s">
         <v>435</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="D16" t="s">
         <v>436</v>
       </c>
-      <c r="F16" s="0">
+      <c r="E16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F16">
         <v>0</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
-        <v>437</v>
-      </c>
-      <c r="B17" s="0" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>438</v>
+      </c>
+      <c r="B17" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>438</v>
-      </c>
-      <c r="D17" s="0" t="s">
+      <c r="C17" t="s">
         <v>439</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="D17" t="s">
         <v>440</v>
       </c>
-      <c r="F17" s="0">
+      <c r="E17" t="s">
+        <v>441</v>
+      </c>
+      <c r="F17">
         <v>1</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>441</v>
-      </c>
-      <c r="B18" s="0" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>442</v>
+      </c>
+      <c r="B18" t="s">
         <v>101</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>442</v>
-      </c>
-      <c r="D18" s="0" t="s">
+      <c r="C18" t="s">
         <v>443</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="D18" t="s">
         <v>444</v>
       </c>
-      <c r="F18" s="0">
+      <c r="E18" t="s">
+        <v>445</v>
+      </c>
+      <c r="F18">
         <v>2</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
-        <v>445</v>
-      </c>
-      <c r="B19" s="0" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>446</v>
+      </c>
+      <c r="B19" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="0" t="s">
-        <v>446</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>404</v>
-      </c>
-      <c r="E19" s="0" t="s">
+      <c r="C19" t="s">
         <v>447</v>
       </c>
-      <c r="F19" s="0">
+      <c r="D19" t="s">
+        <v>405</v>
+      </c>
+      <c r="E19" t="s">
+        <v>448</v>
+      </c>
+      <c r="F19">
         <v>3</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
-        <v>448</v>
-      </c>
-      <c r="B20" s="0" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>449</v>
+      </c>
+      <c r="B20" t="s">
         <v>113</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>449</v>
-      </c>
-      <c r="D20" s="0" t="s">
+      <c r="C20" t="s">
         <v>450</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="D20" t="s">
         <v>451</v>
       </c>
-      <c r="F20" s="0">
+      <c r="E20" t="s">
+        <v>452</v>
+      </c>
+      <c r="F20">
         <v>4</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="B21" s="0" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>453</v>
+      </c>
+      <c r="B21" t="s">
         <v>119</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>453</v>
-      </c>
-      <c r="D21" s="0" t="s">
+      <c r="C21" t="s">
         <v>454</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="D21" t="s">
         <v>455</v>
       </c>
-      <c r="F21" s="0">
+      <c r="E21" t="s">
+        <v>456</v>
+      </c>
+      <c r="F21">
         <v>5</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="0" t="s">
-        <v>456</v>
-      </c>
-      <c r="B22" s="0" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>457</v>
+      </c>
+      <c r="B22" t="s">
         <v>125</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>457</v>
-      </c>
-      <c r="D22" s="0" t="s">
+      <c r="C22" t="s">
         <v>458</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="D22" t="s">
         <v>459</v>
       </c>
-      <c r="F22" s="0">
+      <c r="E22" t="s">
+        <v>460</v>
+      </c>
+      <c r="F22">
         <v>6</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="0" t="s">
-        <v>460</v>
-      </c>
-      <c r="B23" s="0" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>461</v>
+      </c>
+      <c r="B23" t="s">
         <v>131</v>
       </c>
-      <c r="C23" s="0" t="s">
-        <v>461</v>
-      </c>
-      <c r="D23" s="0" t="s">
+      <c r="C23" t="s">
         <v>462</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="D23" t="s">
         <v>463</v>
       </c>
-      <c r="F23" s="0">
+      <c r="E23" t="s">
+        <v>464</v>
+      </c>
+      <c r="F23">
         <v>0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="0" t="s">
-        <v>464</v>
-      </c>
-      <c r="B24" s="0" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>465</v>
+      </c>
+      <c r="B24" t="s">
         <v>137</v>
       </c>
-      <c r="C24" s="0" t="s">
-        <v>465</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>412</v>
-      </c>
-      <c r="E24" s="0" t="s">
+      <c r="C24" t="s">
         <v>466</v>
       </c>
-      <c r="F24" s="0">
+      <c r="D24" t="s">
+        <v>413</v>
+      </c>
+      <c r="E24" t="s">
+        <v>467</v>
+      </c>
+      <c r="F24">
         <v>1</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="B25" s="0" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>468</v>
+      </c>
+      <c r="B25" t="s">
         <v>143</v>
       </c>
-      <c r="C25" s="0" t="s">
-        <v>468</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>416</v>
-      </c>
-      <c r="E25" s="0" t="s">
+      <c r="C25" t="s">
         <v>469</v>
       </c>
-      <c r="F25" s="0">
+      <c r="D25" t="s">
+        <v>417</v>
+      </c>
+      <c r="E25" t="s">
+        <v>470</v>
+      </c>
+      <c r="F25">
         <v>2</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="B26" s="0" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>471</v>
+      </c>
+      <c r="B26" t="s">
         <v>148</v>
       </c>
-      <c r="C26" s="0" t="s">
-        <v>471</v>
-      </c>
-      <c r="D26" s="0" t="s">
+      <c r="C26" t="s">
         <v>472</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="D26" t="s">
         <v>473</v>
       </c>
-      <c r="F26" s="0">
+      <c r="E26" t="s">
+        <v>474</v>
+      </c>
+      <c r="F26">
         <v>3</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="0" t="s">
-        <v>474</v>
-      </c>
-      <c r="B27" s="0" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>475</v>
+      </c>
+      <c r="B27" t="s">
         <v>153</v>
       </c>
-      <c r="C27" s="0" t="s">
-        <v>475</v>
-      </c>
-      <c r="D27" s="0" t="s">
+      <c r="C27" t="s">
         <v>476</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="D27" t="s">
         <v>477</v>
       </c>
-      <c r="F27" s="0">
+      <c r="E27" t="s">
+        <v>478</v>
+      </c>
+      <c r="F27">
         <v>4</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="0" t="s">
-        <v>478</v>
-      </c>
-      <c r="B28" s="0" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>479</v>
+      </c>
+      <c r="B28" t="s">
         <v>159</v>
       </c>
-      <c r="C28" s="0" t="s">
-        <v>479</v>
-      </c>
-      <c r="D28" s="0" t="s">
+      <c r="C28" t="s">
         <v>480</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="D28" t="s">
         <v>481</v>
       </c>
-      <c r="F28" s="0">
+      <c r="E28" t="s">
+        <v>482</v>
+      </c>
+      <c r="F28">
         <v>5</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="0" t="s">
-        <v>482</v>
-      </c>
-      <c r="B29" s="0" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>483</v>
+      </c>
+      <c r="B29" t="s">
         <v>164</v>
       </c>
-      <c r="C29" s="0" t="s">
-        <v>483</v>
-      </c>
-      <c r="D29" s="0" t="s">
+      <c r="C29" t="s">
         <v>484</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="D29" t="s">
         <v>485</v>
       </c>
-      <c r="F29" s="0">
+      <c r="E29" t="s">
+        <v>486</v>
+      </c>
+      <c r="F29">
         <v>6</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="0" t="s">
-        <v>486</v>
-      </c>
-      <c r="B30" s="0" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>487</v>
+      </c>
+      <c r="B30" t="s">
         <v>168</v>
       </c>
-      <c r="C30" s="0" t="s">
-        <v>487</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="E30" s="0" t="s">
+      <c r="C30" t="s">
         <v>488</v>
       </c>
-      <c r="F30" s="0">
+      <c r="D30" t="s">
+        <v>398</v>
+      </c>
+      <c r="E30" t="s">
+        <v>489</v>
+      </c>
+      <c r="F30">
         <v>0</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="0" t="s">
-        <v>489</v>
-      </c>
-      <c r="B31" s="0" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>490</v>
+      </c>
+      <c r="B31" t="s">
         <v>172</v>
       </c>
-      <c r="C31" s="0" t="s">
-        <v>490</v>
-      </c>
-      <c r="D31" s="0" t="s">
+      <c r="C31" t="s">
         <v>491</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="D31" t="s">
         <v>492</v>
       </c>
-      <c r="F31" s="0">
+      <c r="E31" t="s">
+        <v>493</v>
+      </c>
+      <c r="F31">
         <v>1</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="B32" s="0" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>494</v>
+      </c>
+      <c r="B32" t="s">
         <v>178</v>
       </c>
-      <c r="C32" s="0" t="s">
-        <v>494</v>
-      </c>
-      <c r="D32" s="0" t="s">
+      <c r="C32" t="s">
         <v>495</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="D32" t="s">
         <v>496</v>
       </c>
-      <c r="F32" s="0">
+      <c r="E32" t="s">
+        <v>497</v>
+      </c>
+      <c r="F32">
         <v>1</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="0" t="s">
-        <v>497</v>
-      </c>
-      <c r="B33" s="0" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>498</v>
+      </c>
+      <c r="B33" t="s">
         <v>178</v>
       </c>
-      <c r="C33" s="0" t="s">
-        <v>498</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>495</v>
-      </c>
-      <c r="E33" s="0" t="s">
+      <c r="C33" t="s">
         <v>499</v>
       </c>
-      <c r="F33" s="0">
+      <c r="D33" t="s">
+        <v>496</v>
+      </c>
+      <c r="E33" t="s">
+        <v>500</v>
+      </c>
+      <c r="F33">
         <v>3</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="0" t="s">
-        <v>500</v>
-      </c>
-      <c r="B34" s="0" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>501</v>
+      </c>
+      <c r="B34" t="s">
         <v>184</v>
       </c>
-      <c r="C34" s="0" t="s">
-        <v>501</v>
-      </c>
-      <c r="D34" s="0" t="s">
+      <c r="C34" t="s">
         <v>502</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="D34" t="s">
         <v>503</v>
       </c>
-      <c r="F34" s="0">
+      <c r="E34" t="s">
+        <v>504</v>
+      </c>
+      <c r="F34">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -4961,158 +4965,157 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="10" max="10" width="23.265625" customWidth="1"/>
-    <col min="11" max="11" bestFit="1" width="33.59765625" customWidth="1"/>
+    <col min="11" max="11" width="33.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>504</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="B1" t="s">
         <v>505</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="C1" t="s">
         <v>506</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="D1" t="s">
         <v>507</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="E1" t="s">
         <v>508</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="F1" t="s">
         <v>509</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="G1" t="s">
         <v>510</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="H1" t="s">
         <v>511</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="I1" t="s">
         <v>512</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="J1" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+      <c r="K1" t="s">
         <v>514</v>
       </c>
-      <c r="B2" s="0" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>515</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="B2" t="s">
         <v>516</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="C2" t="s">
+        <v>517</v>
+      </c>
+      <c r="D2" t="s">
         <v>178</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>361</v>
-      </c>
-      <c r="H2" s="0">
+      <c r="E2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H2">
         <v>31</v>
       </c>
-      <c r="I2" s="0">
+      <c r="I2">
         <v>189</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" t="s">
+        <v>518</v>
+      </c>
+      <c r="K2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B3" t="s">
+        <v>516</v>
+      </c>
+      <c r="C3" t="s">
         <v>517</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+      <c r="D3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G3" t="s">
+        <v>362</v>
+      </c>
+      <c r="H3">
+        <v>30</v>
+      </c>
+      <c r="I3">
+        <v>199</v>
+      </c>
+      <c r="J3" t="s">
         <v>518</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="C3" s="0" t="s">
+      <c r="K3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>520</v>
+      </c>
+      <c r="B4" t="s">
         <v>516</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>361</v>
-      </c>
-      <c r="H3" s="0">
-        <v>30</v>
-      </c>
-      <c r="I3" s="0">
-        <v>199</v>
-      </c>
-      <c r="J3" s="0" t="s">
+      <c r="C4" t="s">
         <v>517</v>
       </c>
-      <c r="K3" s="0" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>516</v>
-      </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>168</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>363</v>
-      </c>
-      <c r="H4" s="0">
+      <c r="E4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G4" t="s">
+        <v>364</v>
+      </c>
+      <c r="H4">
         <v>31</v>
       </c>
-      <c r="I4" s="0">
+      <c r="I4">
         <v>213</v>
       </c>
-      <c r="J4" s="0" t="s">
-        <v>520</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>486</v>
+      <c r="J4" t="s">
+        <v>521</v>
+      </c>
+      <c r="K4" t="s">
+        <v>487</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/DbFolder/ParkingDB.xlsx
+++ b/DbFolder/ParkingDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepositories\parkingWPF_project\DbFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A149233E-48ED-4F48-A838-5FEDBA51EDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C025E8-B19C-4855-91B6-0E03A311C030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1185" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1185" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Owners" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <sheet name="Vehicles" sheetId="5" r:id="rId5"/>
     <sheet name="Receipts" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="1" fullPrecision="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="522">
   <si>
     <t>Id</t>
   </si>
@@ -1020,7 +1020,7 @@
     <t>734299ee-1cf1-4138-8112-4d49ea1d6aaf</t>
   </si>
   <si>
-    <t>c2c49830-68a9-4c01-bd7d-d6f7bea9cf10</t>
+    <t>e3d91ac9-0ba5-483d-adef-74d40cc0dcec</t>
   </si>
   <si>
     <t>528a7b0d-42f4-48de-b4e7-991ae9838f8d</t>
@@ -1170,7 +1170,7 @@
     <t>205771db-176b-4079-8235-49b097534790</t>
   </si>
   <si>
-    <t>Е 456 КХ 92</t>
+    <t>Е456КХ92</t>
   </si>
   <si>
     <t>Micro</t>
@@ -1182,7 +1182,7 @@
     <t>f59d3fdd-7cc7-4875-b1b8-c7b568bea727</t>
   </si>
   <si>
-    <t>О 056 НМ 43</t>
+    <t>О056НМ43</t>
   </si>
   <si>
     <t>Bentley</t>
@@ -1194,7 +1194,7 @@
     <t>dd9e784e-c37a-4781-8e13-7e2569421720</t>
   </si>
   <si>
-    <t>Х 242 ЕВ 09</t>
+    <t>Х242ЕВ09</t>
   </si>
   <si>
     <t>Maserati</t>
@@ -1206,7 +1206,7 @@
     <t>b70f5a3f-61c4-4461-ae10-04b071559f4a</t>
   </si>
   <si>
-    <t>К 169 МХ 65</t>
+    <t>К169МХ65</t>
   </si>
   <si>
     <t>Hyundai</t>
@@ -1218,7 +1218,7 @@
     <t>4cb4c663-50d7-4973-a222-44e7a5fc3e6d</t>
   </si>
   <si>
-    <t>Р 567 АВ 85</t>
+    <t>Р567АВ85</t>
   </si>
   <si>
     <t>Citroen</t>
@@ -1230,7 +1230,7 @@
     <t>7d80bbae-b546-4b1c-bf3f-833b5452a884</t>
   </si>
   <si>
-    <t>М 286 КО 05</t>
+    <t>М286КО05</t>
   </si>
   <si>
     <t>Tucson</t>
@@ -1239,7 +1239,7 @@
     <t>ab13c5d2-4d8e-41d1-a554-8fe2ab7db098</t>
   </si>
   <si>
-    <t>Т 624 СН 21</t>
+    <t>Т624СН21</t>
   </si>
   <si>
     <t>Toyota</t>
@@ -1251,7 +1251,7 @@
     <t>6db56ce2-078a-411a-a29f-95769c3765d1</t>
   </si>
   <si>
-    <t>Е 388 НМ 33</t>
+    <t>Е388НМ33</t>
   </si>
   <si>
     <t>Subaru</t>
@@ -1263,7 +1263,7 @@
     <t>6f4058d9-8157-4364-a9da-edbb271ba7b7</t>
   </si>
   <si>
-    <t>А 277 ЕУ 23</t>
+    <t>А277ЕУ23</t>
   </si>
   <si>
     <t>Ford</t>
@@ -1275,7 +1275,7 @@
     <t>95182947-67d5-4eaa-8255-38534656e70c</t>
   </si>
   <si>
-    <t>О 791 ЕН 164</t>
+    <t>О791ЕН164</t>
   </si>
   <si>
     <t>Vauxhall</t>
@@ -1287,7 +1287,7 @@
     <t>625e9b95-74c5-47f6-84c0-efd23428c37f</t>
   </si>
   <si>
-    <t>О 315 ХХ 04</t>
+    <t>О315ХХ04</t>
   </si>
   <si>
     <t>Morgan</t>
@@ -1299,7 +1299,7 @@
     <t>865dd671-7cf2-494c-bd2c-e6e77c8ae26e</t>
   </si>
   <si>
-    <t>А 908 МЕ 777</t>
+    <t>А908МЕ777</t>
   </si>
   <si>
     <t>LeBlanc</t>
@@ -1311,7 +1311,7 @@
     <t>9bcff96f-d8b3-4944-86d3-ba1d3db4e39f</t>
   </si>
   <si>
-    <t>У 642 ОМ 27</t>
+    <t>У642ОМ27</t>
   </si>
   <si>
     <t>Plus Six</t>
@@ -1320,7 +1320,7 @@
     <t>de247204-d7d9-4343-a8df-af345da82fa1</t>
   </si>
   <si>
-    <t>О 342 НР 43</t>
+    <t>О342НР43</t>
   </si>
   <si>
     <t>Lotus</t>
@@ -1332,7 +1332,7 @@
     <t>baac1806-5667-4d53-be64-099fcc6f7a1e</t>
   </si>
   <si>
-    <t>К 331 СС 40</t>
+    <t>К331СС40</t>
   </si>
   <si>
     <t>Nissan</t>
@@ -1344,7 +1344,7 @@
     <t>7b753bc7-2886-42d2-ba62-5dd571d78e14</t>
   </si>
   <si>
-    <t>В 852 РВ 14</t>
+    <t>В852РВ14</t>
   </si>
   <si>
     <t>SsangYong</t>
@@ -1356,7 +1356,7 @@
     <t>2a54c2a3-83f5-4575-9a16-73f284b3374f</t>
   </si>
   <si>
-    <t>У 696 ТУ 59</t>
+    <t>У696ТУ59</t>
   </si>
   <si>
     <t>Rolls-Royce</t>
@@ -1368,7 +1368,7 @@
     <t>17395c9c-586b-464c-bcf9-e7461f6ebe08</t>
   </si>
   <si>
-    <t>Т 429 МЕ 87</t>
+    <t>Т429МЕ87</t>
   </si>
   <si>
     <t>Camry</t>
@@ -1377,7 +1377,7 @@
     <t>fdaaa3f4-5c5e-4372-9427-9baade575a33</t>
   </si>
   <si>
-    <t>К 198 УО 43</t>
+    <t>К198УО43</t>
   </si>
   <si>
     <t>Suzuki</t>
@@ -1389,7 +1389,7 @@
     <t>aa364b1e-ef31-41ca-bd40-3f5e591976d8</t>
   </si>
   <si>
-    <t>Р 397 РА 763</t>
+    <t>Р397РА763</t>
   </si>
   <si>
     <t>Lifan</t>
@@ -1401,7 +1401,7 @@
     <t>5d323ced-98d2-4fdf-af59-631cfdc5c19f</t>
   </si>
   <si>
-    <t>А 045 ЕР 17</t>
+    <t>А045ЕР17</t>
   </si>
   <si>
     <t>DS</t>
@@ -1413,7 +1413,7 @@
     <t>e14eb2f1-4dfa-4a7e-bece-d8389159d4e3</t>
   </si>
   <si>
-    <t>С 715 ЕС 142</t>
+    <t>С715ЕС142</t>
   </si>
   <si>
     <t>Mazda</t>
@@ -1425,7 +1425,7 @@
     <t>035c963d-a69b-4139-ba71-89bbb0286843</t>
   </si>
   <si>
-    <t>М 909 НУ 44</t>
+    <t>М909НУ44</t>
   </si>
   <si>
     <t>F-150</t>
@@ -1434,7 +1434,7 @@
     <t>c782f415-5dfa-4914-909a-57f80547172a</t>
   </si>
   <si>
-    <t>Х 264 МЕ 50</t>
+    <t>Х264МЕ50</t>
   </si>
   <si>
     <t>Corsa</t>
@@ -1443,7 +1443,7 @@
     <t>8ddd90f6-57cc-4a54-8bc0-45e28fdd062b</t>
   </si>
   <si>
-    <t>А 060 РЕ 12</t>
+    <t>А060РЕ12</t>
   </si>
   <si>
     <t>Laraki</t>
@@ -1455,7 +1455,7 @@
     <t>1681c7c0-d64e-4383-8d05-be559ffee6a2</t>
   </si>
   <si>
-    <t>Н 309 МА 31</t>
+    <t>Н309МА31</t>
   </si>
   <si>
     <t>Honda</t>
@@ -1467,7 +1467,7 @@
     <t>3de9aaf8-d8dd-44b7-9cf1-4022a8ed1abf</t>
   </si>
   <si>
-    <t>Е 535 ОС 116</t>
+    <t>Е535ОС116</t>
   </si>
   <si>
     <t>Mitsubishi</t>
@@ -1479,7 +1479,7 @@
     <t>c6f96d79-2737-4d81-8493-10e0ebd654c0</t>
   </si>
   <si>
-    <t>Е 778 УЕ 76</t>
+    <t>Е778УЕ76</t>
   </si>
   <si>
     <t>Lancia</t>
@@ -1491,7 +1491,7 @@
     <t>fb1569f5-9baf-472b-bdc5-811071cfd701</t>
   </si>
   <si>
-    <t>К 474 НК 725</t>
+    <t>К474НК725</t>
   </si>
   <si>
     <t>C3</t>
@@ -1500,7 +1500,7 @@
     <t>ba38ca46-50bb-43ca-a070-4c38c84ad16b</t>
   </si>
   <si>
-    <t>Н 562 КС 754</t>
+    <t>Н562КС754</t>
   </si>
   <si>
     <t>McLaren</t>
@@ -1512,7 +1512,7 @@
     <t>7fc22324-d5ee-4a7d-89cf-25d7e114ef80</t>
   </si>
   <si>
-    <t>М 730 ВУ 774</t>
+    <t>M730BY774</t>
   </si>
   <si>
     <t>Lada</t>
@@ -1524,7 +1524,7 @@
     <t>bf989544-ff5f-45d9-8275-73cdd9a25f8a</t>
   </si>
   <si>
-    <t>К 548 СК 174</t>
+    <t>K548CK174</t>
   </si>
   <si>
     <t>2109</t>
@@ -1533,7 +1533,7 @@
     <t>42da13c2-cb72-4538-92c8-9d29ec318bb6</t>
   </si>
   <si>
-    <t>Е 666 КХ 777</t>
+    <t>Е666КХ777</t>
   </si>
   <si>
     <t>BMW</t>
@@ -1597,7 +1597,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1941,672 +1942,673 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="0" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="0" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    <row r="5">
+      <c r="A5" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+    <row r="6">
+      <c r="A6" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+    <row r="7">
+      <c r="A7" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="0" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+    <row r="8">
+      <c r="A8" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="0" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+    <row r="9">
+      <c r="A9" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="0" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+    <row r="10">
+      <c r="A10" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="0" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+    <row r="11">
+      <c r="A11" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="0" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+    <row r="12">
+      <c r="A12" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="0" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+    <row r="13">
+      <c r="A13" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="0" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+    <row r="14">
+      <c r="A14" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="0" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+    <row r="15">
+      <c r="A15" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="0" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+    <row r="16">
+      <c r="A16" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="0" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+    <row r="17">
+      <c r="A17" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="0" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+    <row r="18">
+      <c r="A18" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="0" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+    <row r="19">
+      <c r="A19" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="0" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+    <row r="20">
+      <c r="A20" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="0" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+    <row r="21">
+      <c r="A21" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="0" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
+    <row r="22">
+      <c r="A22" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="0" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
+    <row r="23">
+      <c r="A23" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="0" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
+    <row r="24">
+      <c r="A24" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="0" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
+    <row r="25">
+      <c r="A25" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="0" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
+    <row r="26">
+      <c r="A26" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="0" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
+    <row r="27">
+      <c r="A27" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="0" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
+    <row r="28">
+      <c r="A28" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="0" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
+    <row r="29">
+      <c r="A29" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="0" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
+    <row r="30">
+      <c r="A30" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="0" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+    <row r="31">
+      <c r="A31" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="0" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
+    <row r="32">
+      <c r="A32" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="0" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
+    <row r="33">
+      <c r="A33" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="0" t="s">
         <v>187</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -2614,89 +2616,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="A6:D8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="20.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.796875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    <row r="5">
+      <c r="A5" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>204</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -2704,1328 +2700,1334 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D100" sqref="A94:D100"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" bestFit="1" width="10.46484375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="D3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="D3" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="D4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="D4" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="D5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+      <c r="D5" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="D6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="D6" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="D7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="D7" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="D8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+      <c r="D8" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="D9" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+      <c r="D9" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="D10" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+      <c r="D10" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="D11" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+      <c r="D11" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="D12" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+      <c r="D12" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="D13" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+      <c r="D13" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="D14" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+      <c r="D14" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="D15" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+      <c r="D15" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="D16" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+      <c r="D16" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="D17" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+      <c r="D17" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="D18" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+      <c r="D18" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="D19" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+      <c r="D19" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="D20" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+      <c r="D20" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="D21" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
+      <c r="D21" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="D22" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
+      <c r="D22" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="D23" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
+      <c r="D23" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="D24" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
+      <c r="D24" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="D25" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
+      <c r="D25" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="D26" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
+      <c r="D26" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="D27" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
+      <c r="D27" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="D28" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
+      <c r="D28" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="D29" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
+      <c r="D29" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="D30" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+      <c r="D30" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="D31" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
+      <c r="D31" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="0" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
+    <row r="33">
+      <c r="A33" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="D33" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
+      <c r="D33" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="D34" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
+      <c r="D34" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="D35" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
+      <c r="D35" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="D36" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
+      <c r="D36" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="D37" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
+      <c r="D37" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="D38" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
+      <c r="D38" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="D39" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
+      <c r="D39" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="D40" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
+      <c r="D40" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="D41" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
+      <c r="D41" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="D42" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
+      <c r="D42" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="D43" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
+      <c r="D43" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="D44" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
+      <c r="D44" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="D45" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
+      <c r="D45" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="D46" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
+      <c r="D46" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="D47" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
+      <c r="D47" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="D48" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
+      <c r="D48" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="D49" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
+      <c r="D49" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="D50" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
+      <c r="D50" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="D51" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
+      <c r="D51" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="D52" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
+      <c r="D52" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="D53" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
+      <c r="D53" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="D54" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
+      <c r="D54" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="D55" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
+      <c r="D55" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="D56" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
+      <c r="D56" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="D57" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
+      <c r="D57" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="D58" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
+      <c r="D58" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="D59" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
+      <c r="D59" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="D60" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
+      <c r="D60" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="D61" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
+      <c r="D61" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="D62" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
+      <c r="D62" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="D63" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A64" t="s">
+      <c r="D63" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="D64" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
+      <c r="D64" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="D65" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A66" t="s">
+      <c r="D65" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="D66" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A67" t="s">
+      <c r="D66" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="D67" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A68" t="s">
+      <c r="D67" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="D68" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
+      <c r="D68" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="D69" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A70" t="s">
+      <c r="D69" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="D70" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A71" t="s">
+      <c r="D70" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="D71" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A72" t="s">
+      <c r="D71" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="D72" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A73" t="s">
+      <c r="D72" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="D73" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A74" t="s">
+      <c r="D73" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="D74" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A75" t="s">
+      <c r="D74" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="s">
         <v>312</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="D75" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A76" t="s">
+      <c r="D75" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="D76" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A77" t="s">
+      <c r="D76" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="D77" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A78" t="s">
+      <c r="D77" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="D78" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A79" t="s">
+      <c r="D78" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="D79" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A80" t="s">
+      <c r="D79" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="D80" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A81" t="s">
+      <c r="D80" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="D81" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A82" t="s">
+      <c r="D81" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="D82" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A83" t="s">
+      <c r="D82" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="D83" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A84" t="s">
+      <c r="D83" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="s">
         <v>321</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="D84" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A85" t="s">
+      <c r="D84" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="D85" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A86" t="s">
+      <c r="D85" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="s">
         <v>323</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="D86" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A87" t="s">
+      <c r="D86" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="D87" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A88" t="s">
+      <c r="D87" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="D88" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A89" t="s">
+      <c r="D88" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="D89" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A90" t="s">
+      <c r="D89" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="D90" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A91" t="s">
+      <c r="D90" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="D91" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A92" t="s">
+      <c r="D91" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="0" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A93" t="s">
+    <row r="93">
+      <c r="A93" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="D93" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A94" t="s">
+      <c r="D93" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="0" t="s">
         <v>212</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -4037,232 +4039,233 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>332</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>337</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    <row r="5">
+      <c r="A5" s="0" t="s">
         <v>341</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>342</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>343</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+    <row r="6">
+      <c r="A6" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>346</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="0" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+    <row r="7">
+      <c r="A7" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>348</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="0" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+    <row r="8">
+      <c r="A8" s="0" t="s">
         <v>351</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>352</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>353</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="0" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+    <row r="9">
+      <c r="A9" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="0" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+    <row r="10">
+      <c r="A10" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="0" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+    <row r="11">
+      <c r="A11" s="0" t="s">
         <v>360</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="0" t="s">
         <v>361</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+    <row r="12">
+      <c r="A12" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="0" t="s">
         <v>363</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="0" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+    <row r="13">
+      <c r="A13" s="0" t="s">
         <v>364</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="0" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+    <row r="14">
+      <c r="A14" s="0" t="s">
         <v>366</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="0" t="s">
         <v>368</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="0" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+    <row r="15">
+      <c r="A15" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+    <row r="16">
+      <c r="A16" s="0" t="s">
         <v>372</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="0" t="s">
         <v>373</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="0" t="s">
         <v>374</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="0" t="s">
         <v>140</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -4270,694 +4273,693 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>375</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>376</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>377</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>378</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>380</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>382</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>383</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="0" t="s">
         <v>384</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>386</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="0" t="s">
         <v>387</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>388</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>389</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>390</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="0" t="s">
         <v>391</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="0">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    <row r="5">
+      <c r="A5" s="0" t="s">
         <v>392</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>394</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="0" t="s">
         <v>395</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+    <row r="6">
+      <c r="A6" s="0" t="s">
         <v>396</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>397</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="0" t="s">
         <v>398</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="0" t="s">
         <v>399</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="0">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+    <row r="7">
+      <c r="A7" s="0" t="s">
         <v>400</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="0" t="s">
         <v>401</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="0" t="s">
         <v>394</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="0" t="s">
         <v>402</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="0">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+    <row r="8">
+      <c r="A8" s="0" t="s">
         <v>403</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>404</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="0" t="s">
         <v>405</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="0" t="s">
         <v>406</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="0">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+    <row r="9">
+      <c r="A9" s="0" t="s">
         <v>407</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>408</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="0" t="s">
         <v>409</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="0" t="s">
         <v>410</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+    <row r="10">
+      <c r="A10" s="0" t="s">
         <v>411</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="0" t="s">
         <v>412</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="0" t="s">
         <v>413</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="0" t="s">
         <v>414</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+    <row r="11">
+      <c r="A11" s="0" t="s">
         <v>415</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="0" t="s">
         <v>416</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="0" t="s">
         <v>418</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="0">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+    <row r="12">
+      <c r="A12" s="0" t="s">
         <v>419</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="0" t="s">
         <v>420</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="0" t="s">
         <v>421</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="0" t="s">
         <v>422</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="0">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+    <row r="13">
+      <c r="A13" s="0" t="s">
         <v>423</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="0" t="s">
         <v>424</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="0" t="s">
         <v>425</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="0" t="s">
         <v>426</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+    <row r="14">
+      <c r="A14" s="0" t="s">
         <v>427</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="0" t="s">
         <v>428</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="0" t="s">
         <v>421</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="0" t="s">
         <v>429</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="0">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+    <row r="15">
+      <c r="A15" s="0" t="s">
         <v>430</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="0" t="s">
         <v>431</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="0" t="s">
         <v>432</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="0" t="s">
         <v>433</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+    <row r="16">
+      <c r="A16" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="0" t="s">
         <v>436</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="0" t="s">
         <v>437</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+    <row r="17">
+      <c r="A17" s="0" t="s">
         <v>438</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="0" t="s">
         <v>439</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="0" t="s">
         <v>440</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="0" t="s">
         <v>441</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+    <row r="18">
+      <c r="A18" s="0" t="s">
         <v>442</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="0" t="s">
         <v>443</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="0">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+    <row r="19">
+      <c r="A19" s="0" t="s">
         <v>446</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="0" t="s">
         <v>447</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="0" t="s">
         <v>405</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="0" t="s">
         <v>448</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+    <row r="20">
+      <c r="A20" s="0" t="s">
         <v>449</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="0" t="s">
         <v>450</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="0" t="s">
         <v>451</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="0" t="s">
         <v>452</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+    <row r="21">
+      <c r="A21" s="0" t="s">
         <v>453</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="0" t="s">
         <v>454</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="0" t="s">
         <v>455</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="0" t="s">
         <v>456</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="0">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
+    <row r="22">
+      <c r="A22" s="0" t="s">
         <v>457</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="0" t="s">
         <v>458</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="0" t="s">
         <v>459</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="0" t="s">
         <v>460</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
+    <row r="23">
+      <c r="A23" s="0" t="s">
         <v>461</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="0" t="s">
         <v>462</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="0" t="s">
         <v>463</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="0" t="s">
         <v>464</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
+    <row r="24">
+      <c r="A24" s="0" t="s">
         <v>465</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="0" t="s">
         <v>466</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="0" t="s">
         <v>413</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="0" t="s">
         <v>467</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
+    <row r="25">
+      <c r="A25" s="0" t="s">
         <v>468</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="0" t="s">
         <v>470</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="0">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
+    <row r="26">
+      <c r="A26" s="0" t="s">
         <v>471</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="0" t="s">
         <v>472</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="0" t="s">
         <v>473</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="0" t="s">
         <v>474</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="0">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
+    <row r="27">
+      <c r="A27" s="0" t="s">
         <v>475</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="0" t="s">
         <v>476</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="0" t="s">
         <v>477</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="0" t="s">
         <v>478</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="0">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
+    <row r="28">
+      <c r="A28" s="0" t="s">
         <v>479</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="0" t="s">
         <v>480</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="0" t="s">
         <v>481</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="0" t="s">
         <v>482</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="0">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
+    <row r="29">
+      <c r="A29" s="0" t="s">
         <v>483</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="0" t="s">
         <v>484</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="0" t="s">
         <v>485</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="0" t="s">
         <v>486</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="0">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
+    <row r="30">
+      <c r="A30" s="0" t="s">
         <v>487</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="0" t="s">
         <v>488</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="0" t="s">
         <v>398</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="0" t="s">
         <v>489</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+    <row r="31">
+      <c r="A31" s="0" t="s">
         <v>490</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="0" t="s">
         <v>491</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="0" t="s">
         <v>492</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="0" t="s">
         <v>493</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
+    <row r="32">
+      <c r="A32" s="0" t="s">
         <v>494</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="0" t="s">
         <v>495</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="0" t="s">
         <v>496</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="0" t="s">
         <v>497</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
+    <row r="33">
+      <c r="A33" s="0" t="s">
         <v>498</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="0" t="s">
         <v>499</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="0" t="s">
         <v>496</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="0" t="s">
         <v>500</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="0">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
+    <row r="34">
+      <c r="A34" s="0" t="s">
         <v>501</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="0" t="s">
         <v>502</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="0" t="s">
         <v>503</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="0" t="s">
         <v>504</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="0">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -4965,157 +4967,152 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="10" max="10" width="23.265625" customWidth="1"/>
-    <col min="11" max="11" width="33.59765625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>505</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>506</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>507</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>508</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>509</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>510</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="0" t="s">
         <v>513</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="0" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>515</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>516</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>517</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="0">
         <v>31</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="0">
         <v>189</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="0" t="s">
         <v>518</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="0" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="0" t="s">
         <v>519</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>516</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>517</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="0">
         <v>30</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="0">
         <v>199</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="0" t="s">
         <v>518</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="0" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>520</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>516</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>517</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="0" t="s">
         <v>364</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="0">
         <v>31</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="0">
         <v>213</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="0" t="s">
         <v>521</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="0" t="s">
         <v>487</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/DbFolder/ParkingDB.xlsx
+++ b/DbFolder/ParkingDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepositories\parkingWPF_project\DbFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C025E8-B19C-4855-91B6-0E03A311C030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594AD807-DBFD-4A41-9B3F-3D2E518AAC8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1185" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Owners" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <sheet name="Vehicles" sheetId="5" r:id="rId5"/>
     <sheet name="Receipts" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1" fullPrecision="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="522">
   <si>
     <t>Id</t>
   </si>
@@ -1527,7 +1527,7 @@
     <t>K548CK174</t>
   </si>
   <si>
-    <t>2109</t>
+    <t>21093</t>
   </si>
   <si>
     <t>42da13c2-cb72-4538-92c8-9d29ec318bb6</t>
@@ -1597,8 +1597,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1946,669 +1945,668 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>80</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" t="s">
         <v>93</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>98</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" t="s">
         <v>99</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
         <v>101</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>103</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>104</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" t="s">
         <v>105</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>110</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
         <v>113</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>114</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>115</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>116</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="F20" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>120</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>121</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>122</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" t="s">
         <v>123</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
         <v>125</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>126</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>127</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" t="s">
         <v>128</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" t="s">
         <v>129</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F22" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
         <v>131</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>132</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>133</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" t="s">
         <v>134</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
         <v>137</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>138</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>139</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>140</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" t="s">
         <v>141</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F24" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
         <v>143</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>144</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>145</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" t="s">
         <v>146</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="F25" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
         <v>148</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>149</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>150</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" t="s">
         <v>151</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="F26" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
         <v>153</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>154</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>155</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>156</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" t="s">
         <v>157</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="F27" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
         <v>159</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>154</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>160</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" t="s">
         <v>161</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" t="s">
         <v>162</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="F28" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
         <v>164</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>165</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" t="s">
         <v>104</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" t="s">
         <v>166</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="F29" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
         <v>168</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>169</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E30" t="s">
         <v>170</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="F30" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
         <v>172</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>173</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" t="s">
         <v>174</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" t="s">
         <v>175</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E31" t="s">
         <v>176</v>
       </c>
-      <c r="F31" s="0" t="s">
+      <c r="F31" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
         <v>178</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>179</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" t="s">
         <v>180</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" t="s">
         <v>181</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="E32" t="s">
         <v>182</v>
       </c>
-      <c r="F32" s="0" t="s">
+      <c r="F32" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
         <v>184</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>185</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" t="s">
         <v>180</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" t="s">
         <v>122</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="E33" t="s">
         <v>186</v>
       </c>
-      <c r="F33" s="0" t="s">
+      <c r="F33" t="s">
         <v>187</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -2620,79 +2618,78 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>190</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>191</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>193</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>195</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>197</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>198</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>199</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>201</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>203</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>204</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -2700,1334 +2697,1333 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D100" sqref="A94:D100"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" bestFit="1" width="10.46484375" customWidth="1"/>
+    <col min="3" max="3" width="10.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>207</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>208</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>210</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>211</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+      <c r="D3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>213</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>189</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>214</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+      <c r="D4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>215</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>189</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>216</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
+      <c r="D5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>217</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>189</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>218</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
+      <c r="D6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>219</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>189</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>220</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
+      <c r="D7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>221</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>189</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>222</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
+      <c r="D8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>223</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>189</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>224</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
+      <c r="D9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>225</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>189</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>226</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
+      <c r="D10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>227</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>189</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>228</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
+      <c r="D11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>229</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>189</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>230</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
+      <c r="D12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>231</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>189</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>232</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
+      <c r="D13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>233</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>189</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>234</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
+      <c r="D14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
         <v>235</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>189</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>236</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
+      <c r="D15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
         <v>237</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>189</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>238</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
+      <c r="D16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
         <v>239</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>189</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>240</v>
       </c>
-      <c r="D17" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
+      <c r="D17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
         <v>241</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>189</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>242</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
+      <c r="D18" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
         <v>243</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>189</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>244</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
+      <c r="D19" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
         <v>245</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>189</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>246</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="s">
+      <c r="D20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
         <v>247</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>189</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>248</v>
       </c>
-      <c r="D21" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="s">
+      <c r="D21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
         <v>249</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>189</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>250</v>
       </c>
-      <c r="D22" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0" t="s">
+      <c r="D22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
         <v>251</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>189</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>252</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0" t="s">
+      <c r="D23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
         <v>253</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>189</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>254</v>
       </c>
-      <c r="D24" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0" t="s">
+      <c r="D24" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
         <v>255</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>189</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>256</v>
       </c>
-      <c r="D25" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0" t="s">
+      <c r="D25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
         <v>257</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>189</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>258</v>
       </c>
-      <c r="D26" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0" t="s">
+      <c r="D26" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
         <v>259</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>189</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>260</v>
       </c>
-      <c r="D27" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0" t="s">
+      <c r="D27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
         <v>261</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>189</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>262</v>
       </c>
-      <c r="D28" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0" t="s">
+      <c r="D28" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
         <v>263</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>189</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" t="s">
         <v>264</v>
       </c>
-      <c r="D29" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0" t="s">
+      <c r="D29" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
         <v>265</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>189</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" t="s">
         <v>266</v>
       </c>
-      <c r="D30" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0" t="s">
+      <c r="D30" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
         <v>267</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>189</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" t="s">
         <v>268</v>
       </c>
-      <c r="D31" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0" t="s">
+      <c r="D31" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
         <v>269</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>193</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" t="s">
         <v>208</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
         <v>270</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>193</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" t="s">
         <v>211</v>
       </c>
-      <c r="D33" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0" t="s">
+      <c r="D33" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
         <v>271</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" t="s">
         <v>193</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" t="s">
         <v>214</v>
       </c>
-      <c r="D34" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0" t="s">
+      <c r="D34" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
         <v>272</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" t="s">
         <v>193</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" t="s">
         <v>216</v>
       </c>
-      <c r="D35" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0" t="s">
+      <c r="D35" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
         <v>273</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" t="s">
         <v>193</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" t="s">
         <v>218</v>
       </c>
-      <c r="D36" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0" t="s">
+      <c r="D36" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
         <v>274</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" t="s">
         <v>193</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" t="s">
         <v>220</v>
       </c>
-      <c r="D37" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0" t="s">
+      <c r="D37" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
         <v>275</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" t="s">
         <v>193</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" t="s">
         <v>222</v>
       </c>
-      <c r="D38" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0" t="s">
+      <c r="D38" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
         <v>276</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" t="s">
         <v>193</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" t="s">
         <v>224</v>
       </c>
-      <c r="D39" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0" t="s">
+      <c r="D39" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
         <v>277</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" t="s">
         <v>193</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" t="s">
         <v>226</v>
       </c>
-      <c r="D40" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0" t="s">
+      <c r="D40" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
         <v>278</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" t="s">
         <v>193</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" t="s">
         <v>228</v>
       </c>
-      <c r="D41" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0" t="s">
+      <c r="D41" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
         <v>279</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>193</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" t="s">
         <v>230</v>
       </c>
-      <c r="D42" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0" t="s">
+      <c r="D42" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
         <v>280</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" t="s">
         <v>193</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" t="s">
         <v>232</v>
       </c>
-      <c r="D43" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0" t="s">
+      <c r="D43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
         <v>281</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" t="s">
         <v>193</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" t="s">
         <v>234</v>
       </c>
-      <c r="D44" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0" t="s">
+      <c r="D44" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
         <v>282</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" t="s">
         <v>193</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" t="s">
         <v>236</v>
       </c>
-      <c r="D45" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0" t="s">
+      <c r="D45" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
         <v>283</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" t="s">
         <v>193</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" t="s">
         <v>238</v>
       </c>
-      <c r="D46" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0" t="s">
+      <c r="D46" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
         <v>284</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" t="s">
         <v>193</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" t="s">
         <v>240</v>
       </c>
-      <c r="D47" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0" t="s">
+      <c r="D47" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
         <v>285</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" t="s">
         <v>193</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" t="s">
         <v>242</v>
       </c>
-      <c r="D48" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0" t="s">
+      <c r="D48" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
         <v>286</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" t="s">
         <v>193</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" t="s">
         <v>244</v>
       </c>
-      <c r="D49" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0" t="s">
+      <c r="D49" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
         <v>287</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" t="s">
         <v>193</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" t="s">
         <v>246</v>
       </c>
-      <c r="D50" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0" t="s">
+      <c r="D50" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
         <v>288</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" t="s">
         <v>193</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" t="s">
         <v>248</v>
       </c>
-      <c r="D51" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0" t="s">
+      <c r="D51" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
         <v>289</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" t="s">
         <v>193</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" t="s">
         <v>250</v>
       </c>
-      <c r="D52" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0" t="s">
+      <c r="D52" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
         <v>290</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" t="s">
         <v>193</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" t="s">
         <v>252</v>
       </c>
-      <c r="D53" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0" t="s">
+      <c r="D53" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
         <v>291</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" t="s">
         <v>193</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" t="s">
         <v>254</v>
       </c>
-      <c r="D54" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0" t="s">
+      <c r="D54" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
         <v>292</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" t="s">
         <v>193</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" t="s">
         <v>256</v>
       </c>
-      <c r="D55" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0" t="s">
+      <c r="D55" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
         <v>293</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" t="s">
         <v>193</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" t="s">
         <v>258</v>
       </c>
-      <c r="D56" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0" t="s">
+      <c r="D56" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
         <v>294</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" t="s">
         <v>193</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" t="s">
         <v>260</v>
       </c>
-      <c r="D57" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="0" t="s">
+      <c r="D57" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
         <v>295</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" t="s">
         <v>193</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" t="s">
         <v>262</v>
       </c>
-      <c r="D58" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="0" t="s">
+      <c r="D58" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
         <v>296</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" t="s">
         <v>193</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="C59" t="s">
         <v>264</v>
       </c>
-      <c r="D59" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="0" t="s">
+      <c r="D59" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
         <v>297</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" t="s">
         <v>193</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" t="s">
         <v>266</v>
       </c>
-      <c r="D60" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="0" t="s">
+      <c r="D60" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
         <v>298</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" t="s">
         <v>193</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" t="s">
         <v>268</v>
       </c>
-      <c r="D61" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="0" t="s">
+      <c r="D61" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
         <v>299</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" t="s">
         <v>197</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" t="s">
         <v>208</v>
       </c>
-      <c r="D62" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="0" t="s">
+      <c r="D62" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
         <v>300</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" t="s">
         <v>197</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" t="s">
         <v>211</v>
       </c>
-      <c r="D63" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="0" t="s">
+      <c r="D63" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
         <v>301</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" t="s">
         <v>197</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" t="s">
         <v>214</v>
       </c>
-      <c r="D64" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="0" t="s">
+      <c r="D64" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
         <v>302</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" t="s">
         <v>197</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="C65" t="s">
         <v>216</v>
       </c>
-      <c r="D65" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="0" t="s">
+      <c r="D65" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
         <v>303</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" t="s">
         <v>197</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="C66" t="s">
         <v>218</v>
       </c>
-      <c r="D66" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="0" t="s">
+      <c r="D66" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
         <v>304</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" t="s">
         <v>197</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="C67" t="s">
         <v>220</v>
       </c>
-      <c r="D67" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="0" t="s">
+      <c r="D67" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
         <v>305</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" t="s">
         <v>197</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="C68" t="s">
         <v>222</v>
       </c>
-      <c r="D68" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="0" t="s">
+      <c r="D68" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
         <v>306</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" t="s">
         <v>197</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="C69" t="s">
         <v>224</v>
       </c>
-      <c r="D69" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="0" t="s">
+      <c r="D69" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
         <v>307</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" t="s">
         <v>197</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="C70" t="s">
         <v>226</v>
       </c>
-      <c r="D70" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="0" t="s">
+      <c r="D70" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
         <v>308</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" t="s">
         <v>197</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="C71" t="s">
         <v>228</v>
       </c>
-      <c r="D71" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="0" t="s">
+      <c r="D71" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
         <v>309</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" t="s">
         <v>197</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="C72" t="s">
         <v>230</v>
       </c>
-      <c r="D72" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="0" t="s">
+      <c r="D72" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
         <v>310</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" t="s">
         <v>197</v>
       </c>
-      <c r="C73" s="0" t="s">
+      <c r="C73" t="s">
         <v>232</v>
       </c>
-      <c r="D73" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="0" t="s">
+      <c r="D73" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
         <v>311</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" t="s">
         <v>197</v>
       </c>
-      <c r="C74" s="0" t="s">
+      <c r="C74" t="s">
         <v>234</v>
       </c>
-      <c r="D74" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="0" t="s">
+      <c r="D74" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
         <v>312</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" t="s">
         <v>197</v>
       </c>
-      <c r="C75" s="0" t="s">
+      <c r="C75" t="s">
         <v>236</v>
       </c>
-      <c r="D75" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="0" t="s">
+      <c r="D75" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
         <v>313</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" t="s">
         <v>197</v>
       </c>
-      <c r="C76" s="0" t="s">
+      <c r="C76" t="s">
         <v>238</v>
       </c>
-      <c r="D76" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="0" t="s">
+      <c r="D76" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
         <v>314</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" t="s">
         <v>197</v>
       </c>
-      <c r="C77" s="0" t="s">
+      <c r="C77" t="s">
         <v>240</v>
       </c>
-      <c r="D77" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="0" t="s">
+      <c r="D77" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
         <v>315</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" t="s">
         <v>197</v>
       </c>
-      <c r="C78" s="0" t="s">
+      <c r="C78" t="s">
         <v>242</v>
       </c>
-      <c r="D78" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="0" t="s">
+      <c r="D78" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
         <v>316</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" t="s">
         <v>197</v>
       </c>
-      <c r="C79" s="0" t="s">
+      <c r="C79" t="s">
         <v>244</v>
       </c>
-      <c r="D79" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="0" t="s">
+      <c r="D79" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
         <v>317</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" t="s">
         <v>197</v>
       </c>
-      <c r="C80" s="0" t="s">
+      <c r="C80" t="s">
         <v>246</v>
       </c>
-      <c r="D80" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="0" t="s">
+      <c r="D80" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
         <v>318</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" t="s">
         <v>197</v>
       </c>
-      <c r="C81" s="0" t="s">
+      <c r="C81" t="s">
         <v>248</v>
       </c>
-      <c r="D81" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="0" t="s">
+      <c r="D81" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
         <v>319</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" t="s">
         <v>197</v>
       </c>
-      <c r="C82" s="0" t="s">
+      <c r="C82" t="s">
         <v>250</v>
       </c>
-      <c r="D82" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="0" t="s">
+      <c r="D82" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
         <v>320</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" t="s">
         <v>197</v>
       </c>
-      <c r="C83" s="0" t="s">
+      <c r="C83" t="s">
         <v>252</v>
       </c>
-      <c r="D83" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="0" t="s">
+      <c r="D83" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
         <v>321</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" t="s">
         <v>197</v>
       </c>
-      <c r="C84" s="0" t="s">
+      <c r="C84" t="s">
         <v>254</v>
       </c>
-      <c r="D84" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="0" t="s">
+      <c r="D84" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
         <v>322</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" t="s">
         <v>197</v>
       </c>
-      <c r="C85" s="0" t="s">
+      <c r="C85" t="s">
         <v>256</v>
       </c>
-      <c r="D85" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="0" t="s">
+      <c r="D85" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
         <v>323</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" t="s">
         <v>197</v>
       </c>
-      <c r="C86" s="0" t="s">
+      <c r="C86" t="s">
         <v>258</v>
       </c>
-      <c r="D86" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="0" t="s">
+      <c r="D86" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
         <v>324</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" t="s">
         <v>197</v>
       </c>
-      <c r="C87" s="0" t="s">
+      <c r="C87" t="s">
         <v>260</v>
       </c>
-      <c r="D87" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="0" t="s">
+      <c r="D87" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
         <v>325</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B88" t="s">
         <v>197</v>
       </c>
-      <c r="C88" s="0" t="s">
+      <c r="C88" t="s">
         <v>262</v>
       </c>
-      <c r="D88" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="0" t="s">
+      <c r="D88" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
         <v>326</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" t="s">
         <v>197</v>
       </c>
-      <c r="C89" s="0" t="s">
+      <c r="C89" t="s">
         <v>264</v>
       </c>
-      <c r="D89" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="0" t="s">
+      <c r="D89" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
         <v>327</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" t="s">
         <v>197</v>
       </c>
-      <c r="C90" s="0" t="s">
+      <c r="C90" t="s">
         <v>266</v>
       </c>
-      <c r="D90" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="0" t="s">
+      <c r="D90" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
         <v>328</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" t="s">
         <v>197</v>
       </c>
-      <c r="C91" s="0" t="s">
+      <c r="C91" t="s">
         <v>268</v>
       </c>
-      <c r="D91" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="0" t="s">
+      <c r="D91" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
         <v>329</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" t="s">
         <v>201</v>
       </c>
-      <c r="C92" s="0" t="s">
+      <c r="C92" t="s">
         <v>208</v>
       </c>
-      <c r="D92" s="0" t="s">
+      <c r="D92" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="0" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
         <v>330</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" t="s">
         <v>201</v>
       </c>
-      <c r="C93" s="0" t="s">
+      <c r="C93" t="s">
         <v>211</v>
       </c>
-      <c r="D93" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="0" t="s">
+      <c r="D93" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
         <v>331</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" t="s">
         <v>201</v>
       </c>
-      <c r="C94" s="0" t="s">
+      <c r="C94" t="s">
         <v>214</v>
       </c>
-      <c r="D94" s="0" t="s">
+      <c r="D94" t="s">
         <v>212</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -4039,233 +4035,232 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>332</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>333</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>335</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>336</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>337</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>338</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>339</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>341</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>342</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>343</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>345</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>154</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>346</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>347</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>348</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>349</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>351</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>352</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>353</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>354</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>355</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>127</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>357</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>358</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>360</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>361</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>362</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>185</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>363</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>364</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>365</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>366</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>367</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>368</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
         <v>369</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>370</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>371</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
         <v>372</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>373</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>374</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>140</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -4277,689 +4272,688 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>375</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>376</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>377</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>378</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>380</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>381</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>382</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>383</v>
       </c>
-      <c r="F2" s="0">
+      <c r="F2">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>384</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>385</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>386</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>387</v>
       </c>
-      <c r="F3" s="0">
+      <c r="F3">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>388</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>389</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>390</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>391</v>
       </c>
-      <c r="F4" s="0">
+      <c r="F4">
         <v>2</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>392</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>393</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>394</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>395</v>
       </c>
-      <c r="F5" s="0">
+      <c r="F5">
         <v>3</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>396</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>397</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>398</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>399</v>
       </c>
-      <c r="F6" s="0">
+      <c r="F6">
         <v>4</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>400</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>401</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>394</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>402</v>
       </c>
-      <c r="F7" s="0">
+      <c r="F7">
         <v>5</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>403</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>404</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>405</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>406</v>
       </c>
-      <c r="F8" s="0">
+      <c r="F8">
         <v>6</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>407</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>408</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>409</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s">
         <v>410</v>
       </c>
-      <c r="F9" s="0">
+      <c r="F9">
         <v>0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>411</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>412</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>413</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>414</v>
       </c>
-      <c r="F10" s="0">
+      <c r="F10">
         <v>1</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>415</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>416</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>417</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>418</v>
       </c>
-      <c r="F11" s="0">
+      <c r="F11">
         <v>2</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>419</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>420</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>421</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" t="s">
         <v>422</v>
       </c>
-      <c r="F12" s="0">
+      <c r="F12">
         <v>3</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>423</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>424</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>425</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" t="s">
         <v>426</v>
       </c>
-      <c r="F13" s="0">
+      <c r="F13">
         <v>4</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>427</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>428</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>421</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" t="s">
         <v>429</v>
       </c>
-      <c r="F14" s="0">
+      <c r="F14">
         <v>5</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
         <v>430</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>431</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>432</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" t="s">
         <v>433</v>
       </c>
-      <c r="F15" s="0">
+      <c r="F15">
         <v>6</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
         <v>434</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>435</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>436</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" t="s">
         <v>437</v>
       </c>
-      <c r="F16" s="0">
+      <c r="F16">
         <v>0</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
         <v>438</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>439</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>440</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" t="s">
         <v>441</v>
       </c>
-      <c r="F17" s="0">
+      <c r="F17">
         <v>1</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
         <v>442</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>101</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>443</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>444</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" t="s">
         <v>445</v>
       </c>
-      <c r="F18" s="0">
+      <c r="F18">
         <v>2</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
         <v>446</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>447</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>405</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" t="s">
         <v>448</v>
       </c>
-      <c r="F19" s="0">
+      <c r="F19">
         <v>3</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
         <v>449</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>113</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>450</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>451</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" t="s">
         <v>452</v>
       </c>
-      <c r="F20" s="0">
+      <c r="F20">
         <v>4</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
         <v>453</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>119</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>454</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>455</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" t="s">
         <v>456</v>
       </c>
-      <c r="F21" s="0">
+      <c r="F21">
         <v>5</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
         <v>457</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>125</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>458</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" t="s">
         <v>459</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" t="s">
         <v>460</v>
       </c>
-      <c r="F22" s="0">
+      <c r="F22">
         <v>6</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
         <v>461</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>131</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>462</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" t="s">
         <v>463</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" t="s">
         <v>464</v>
       </c>
-      <c r="F23" s="0">
+      <c r="F23">
         <v>0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
         <v>465</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>137</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>466</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>413</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" t="s">
         <v>467</v>
       </c>
-      <c r="F24" s="0">
+      <c r="F24">
         <v>1</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
         <v>468</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>143</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>469</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>417</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" t="s">
         <v>470</v>
       </c>
-      <c r="F25" s="0">
+      <c r="F25">
         <v>2</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
         <v>471</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>148</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>472</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>473</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" t="s">
         <v>474</v>
       </c>
-      <c r="F26" s="0">
+      <c r="F26">
         <v>3</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
         <v>475</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>153</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>476</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>477</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" t="s">
         <v>478</v>
       </c>
-      <c r="F27" s="0">
+      <c r="F27">
         <v>4</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
         <v>479</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>159</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>480</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" t="s">
         <v>481</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" t="s">
         <v>482</v>
       </c>
-      <c r="F28" s="0">
+      <c r="F28">
         <v>5</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
         <v>483</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>164</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" t="s">
         <v>484</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" t="s">
         <v>485</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" t="s">
         <v>486</v>
       </c>
-      <c r="F29" s="0">
+      <c r="F29">
         <v>6</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
         <v>487</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>168</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" t="s">
         <v>488</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" t="s">
         <v>398</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E30" t="s">
         <v>489</v>
       </c>
-      <c r="F30" s="0">
+      <c r="F30">
         <v>0</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
         <v>490</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>172</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" t="s">
         <v>491</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" t="s">
         <v>492</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E31" t="s">
         <v>493</v>
       </c>
-      <c r="F31" s="0">
+      <c r="F31">
         <v>1</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
         <v>494</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>178</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" t="s">
         <v>495</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" t="s">
         <v>496</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="E32" t="s">
         <v>497</v>
       </c>
-      <c r="F32" s="0">
+      <c r="F32">
         <v>1</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
         <v>498</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>178</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" t="s">
         <v>499</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" t="s">
         <v>496</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="E33" t="s">
         <v>500</v>
       </c>
-      <c r="F33" s="0">
+      <c r="F33">
         <v>3</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
         <v>501</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" t="s">
         <v>184</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" t="s">
         <v>502</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" t="s">
         <v>503</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="E34" t="s">
         <v>504</v>
       </c>
-      <c r="F34" s="0">
+      <c r="F34">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -4967,152 +4961,153 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="A5:O11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>505</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>506</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>507</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>508</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>509</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>510</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>511</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>512</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>513</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>515</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>516</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>517</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>178</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>189</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>207</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" t="s">
         <v>362</v>
       </c>
-      <c r="H2" s="0">
+      <c r="H2">
         <v>31</v>
       </c>
-      <c r="I2" s="0">
+      <c r="I2">
         <v>189</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" t="s">
         <v>518</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>519</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>516</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>517</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>184</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>201</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>329</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" t="s">
         <v>362</v>
       </c>
-      <c r="H3" s="0">
+      <c r="H3">
         <v>30</v>
       </c>
-      <c r="I3" s="0">
+      <c r="I3">
         <v>199</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" t="s">
         <v>518</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>520</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>516</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>517</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>168</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>193</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>269</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" t="s">
         <v>364</v>
       </c>
-      <c r="H4" s="0">
+      <c r="H4">
         <v>31</v>
       </c>
-      <c r="I4" s="0">
+      <c r="I4">
         <v>213</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" t="s">
         <v>521</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="K4" t="s">
         <v>487</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/DbFolder/ParkingDB.xlsx
+++ b/DbFolder/ParkingDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepositories\parkingWPF_project\DbFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594AD807-DBFD-4A41-9B3F-3D2E518AAC8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2E4469-86AA-4BCE-BBC5-F8836009A1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="527">
   <si>
     <t>Id</t>
   </si>
@@ -1533,13 +1533,13 @@
     <t>42da13c2-cb72-4538-92c8-9d29ec318bb6</t>
   </si>
   <si>
-    <t>Е666КХ777</t>
+    <t>E666KX174</t>
   </si>
   <si>
     <t>BMW</t>
   </si>
   <si>
-    <t>M3</t>
+    <t>E92</t>
   </si>
   <si>
     <t>Series</t>
@@ -1591,6 +1591,21 @@
   </si>
   <si>
     <t>27.01.2025 21:43:37</t>
+  </si>
+  <si>
+    <t>f56502c6-fea4-4b8f-9a80-c4f84e40ad15</t>
+  </si>
+  <si>
+    <t>000002</t>
+  </si>
+  <si>
+    <t>30.01.2025 11:10:38</t>
+  </si>
+  <si>
+    <t>9b64bb21-f135-4f04-9481-85b9daa27f78</t>
+  </si>
+  <si>
+    <t>30.12.2024 11:11:38</t>
   </si>
 </sst>
 </file>
@@ -1623,8 +1638,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1941,7 +1957,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -2614,7 +2632,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -2697,13 +2717,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="F104" sqref="F104"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -3207,7 +3227,7 @@
         <v>218</v>
       </c>
       <c r="D36" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
@@ -4005,7 +4025,7 @@
         <v>211</v>
       </c>
       <c r="D93" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.45">
@@ -4949,7 +4969,7 @@
         <v>504</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4959,13 +4979,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="A5:O11"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="34.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
@@ -5107,6 +5132,79 @@
         <v>487</v>
       </c>
     </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>522</v>
+      </c>
+      <c r="B5" t="s">
+        <v>516</v>
+      </c>
+      <c r="C5" t="s">
+        <v>523</v>
+      </c>
+      <c r="D5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F5" t="s">
+        <v>330</v>
+      </c>
+      <c r="G5" t="s">
+        <v>347</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>483.01</v>
+      </c>
+      <c r="J5" t="s">
+        <v>524</v>
+      </c>
+      <c r="K5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>525</v>
+      </c>
+      <c r="B6" t="s">
+        <v>516</v>
+      </c>
+      <c r="C6" t="s">
+        <v>523</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F6" t="s">
+        <v>273</v>
+      </c>
+      <c r="G6" t="s">
+        <v>345</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>501.11</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="K6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J7" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
